--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata-DeepSeek/CoT_deepseek_dbpedia_wikidata_results_comparison.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata-DeepSeek/CoT_deepseek_dbpedia_wikidata_results_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Who is the founder of Penguin Books?</t>
+          <t>Who developed Skype?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1263483']</t>
+          <t>['http://www.wikidata.org/entity/Q246125']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1263483']</t>
+          <t>['http://www.wikidata.org/entity/Q246125']</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -478,17 +478,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Which films did Stanley Kubrick direct?</t>
+          <t>Show a list of soccer clubs that play in the Bundesliga.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103474', 'http://www.wikidata.org/entity/Q105702', 'http://www.wikidata.org/entity/Q108297', 'http://www.wikidata.org/entity/Q110624336', 'http://www.wikidata.org/entity/Q1434632', 'http://www.wikidata.org/entity/Q181086', 'http://www.wikidata.org/entity/Q186341', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q2164458', 'http://www.wikidata.org/entity/Q243439', 'http://www.wikidata.org/entity/Q426628', 'http://www.wikidata.org/entity/Q471716', 'http://www.wikidata.org/entity/Q536560', 'http://www.wikidata.org/entity/Q592072', 'http://www.wikidata.org/entity/Q747936', 'http://www.wikidata.org/entity/Q929157', 'http://www.wikidata.org/entity/Q936477']</t>
+          <t>['http://www.wikidata.org/entity/Q101859', 'http://www.wikidata.org/entity/Q101959', 'http://www.wikidata.org/entity/Q104761', 'http://www.wikidata.org/entity/Q105254', 'http://www.wikidata.org/entity/Q105861', 'http://www.wikidata.org/entity/Q106394', 'http://www.wikidata.org/entity/Q141971', 'http://www.wikidata.org/entity/Q15755', 'http://www.wikidata.org/entity/Q157828', 'http://www.wikidata.org/entity/Q15789', 'http://www.wikidata.org/entity/Q162251', 'http://www.wikidata.org/entity/Q22707', 'http://www.wikidata.org/entity/Q38245', 'http://www.wikidata.org/entity/Q41420', 'http://www.wikidata.org/entity/Q4512', 'http://www.wikidata.org/entity/Q51976', 'http://www.wikidata.org/entity/Q6463', 'http://www.wikidata.org/entity/Q702455']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103474', 'http://www.wikidata.org/entity/Q105702', 'http://www.wikidata.org/entity/Q108297', 'http://www.wikidata.org/entity/Q110624336', 'http://www.wikidata.org/entity/Q1434632', 'http://www.wikidata.org/entity/Q181086', 'http://www.wikidata.org/entity/Q186341', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q2164458', 'http://www.wikidata.org/entity/Q243439', 'http://www.wikidata.org/entity/Q426628', 'http://www.wikidata.org/entity/Q471716', 'http://www.wikidata.org/entity/Q536560', 'http://www.wikidata.org/entity/Q592072', 'http://www.wikidata.org/entity/Q747936', 'http://www.wikidata.org/entity/Q929157', 'http://www.wikidata.org/entity/Q936477']</t>
+          <t>['http://www.wikidata.org/entity/Q101859', 'http://www.wikidata.org/entity/Q101959', 'http://www.wikidata.org/entity/Q104761', 'http://www.wikidata.org/entity/Q105254', 'http://www.wikidata.org/entity/Q105861', 'http://www.wikidata.org/entity/Q106394', 'http://www.wikidata.org/entity/Q141971', 'http://www.wikidata.org/entity/Q15755', 'http://www.wikidata.org/entity/Q157828', 'http://www.wikidata.org/entity/Q15789', 'http://www.wikidata.org/entity/Q162251', 'http://www.wikidata.org/entity/Q22707', 'http://www.wikidata.org/entity/Q38245', 'http://www.wikidata.org/entity/Q41420', 'http://www.wikidata.org/entity/Q4512', 'http://www.wikidata.org/entity/Q51976', 'http://www.wikidata.org/entity/Q6463', 'http://www.wikidata.org/entity/Q702455']</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Who developed Skype?</t>
+          <t>What is the highest mountain?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q246125']</t>
+          <t>['http://www.wikidata.org/entity/Q123374100']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q246125']</t>
+          <t>['http://www.wikidata.org/entity/Q123374100']</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Show a list of soccer clubs that play in the Bundesliga.</t>
+          <t>How many films did Leonardo DiCaprio star in?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q101859', 'http://www.wikidata.org/entity/Q101959', 'http://www.wikidata.org/entity/Q104761', 'http://www.wikidata.org/entity/Q105254', 'http://www.wikidata.org/entity/Q105861', 'http://www.wikidata.org/entity/Q106394', 'http://www.wikidata.org/entity/Q141971', 'http://www.wikidata.org/entity/Q15755', 'http://www.wikidata.org/entity/Q157828', 'http://www.wikidata.org/entity/Q15789', 'http://www.wikidata.org/entity/Q162251', 'http://www.wikidata.org/entity/Q22707', 'http://www.wikidata.org/entity/Q38245', 'http://www.wikidata.org/entity/Q41420', 'http://www.wikidata.org/entity/Q4512', 'http://www.wikidata.org/entity/Q51976', 'http://www.wikidata.org/entity/Q6463', 'http://www.wikidata.org/entity/Q702455']</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q101859', 'http://www.wikidata.org/entity/Q101959', 'http://www.wikidata.org/entity/Q104761', 'http://www.wikidata.org/entity/Q105254', 'http://www.wikidata.org/entity/Q105861', 'http://www.wikidata.org/entity/Q106394', 'http://www.wikidata.org/entity/Q141971', 'http://www.wikidata.org/entity/Q15755', 'http://www.wikidata.org/entity/Q157828', 'http://www.wikidata.org/entity/Q15789', 'http://www.wikidata.org/entity/Q162251', 'http://www.wikidata.org/entity/Q22707', 'http://www.wikidata.org/entity/Q38245', 'http://www.wikidata.org/entity/Q41420', 'http://www.wikidata.org/entity/Q4512', 'http://www.wikidata.org/entity/Q51976', 'http://www.wikidata.org/entity/Q6463', 'http://www.wikidata.org/entity/Q702455']</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -538,37 +538,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>What is the highest mountain?</t>
+          <t>When was Olof Palme shot?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q123374100']</t>
+          <t>['http://www.wikidata.org/entity/statement/q53713-5CBE6C03-5BB4-44B8-A01F-639E1678F280']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q123374100']</t>
+          <t>['1986-02-28T00:00:00Z']</t>
         </is>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>How many films did Leonardo DiCaprio star in?</t>
+          <t>Who developed Minecraft?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>When was Olof Palme shot?</t>
+          <t>For which label did Elvis record his first album?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/statement/q53713-5CBE6C03-5BB4-44B8-A01F-639E1678F280']</t>
+          <t>['http://www.wikidata.org/entity/Q202585']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['1986-02-28T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q3415083']</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -598,17 +598,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Which movies star both Liz Taylor and Richard Burton?</t>
+          <t>Give me the runtime of Toy Story.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -618,117 +618,117 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Give me the runtime of Toy Story.</t>
+          <t>In which year was Rachel Stevens born?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>['1978-04-09T00:00:00Z']</t>
         </is>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Give me a list of all trumpet players that were bandleaders.</t>
+          <t>What is the most frequent cause of death?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q101114845', 'http://www.wikidata.org/entity/Q101428268', 'http://www.wikidata.org/entity/Q1017857', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q10378298', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q10513330', 'http://www.wikidata.org/entity/Q106205227', 'http://www.wikidata.org/entity/Q106689756', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q107406319', 'http://www.wikidata.org/entity/Q107655857', 'http://www.wikidata.org/entity/Q1081180', 'http://www.wikidata.org/entity/Q109554339', 'http://www.wikidata.org/entity/Q109554543', 'http://www.wikidata.org/entity/Q109555192', 'http://www.wikidata.org/entity/Q1103542', 'http://www.wikidata.org/entity/Q1111398', 'http://www.wikidata.org/entity/Q112135459', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11399791', 'http://www.wikidata.org/entity/Q115301', 'http://www.wikidata.org/entity/Q11629760', 'http://www.wikidata.org/entity/Q1176023', 'http://www.wikidata.org/entity/Q1176361', 'http://www.wikidata.org/entity/Q11858672', 'http://www.wikidata.org/entity/Q11867190', 'http://www.wikidata.org/entity/Q12010658', 'http://www.wikidata.org/entity/Q120867', 'http://www.wikidata.org/entity/Q121167557', 'http://www.wikidata.org/entity/Q122332851', 'http://www.wikidata.org/entity/Q122474625', 'http://www.wikidata.org/entity/Q122910179', 'http://www.wikidata.org/entity/Q123200520', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124037701', 'http://www.wikidata.org/entity/Q124463256', 'http://www.wikidata.org/entity/Q1267291', 'http://www.wikidata.org/entity/Q12725804', 'http://www.wikidata.org/entity/Q12762176', 'http://www.wikidata.org/entity/Q12813704', 'http://www.wikidata.org/entity/Q1282503', 'http://www.wikidata.org/entity/Q1314051', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1332284', 'http://www.wikidata.org/entity/Q13428279', 'http://www.wikidata.org/entity/Q13428924', 'http://www.wikidata.org/entity/Q13429127', 'http://www.wikidata.org/entity/Q13430549', 'http://www.wikidata.org/entity/Q13430599', 'http://www.wikidata.org/entity/Q1346808', 'http://www.wikidata.org/entity/Q1349008', 'http://www.wikidata.org/entity/Q1350269', 'http://www.wikidata.org/entity/Q13578525', 'http://www.wikidata.org/entity/Q1361982', 'http://www.wikidata.org/entity/Q13621967', 'http://www.wikidata.org/entity/Q13637576', 'http://www.wikidata.org/entity/Q13637684', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q13642623', 'http://www.wikidata.org/entity/Q13735676', 'http://www.wikidata.org/entity/Q13748173', 'http://www.wikidata.org/entity/Q13749321', 'http://www.wikidata.org/entity/Q13818959', 'http://www.wikidata.org/entity/Q14084087', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q14252911', 'http://www.wikidata.org/entity/Q14282663', 'http://www.wikidata.org/entity/Q1440487', 'http://www.wikidata.org/entity/Q14514707', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453559', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q14625857', 'http://www.wikidata.org/entity/Q1468204', 'http://www.wikidata.org/entity/Q14855238', 'http://www.wikidata.org/entity/Q1495388', 'http://www.wikidata.org/entity/Q15065014', 'http://www.wikidata.org/entity/Q1523174', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15434980', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q15485371', 'http://www.wikidata.org/entity/Q1558930', 'http://www.wikidata.org/entity/Q1558978', 'http://www.wikidata.org/entity/Q15663950', 'http://www.wikidata.org/entity/Q15782011', 'http://www.wikidata.org/entity/Q15831726', 'http://www.wikidata.org/entity/Q15831730', 'http://www.wikidata.org/entity/Q15831731', 'http://www.wikidata.org/entity/Q15831749', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15838279', 'http://www.wikidata.org/entity/Q15838400', 'http://www.wikidata.org/entity/Q15838411', 'http://www.wikidata.org/entity/Q15838414', 'http://www.wikidata.org/entity/Q15838481', 'http://www.wikidata.org/entity/Q15963688', 'http://www.wikidata.org/entity/Q15977560', 'http://www.wikidata.org/entity/Q15982372', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1604148', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q16179949', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q16560522', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1679611', 'http://www.wikidata.org/entity/Q1680582', 'http://www.wikidata.org/entity/Q1682798', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689205', 'http://www.wikidata.org/entity/Q1689925', 'http://www.wikidata.org/entity/Q16948823', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1704053', 'http://www.wikidata.org/entity/Q1729145', 'http://www.wikidata.org/entity/Q1729163', 'http://www.wikidata.org/entity/Q17302890', 'http://www.wikidata.org/entity/Q17302909', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q1730938', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q17621303', 'http://www.wikidata.org/entity/Q17630817', 'http://www.wikidata.org/entity/Q1770558', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1795197', 'http://www.wikidata.org/entity/Q18028541', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q1822323', 'http://www.wikidata.org/entity/Q1844485', 'http://www.wikidata.org/entity/Q1852290', 'http://www.wikidata.org/entity/Q18596060', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q1873386', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1886030', 'http://www.wikidata.org/entity/Q1897498', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1902333', 'http://www.wikidata.org/entity/Q1903602', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917265', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q1952063', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q1966469', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19787616', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19965844', 'http://www.wikidata.org/entity/Q1997017', 'http://www.wikidata.org/entity/Q2002094', 'http://www.wikidata.org/entity/Q20065940', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2018006', 'http://www.wikidata.org/entity/Q2018624', 'http://www.wikidata.org/entity/Q2033376', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q205139', 'http://www.wikidata.org/entity/Q2051847', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2065647', 'http://www.wikidata.org/entity/Q2071995', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q21069758', 'http://www.wikidata.org/entity/Q2113826', 'http://www.wikidata.org/entity/Q2114588', 'http://www.wikidata.org/entity/Q212175', 'http://www.wikidata.org/entity/Q2131475', 'http://www.wikidata.org/entity/Q2134409', 'http://www.wikidata.org/entity/Q2160123', 'http://www.wikidata.org/entity/Q2160443', 'http://www.wikidata.org/entity/Q2178215', 'http://www.wikidata.org/entity/Q2204603', 'http://www.wikidata.org/entity/Q2205004', 'http://www.wikidata.org/entity/Q22077690', 'http://www.wikidata.org/entity/Q2212853', 'http://www.wikidata.org/entity/Q2215501', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q2223014', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q2231142', 'http://www.wikidata.org/entity/Q2237290', 'http://www.wikidata.org/entity/Q2249186', 'http://www.wikidata.org/entity/Q2265140', 'http://www.wikidata.org/entity/Q2269117', 'http://www.wikidata.org/entity/Q2281105', 'http://www.wikidata.org/entity/Q2282012', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2296396', 'http://www.wikidata.org/entity/Q2299727', 'http://www.wikidata.org/entity/Q2301899', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2308068', 'http://www.wikidata.org/entity/Q2317152', 'http://www.wikidata.org/entity/Q2333645', 'http://www.wikidata.org/entity/Q2346719', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q2350926', 'http://www.wikidata.org/entity/Q2351608', 'http://www.wikidata.org/entity/Q2373687', 'http://www.wikidata.org/entity/Q23848', 'http://www.wikidata.org/entity/Q2388958', 'http://www.wikidata.org/entity/Q2389118', 'http://www.wikidata.org/entity/Q2389720', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2398731', 'http://www.wikidata.org/entity/Q24004815', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2434943', 'http://www.wikidata.org/entity/Q2444116', 'http://www.wikidata.org/entity/Q2452107', 'http://www.wikidata.org/entity/Q24545476', 'http://www.wikidata.org/entity/Q2461095', 'http://www.wikidata.org/entity/Q2498692', 'http://www.wikidata.org/entity/Q25016213', 'http://www.wikidata.org/entity/Q250592', 'http://www.wikidata.org/entity/Q2524882', 'http://www.wikidata.org/entity/Q2545432', 'http://www.wikidata.org/entity/Q2555494', 'http://www.wikidata.org/entity/Q2585526', 'http://www.wikidata.org/entity/Q2589470', 'http://www.wikidata.org/entity/Q2597090', 'http://www.wikidata.org/entity/Q2602149', 'http://www.wikidata.org/entity/Q2605389', 'http://www.wikidata.org/entity/Q2614369', 'http://www.wikidata.org/entity/Q2618892', 'http://www.wikidata.org/entity/Q2620075', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2658419', 'http://www.wikidata.org/entity/Q2660295', 'http://www.wikidata.org/entity/Q2666889', 'http://www.wikidata.org/entity/Q2676832', 'http://www.wikidata.org/entity/Q2686509', 'http://www.wikidata.org/entity/Q2689866', 'http://www.wikidata.org/entity/Q2723748', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q2732134', 'http://www.wikidata.org/entity/Q27349585', 'http://www.wikidata.org/entity/Q2738133', 'http://www.wikidata.org/entity/Q2750590', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q2781380', 'http://www.wikidata.org/entity/Q2805529', 'http://www.wikidata.org/entity/Q2850896', 'http://www.wikidata.org/entity/Q2916457', 'http://www.wikidata.org/entity/Q2951433', 'http://www.wikidata.org/entity/Q300779', 'http://www.wikidata.org/entity/Q3026768', 'http://www.wikidata.org/entity/Q309470', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313554', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3144611', 'http://www.wikidata.org/entity/Q319451', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q3209874', 'http://www.wikidata.org/entity/Q3219391', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q322835', 'http://www.wikidata.org/entity/Q322866', 'http://www.wikidata.org/entity/Q3289097', 'http://www.wikidata.org/entity/Q3296667', 'http://www.wikidata.org/entity/Q3317466', 'http://www.wikidata.org/entity/Q3330992', 'http://www.wikidata.org/entity/Q3367630', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q3514155', 'http://www.wikidata.org/entity/Q3521902', 'http://www.wikidata.org/entity/Q3534050', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q3562367', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q357036', 'http://www.wikidata.org/entity/Q3705319', 'http://www.wikidata.org/entity/Q3754332', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q3762145', 'http://www.wikidata.org/entity/Q3767568', 'http://www.wikidata.org/entity/Q3837619', 'http://www.wikidata.org/entity/Q3919987', 'http://www.wikidata.org/entity/Q3929797', 'http://www.wikidata.org/entity/Q3973394', 'http://www.wikidata.org/entity/Q405682', 'http://www.wikidata.org/entity/Q4102218', 'http://www.wikidata.org/entity/Q4111188', 'http://www.wikidata.org/entity/Q4112047', 'http://www.wikidata.org/entity/Q4188447', 'http://www.wikidata.org/entity/Q4192381', 'http://www.wikidata.org/entity/Q4212029', 'http://www.wikidata.org/entity/Q4216887', 'http://www.wikidata.org/entity/Q4226412', 'http://www.wikidata.org/entity/Q4251281', 'http://www.wikidata.org/entity/Q4252138', 'http://www.wikidata.org/entity/Q42786392', 'http://www.wikidata.org/entity/Q43191106', 'http://www.wikidata.org/entity/Q433579', 'http://www.wikidata.org/entity/Q4347263', 'http://www.wikidata.org/entity/Q4347986', 'http://www.wikidata.org/entity/Q4349639', 'http://www.wikidata.org/entity/Q4351622', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q4377045', 'http://www.wikidata.org/entity/Q4401249', 'http://www.wikidata.org/entity/Q4464127', 'http://www.wikidata.org/entity/Q4502786', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4765639', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q4887822', 'http://www.wikidata.org/entity/Q4889351', 'http://www.wikidata.org/entity/Q4889942', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q4956069', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q496386', 'http://www.wikidata.org/entity/Q506913', 'http://www.wikidata.org/entity/Q511817', 'http://www.wikidata.org/entity/Q5202535', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q523309', 'http://www.wikidata.org/entity/Q5235139', 'http://www.wikidata.org/entity/Q5240601', 'http://www.wikidata.org/entity/Q5246126', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q538062', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q5394507', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q5490378', 'http://www.wikidata.org/entity/Q54912317', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q55226721', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5528172', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q5560464', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q56414132', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q5788763', 'http://www.wikidata.org/entity/Q57941720', 'http://www.wikidata.org/entity/Q5860409', 'http://www.wikidata.org/entity/Q5864112', 'http://www.wikidata.org/entity/Q5872203', 'http://www.wikidata.org/entity/Q5876210', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q5929845', 'http://www.wikidata.org/entity/Q5932732', 'http://www.wikidata.org/entity/Q5990031', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6027208', 'http://www.wikidata.org/entity/Q60642757', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6145197', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q61816822', 'http://www.wikidata.org/entity/Q6202890', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q6390677', 'http://www.wikidata.org/entity/Q64860097', 'http://www.wikidata.org/entity/Q64936945', 'http://www.wikidata.org/entity/Q64949475', 'http://www.wikidata.org/entity/Q64985644', 'http://www.wikidata.org/entity/Q64993378', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q7183918', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q7319236', 'http://www.wikidata.org/entity/Q7333203', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7477602', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q787308', 'http://www.wikidata.org/entity/Q78932', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8007734', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q830257', 'http://www.wikidata.org/entity/Q85647', 'http://www.wikidata.org/entity/Q85974715', 'http://www.wikidata.org/entity/Q85974746', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q86806', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q891134', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q89804', 'http://www.wikidata.org/entity/Q904844', 'http://www.wikidata.org/entity/Q91232485', 'http://www.wikidata.org/entity/Q920288', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q930965', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q93487778', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q9422246', 'http://www.wikidata.org/entity/Q945778', 'http://www.wikidata.org/entity/Q94689370', 'http://www.wikidata.org/entity/Q964682', 'http://www.wikidata.org/entity/Q967230', 'http://www.wikidata.org/entity/Q967916', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820', 'http://www.wikidata.org/entity/Q99731455']</t>
+          <t>['http://www.wikidata.org/entity/Q12152']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q106435366', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q23874600', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820']</t>
+          <t>['http://www.wikidata.org/entity/Q12152']</t>
         </is>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>In which films directed by Garry Marshall was Julia Roberts starring?</t>
+          <t>What is the highest mountain in Italy?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954', 'http://www.wikidata.org/entity/Q20899741', 'http://www.wikidata.org/entity/Q244975']</t>
+          <t>['http://www.wikidata.org/entity/Q102174232']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954', 'http://www.wikidata.org/entity/Q20899741', 'http://www.wikidata.org/entity/Q244975']</t>
+          <t>['3146', 'http://www.wikidata.org/entity/Q3506451']</t>
         </is>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>In which year was Rachel Stevens born?</t>
+          <t>Who was the doctoral supervisor of Albert Einstein?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['1978-04-09T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
         </is>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>How high is the Yokohama Marine Tower?</t>
+          <t>What is Donald Trump's main business?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['101']</t>
+          <t>['http://www.wikidata.org/entity/Q2462124']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['101']</t>
+          <t>['http://www.wikidata.org/entity/Q115934307', 'http://www.wikidata.org/entity/Q123134707', 'http://www.wikidata.org/entity/Q123352703', 'http://www.wikidata.org/entity/Q1262898', 'http://www.wikidata.org/entity/Q18011281', 'http://www.wikidata.org/entity/Q20714076', 'http://www.wikidata.org/entity/Q286493', 'http://www.wikidata.org/entity/Q54869832', 'http://www.wikidata.org/entity/Q60789091', 'http://www.wikidata.org/entity/Q7847774', 'http://www.wikidata.org/entity/Q844324']</t>
         </is>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>What is the highest mountain in Italy?</t>
+          <t>Who has Tom Cruise been married to?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q102174232']</t>
+          <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054', 'http://www.wikidata.org/entity/Q37459']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['3146', 'http://www.wikidata.org/entity/Q3506451']</t>
+          <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054']</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,57 +738,57 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Who was the doctoral supervisor of Albert Einstein?</t>
+          <t>How many people live in Eurasia?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
+          <t>['5348554000']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/statement/Q937-61A00029-3304-45D0-AF63-38B5696AAAF5', 'http://www.wikidata.org/entity/statement/Q937-99734d53-47c3-cc4b-580e-784486517d39', 'http://www.wikidata.org/entity/statement/Q937-e3d28962-43ab-c2d8-e4d6-8284b893dff9']</t>
+          <t>['5348554000']</t>
         </is>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>What is Donald Trump's main business?</t>
+          <t>Who is the author of the interpretation of dreams?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q2462124']</t>
+          <t>['http://www.wikidata.org/entity/Q9215']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q115934307', 'http://www.wikidata.org/entity/Q123134707', 'http://www.wikidata.org/entity/Q123352703', 'http://www.wikidata.org/entity/Q1262898', 'http://www.wikidata.org/entity/Q18011281', 'http://www.wikidata.org/entity/Q20714076', 'http://www.wikidata.org/entity/Q286493', 'http://www.wikidata.org/entity/Q54869832', 'http://www.wikidata.org/entity/Q60789091', 'http://www.wikidata.org/entity/Q7847774', 'http://www.wikidata.org/entity/Q844324']</t>
+          <t>['http://www.wikidata.org/entity/Q9215']</t>
         </is>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Who has Tom Cruise been married to?</t>
+          <t>how much is the total population of european union?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054', 'http://www.wikidata.org/entity/Q37459']</t>
+          <t>['447706209']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054', 'http://www.wikidata.org/entity/Q37459']</t>
+          <t>['447706209']</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Who is the author of the interpretation of dreams?</t>
+          <t>Give me the currency of China.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q9215']</t>
+          <t>['http://www.wikidata.org/entity/Q39099']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q9215']</t>
+          <t>['http://www.wikidata.org/entity/Q39099']</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>When was John Adams born?</t>
+          <t>Who developed the video game World of Warcraft?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['1735-10-30T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q178824']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['1735-10-30T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q178824']</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -838,57 +838,57 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Give me the currency of China.</t>
+          <t>Which university did Angela Merkel attend?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q39099']</t>
+          <t>['http://www.wikidata.org/entity/Q154804']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q39099']</t>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
         </is>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>When was the death of Shakespeare?</t>
+          <t>Give me all movies with Tom Cruise.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['1616-05-03T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107646713', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q1356213', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q20755860', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q61876374', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q77949688', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['1616-05-03T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
         </is>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Which university did Angela Merkel attend?</t>
+          <t>Where was JFK assassinated?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q154804']</t>
+          <t>['http://www.wikidata.org/entity/Q3896131']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
+          <t>['http://www.wikidata.org/entity/statement/q9696-7A86E8F9-F50D-4385-B1D7-4E7A1E0672CA']</t>
         </is>
       </c>
       <c r="D23" t="b">
@@ -898,37 +898,37 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Where was JFK assassinated?</t>
+          <t>Which river does the Brooklyn Bridge cross?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3896131']</t>
+          <t>['http://www.wikidata.org/entity/Q212862']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/statement/q9696-7A86E8F9-F50D-4385-B1D7-4E7A1E0672CA']</t>
+          <t>['http://www.wikidata.org/entity/Q212862']</t>
         </is>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Which river does the Brooklyn Bridge cross?</t>
+          <t>Give all swimmers that were born in Moscow.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q212862']</t>
+          <t>['http://www.wikidata.org/entity/Q1031959', 'http://www.wikidata.org/entity/Q107353823', 'http://www.wikidata.org/entity/Q107634702', 'http://www.wikidata.org/entity/Q107638361', 'http://www.wikidata.org/entity/Q108305735', 'http://www.wikidata.org/entity/Q10860087', 'http://www.wikidata.org/entity/Q108658638', 'http://www.wikidata.org/entity/Q11750372', 'http://www.wikidata.org/entity/Q124302084', 'http://www.wikidata.org/entity/Q124313747', 'http://www.wikidata.org/entity/Q1439850', 'http://www.wikidata.org/entity/Q14504132', 'http://www.wikidata.org/entity/Q14560946', 'http://www.wikidata.org/entity/Q16054123', 'http://www.wikidata.org/entity/Q16221402', 'http://www.wikidata.org/entity/Q17154793', 'http://www.wikidata.org/entity/Q17523891', 'http://www.wikidata.org/entity/Q17644417', 'http://www.wikidata.org/entity/Q18021520', 'http://www.wikidata.org/entity/Q18639533', 'http://www.wikidata.org/entity/Q19578089', 'http://www.wikidata.org/entity/Q19867395', 'http://www.wikidata.org/entity/Q19915730', 'http://www.wikidata.org/entity/Q20862334', 'http://www.wikidata.org/entity/Q21094770', 'http://www.wikidata.org/entity/Q2113545', 'http://www.wikidata.org/entity/Q21622402', 'http://www.wikidata.org/entity/Q21623147', 'http://www.wikidata.org/entity/Q2356473', 'http://www.wikidata.org/entity/Q2372089', 'http://www.wikidata.org/entity/Q2391239', 'http://www.wikidata.org/entity/Q24048969', 'http://www.wikidata.org/entity/Q242776', 'http://www.wikidata.org/entity/Q24955683', 'http://www.wikidata.org/entity/Q2509125', 'http://www.wikidata.org/entity/Q2567381', 'http://www.wikidata.org/entity/Q26229689', 'http://www.wikidata.org/entity/Q26236434', 'http://www.wikidata.org/entity/Q26250653', 'http://www.wikidata.org/entity/Q2668457', 'http://www.wikidata.org/entity/Q27063571', 'http://www.wikidata.org/entity/Q2734147', 'http://www.wikidata.org/entity/Q27538037', 'http://www.wikidata.org/entity/Q2754815', 'http://www.wikidata.org/entity/Q27805393', 'http://www.wikidata.org/entity/Q27995584', 'http://www.wikidata.org/entity/Q2901829', 'http://www.wikidata.org/entity/Q29021564', 'http://www.wikidata.org/entity/Q299747', 'http://www.wikidata.org/entity/Q3049594', 'http://www.wikidata.org/entity/Q33259050', 'http://www.wikidata.org/entity/Q3801963', 'http://www.wikidata.org/entity/Q3870583', 'http://www.wikidata.org/entity/Q4015878', 'http://www.wikidata.org/entity/Q4113367', 'http://www.wikidata.org/entity/Q4244582', 'http://www.wikidata.org/entity/Q460043', 'http://www.wikidata.org/entity/Q4715115', 'http://www.wikidata.org/entity/Q4715355', 'http://www.wikidata.org/entity/Q4715366', 'http://www.wikidata.org/entity/Q4715396', 'http://www.wikidata.org/entity/Q4715965', 'http://www.wikidata.org/entity/Q4721350', 'http://www.wikidata.org/entity/Q4730244', 'http://www.wikidata.org/entity/Q4751854', 'http://www.wikidata.org/entity/Q4759167', 'http://www.wikidata.org/entity/Q4759191', 'http://www.wikidata.org/entity/Q4767053', 'http://www.wikidata.org/entity/Q4797426', 'http://www.wikidata.org/entity/Q50221013', 'http://www.wikidata.org/entity/Q508250', 'http://www.wikidata.org/entity/Q5219224', 'http://www.wikidata.org/entity/Q5219549', 'http://www.wikidata.org/entity/Q5348229', 'http://www.wikidata.org/entity/Q556111', 'http://www.wikidata.org/entity/Q55972891', 'http://www.wikidata.org/entity/Q56043337', 'http://www.wikidata.org/entity/Q56073370', 'http://www.wikidata.org/entity/Q57114357', 'http://www.wikidata.org/entity/Q6069817', 'http://www.wikidata.org/entity/Q6069906', 'http://www.wikidata.org/entity/Q65589494', 'http://www.wikidata.org/entity/Q66317885', 'http://www.wikidata.org/entity/Q6761242', 'http://www.wikidata.org/entity/Q6763800', 'http://www.wikidata.org/entity/Q6763906', 'http://www.wikidata.org/entity/Q6968363', 'http://www.wikidata.org/entity/Q6968364', 'http://www.wikidata.org/entity/Q7035893', 'http://www.wikidata.org/entity/Q7038078', 'http://www.wikidata.org/entity/Q7086047', 'http://www.wikidata.org/entity/Q7086663', 'http://www.wikidata.org/entity/Q7086674', 'http://www.wikidata.org/entity/Q7263180', 'http://www.wikidata.org/entity/Q7454107', 'http://www.wikidata.org/entity/Q7680835', 'http://www.wikidata.org/entity/Q7910781', 'http://www.wikidata.org/entity/Q7910881', 'http://www.wikidata.org/entity/Q7910896', 'http://www.wikidata.org/entity/Q7929719', 'http://www.wikidata.org/entity/Q7929757', 'http://www.wikidata.org/entity/Q7929832', 'http://www.wikidata.org/entity/Q7938430', 'http://www.wikidata.org/entity/Q7938643', 'http://www.wikidata.org/entity/Q8051367', 'http://www.wikidata.org/entity/Q8053274', 'http://www.wikidata.org/entity/Q87832143', 'http://www.wikidata.org/entity/Q9146400', 'http://www.wikidata.org/entity/Q9323051']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q212862']</t>
+          <t>['http://www.wikidata.org/entity/Q1031959', 'http://www.wikidata.org/entity/Q107353823', 'http://www.wikidata.org/entity/Q107634702', 'http://www.wikidata.org/entity/Q107638361', 'http://www.wikidata.org/entity/Q108305735', 'http://www.wikidata.org/entity/Q10860087', 'http://www.wikidata.org/entity/Q108658638', 'http://www.wikidata.org/entity/Q11750372', 'http://www.wikidata.org/entity/Q124302084', 'http://www.wikidata.org/entity/Q124313747', 'http://www.wikidata.org/entity/Q1439850', 'http://www.wikidata.org/entity/Q14504132', 'http://www.wikidata.org/entity/Q14560946', 'http://www.wikidata.org/entity/Q16054123', 'http://www.wikidata.org/entity/Q16221402', 'http://www.wikidata.org/entity/Q17154793', 'http://www.wikidata.org/entity/Q17523891', 'http://www.wikidata.org/entity/Q17644417', 'http://www.wikidata.org/entity/Q18021520', 'http://www.wikidata.org/entity/Q18639533', 'http://www.wikidata.org/entity/Q19578089', 'http://www.wikidata.org/entity/Q19867395', 'http://www.wikidata.org/entity/Q19915730', 'http://www.wikidata.org/entity/Q20862334', 'http://www.wikidata.org/entity/Q21094770', 'http://www.wikidata.org/entity/Q2113545', 'http://www.wikidata.org/entity/Q21622402', 'http://www.wikidata.org/entity/Q21623147', 'http://www.wikidata.org/entity/Q2356473', 'http://www.wikidata.org/entity/Q2372089', 'http://www.wikidata.org/entity/Q2391239', 'http://www.wikidata.org/entity/Q24048969', 'http://www.wikidata.org/entity/Q242776', 'http://www.wikidata.org/entity/Q24955683', 'http://www.wikidata.org/entity/Q2509125', 'http://www.wikidata.org/entity/Q2567381', 'http://www.wikidata.org/entity/Q26229689', 'http://www.wikidata.org/entity/Q26236434', 'http://www.wikidata.org/entity/Q26250653', 'http://www.wikidata.org/entity/Q2668457', 'http://www.wikidata.org/entity/Q27063571', 'http://www.wikidata.org/entity/Q2734147', 'http://www.wikidata.org/entity/Q27538037', 'http://www.wikidata.org/entity/Q2754815', 'http://www.wikidata.org/entity/Q27805393', 'http://www.wikidata.org/entity/Q27995584', 'http://www.wikidata.org/entity/Q2901829', 'http://www.wikidata.org/entity/Q29021564', 'http://www.wikidata.org/entity/Q299747', 'http://www.wikidata.org/entity/Q3049594', 'http://www.wikidata.org/entity/Q33259050', 'http://www.wikidata.org/entity/Q3801963', 'http://www.wikidata.org/entity/Q3870583', 'http://www.wikidata.org/entity/Q4015878', 'http://www.wikidata.org/entity/Q4113367', 'http://www.wikidata.org/entity/Q4244582', 'http://www.wikidata.org/entity/Q460043', 'http://www.wikidata.org/entity/Q4715115', 'http://www.wikidata.org/entity/Q4715355', 'http://www.wikidata.org/entity/Q4715366', 'http://www.wikidata.org/entity/Q4715396', 'http://www.wikidata.org/entity/Q4715965', 'http://www.wikidata.org/entity/Q4721350', 'http://www.wikidata.org/entity/Q4730244', 'http://www.wikidata.org/entity/Q4751854', 'http://www.wikidata.org/entity/Q4759167', 'http://www.wikidata.org/entity/Q4759191', 'http://www.wikidata.org/entity/Q4767053', 'http://www.wikidata.org/entity/Q4797426', 'http://www.wikidata.org/entity/Q50221013', 'http://www.wikidata.org/entity/Q508250', 'http://www.wikidata.org/entity/Q5219224', 'http://www.wikidata.org/entity/Q5219549', 'http://www.wikidata.org/entity/Q5348229', 'http://www.wikidata.org/entity/Q556111', 'http://www.wikidata.org/entity/Q55972891', 'http://www.wikidata.org/entity/Q56043337', 'http://www.wikidata.org/entity/Q56073370', 'http://www.wikidata.org/entity/Q57114357', 'http://www.wikidata.org/entity/Q6069817', 'http://www.wikidata.org/entity/Q6069906', 'http://www.wikidata.org/entity/Q65589494', 'http://www.wikidata.org/entity/Q66317885', 'http://www.wikidata.org/entity/Q6761242', 'http://www.wikidata.org/entity/Q6763800', 'http://www.wikidata.org/entity/Q6763906', 'http://www.wikidata.org/entity/Q6968363', 'http://www.wikidata.org/entity/Q6968364', 'http://www.wikidata.org/entity/Q7035893', 'http://www.wikidata.org/entity/Q7038078', 'http://www.wikidata.org/entity/Q7086047', 'http://www.wikidata.org/entity/Q7086663', 'http://www.wikidata.org/entity/Q7086674', 'http://www.wikidata.org/entity/Q7263180', 'http://www.wikidata.org/entity/Q7454107', 'http://www.wikidata.org/entity/Q7680835', 'http://www.wikidata.org/entity/Q7910781', 'http://www.wikidata.org/entity/Q7910881', 'http://www.wikidata.org/entity/Q7910896', 'http://www.wikidata.org/entity/Q7929719', 'http://www.wikidata.org/entity/Q7929757', 'http://www.wikidata.org/entity/Q7929832', 'http://www.wikidata.org/entity/Q7938430', 'http://www.wikidata.org/entity/Q7938643', 'http://www.wikidata.org/entity/Q8051367', 'http://www.wikidata.org/entity/Q8053274', 'http://www.wikidata.org/entity/Q87832143', 'http://www.wikidata.org/entity/Q9146400', 'http://www.wikidata.org/entity/Q9323051']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,21 +938,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>What was the last movie with Alec Guinness?</t>
+          <t>What is the second highest mountain on Earth?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q6074']</t>
+          <t>['http://www.wikidata.org/entity/Q5159490']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q6074']</t>
+          <t>['http://www.wikidata.org/entity/Q6919666']</t>
         </is>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1058,21 +1058,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Which holidays are celebrated around the world?</t>
+          <t>Who wrote the book The Pillars of the Earth?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q116978631', 'http://www.wikidata.org/entity/Q21163268', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q124422802', 'http://www.wikidata.org/entity/Q18465013', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1651570', 'http://www.wikidata.org/entity/Q2564633', 'http://www.wikidata.org/entity/Q333016', 'http://www.wikidata.org/entity/Q61359735', 'http://www.wikidata.org/entity/Q72318', 'http://www.wikidata.org/entity/Q744159', 'http://www.wikidata.org/entity/Q751738', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q45922130', 'http://www.wikidata.org/entity/Q57350935', 'http://www.wikidata.org/entity/Q57397044', 'http://www.wikidata.org/entity/Q116978568', 'http://www.wikidata.org/entity/Q2859605', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q115181793', 'http://www.wikidata.org/entity/Q115369110', 'http://www.wikidata.org/entity/Q115369980', 'http://www.wikidata.org/entity/Q115377287', 'http://www.wikidata.org/entity/Q21697589', 'http://www.wikidata.org/entity/Q122069654', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q11406184', 'http://www.wikidata.org/entity/Q11643728', 'http://www.wikidata.org/entity/Q20044441', 'http://www.wikidata.org/entity/Q28685931', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q11387821', 'http://www.wikidata.org/entity/Q11436695', 'http://www.wikidata.org/entity/Q11501518', 'http://www.wikidata.org/entity/Q11502138', 'http://www.wikidata.org/entity/Q11512398', 'http://www.wikidata.org/entity/Q11590440', 'http://www.wikidata.org/entity/Q11604982', 'http://www.wikidata.org/entity/Q6455253', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q124005660', 'http://www.wikidata.org/entity/Q130611902', 'http://www.wikidata.org/entity/Q13258770', 'http://www.wikidata.org/entity/Q2838743', 'http://www.wikidata.org/entity/Q3092925', 'http://www.wikidata.org/entity/Q123004384', 'http://www.wikidata.org/entity/Q4546230', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q1137351', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q1186410', 'http://www.wikidata.org/entity/Q1355051', 'http://www.wikidata.org/entity/Q1355833', 'http://www.wikidata.org/entity/Q1359602', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1361489', 'http://www.wikidata.org/entity/Q17218111', 'http://www.wikidata.org/entity/Q483226', 'http://www.wikidata.org/entity/Q82405', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499494', 'http://www.wikidata.org/entity/Q113650760', 'http://www.wikidata.org/entity/Q11368765', 'http://www.wikidata.org/entity/Q113811579', 'http://www.wikidata.org/entity/Q113813231', 'http://www.wikidata.org/entity/Q113828978', 'http://www.wikidata.org/entity/Q113830063', 'http://www.wikidata.org/entity/Q113841626', 'http://www.wikidata.org/entity/Q113849016', 'http://www.wikidata.org/entity/Q113860611', 'http://www.wikidata.org/entity/Q113860644', 'http://www.wikidata.org/entity/Q113861194', 'http://www.wikidata.org/entity/Q113882354', 'http://www.wikidata.org/entity/Q113884368', 'http://www.wikidata.org/entity/Q113901976', 'http://www.wikidata.org/entity/Q113904662', 'http://www.wikidata.org/entity/Q1139536', 'http://www.wikidata.org/entity/Q113955599', 'http://www.wikidata.org/entity/Q113955616', 'http://www.wikidata.org/entity/Q113955620', 'http://www.wikidata.org/entity/Q113955692', 'http://www.wikidata.org/entity/Q113961851', 'http://www.wikidata.org/entity/Q113961888', 'http://www.wikidata.org/entity/Q113961932', 'http://www.wikidata.org/entity/Q114028189', 'http://www.wikidata.org/entity/Q114046091', 'http://www.wikidata.org/entity/Q114056617', 'http://www.wikidata.org/entity/Q114057278', 'http://www.wikidata.org/entity/Q114059225', 'http://www.wikidata.org/entity/Q114243677', 'http://www.wikidata.org/entity/Q114454471', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q114582556', 'http://www.wikidata.org/entity/Q114588676', 'http://www.wikidata.org/entity/Q114604', 'http://www.wikidata.org/entity/Q114947458', 'http://www.wikidata.org/entity/Q114948159', 'http://www.wikidata.org/entity/Q114996688', 'http://www.wikidata.org/entity/Q114997174', 'http://www.wikidata.org/entity/Q115341348', 'http://www.wikidata.org/entity/Q115367992', 'http://www.wikidata.org/entity/Q115397386', 'http://www.wikidata.org/entity/Q115517924', 'http://www.wikidata.org/entity/Q115764515', 'http://www.wikidata.org/entity/Q115801523', 'http://www.wikidata.org/entity/Q115912774', 'http://www.wikidata.org/entity/Q115990472', 'http://www.wikidata.org/entity/Q116414186', 'http://www.wikidata.org/entity/Q116690653', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117695225', 'http://www.wikidata.org/entity/Q117751349', 'http://www.wikidata.org/entity/Q117795094', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q118128483', 'http://www.wikidata.org/entity/Q11921906', 'http://www.wikidata.org/entity/Q11938851', 'http://www.wikidata.org/entity/Q119496586', 'http://www.wikidata.org/entity/Q11993043', 'http://www.wikidata.org/entity/Q1207931', 'http://www.wikidata.org/entity/Q1207932', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q121886956', 'http://www.wikidata.org/entity/Q122068698', 'http://www.wikidata.org/entity/Q122188018', 'http://www.wikidata.org/entity/Q12228863', 'http://www.wikidata.org/entity/Q12228866', 'http://www.wikidata.org/entity/Q12228868', 'http://www.wikidata.org/entity/Q12228876', 'http://www.wikidata.org/entity/Q12228884', 'http://www.wikidata.org/entity/Q12252186', 'http://www.wikidata.org/entity/Q12277858', 'http://www.wikidata.org/entity/Q122832546', 'http://www.wikidata.org/entity/Q12314502', 'http://www.wikidata.org/entity/Q123337193', 'http://www.wikidata.org/entity/Q123592992', 'http://www.wikidata.org/entity/Q12361577', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q12376028', 'http://www.wikidata.org/entity/Q12378350', 'http://www.wikidata.org/entity/Q124036138', 'http://www.wikidata.org/entity/Q12407929', 'http://www.wikidata.org/entity/Q12411505', 'http://www.wikidata.org/entity/Q124367042', 'http://www.wikidata.org/entity/Q124504910', 'http://www.wikidata.org/entity/Q124564384', 'http://www.wikidata.org/entity/Q124612831', 'http://www.wikidata.org/entity/Q124615758', 'http://www.wikidata.org/entity/Q124619352', 'http://www.wikidata.org/entity/Q124620804', 'http://www.wikidata.org/entity/Q124620822', 'http://www.wikidata.org/entity/Q124707699', 'http://www.wikidata.org/entity/Q124820083', 'http://www.wikidata.org/entity/Q124830280', 'http://www.wikidata.org/entity/Q124857570', 'http://www.wikidata.org/entity/Q124858688', 'http://www.wikidata.org/entity/Q124858953', 'http://www.wikidata.org/entity/Q125149734', 'http://www.wikidata.org/entity/Q125205121', 'http://www.wikidata.org/entity/Q1254268', 'http://www.wikidata.org/entity/Q125510673', 'http://www.wikidata.org/entity/Q125511630', 'http://www.wikidata.org/entity/Q125521675', 'http://www.wikidata.org/entity/Q125521758', 'http://www.wikidata.org/entity/Q125555445', 'http://www.wikidata.org/entity/Q125566609', 'http://www.wikidata.org/entity/Q125577561', 'http://www.wikidata.org/entity/Q125592462', 'http://www.wikidata.org/entity/Q12560060', 'http://www.wikidata.org/entity/Q125688458', 'http://www.wikidata.org/entity/Q125688603', 'http://www.wikidata.org/entity/Q125700972', 'http://www.wikidata.org/entity/Q125704427', 'http://www.wikidata.org/entity/Q125747483', 'http://www.wikidata.org/entity/Q125749644', 'http://www.wikidata.org/entity/Q125758800', 'http://www.wikidata.org/entity/Q125759229', 'http://www.wikidata.org/entity/Q125845551', 'http://www.wikidata.org/entity/Q12584835', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q125867175', 'http://www.wikidata.org/entity/Q125867458', 'http://www.wikidata.org/entity/Q125867756', 'http://www.wikidata.org/entity/Q125867888', 'http://www.wikidata.org/entity/Q125869488', 'http://www.wikidata.org/entity/Q125879646', 'http://www.wikidata.org/entity/Q125879891', 'http://www.wikidata.org/entity/Q125883649', 'http://www.wikidata.org/entity/Q125883847', 'http://www.wikidata.org/entity/Q125890530', 'http://www.wikidata.org/entity/Q125890753', 'http://www.wikidata.org/entity/Q125891443', 'http://www.wikidata.org/entity/Q125891720', 'http://www.wikidata.org/entity/Q125895110', 'http://www.wikidata.org/entity/Q125895155', 'http://www.wikidata.org/entity/Q125899181', 'http://www.wikidata.org/entity/Q125899513', 'http://www.wikidata.org/entity/Q125901134', 'http://www.wikidata.org/entity/Q125903138', 'http://www.wikidata.org/entity/Q125910729', 'http://www.wikidata.org/entity/Q125910806', 'http://www.wikidata.org/entity/Q125911055', 'http://www.wikidata.org/entity/Q125911072', 'http://www.wikidata.org/entity/Q125914666', 'http://www.wikidata.org/entity/Q125914885', 'http://www.wikidata.org/entity/Q125921693', 'http://www.wikidata.org/entity/Q125922831', 'http://www.wikidata.org/entity/Q125922882', 'http://www.wikidata.org/entity/Q125926636', 'http://www.wikidata.org/entity/Q125932740', 'http://www.wikidata.org/entity/Q125936101', 'http://www.wikidata.org/entity/Q125936683', 'http://www.wikidata.org/entity/Q125956876', 'http://www.wikidata.org/entity/Q125959131', 'http://www.wikidata.org/entity/Q125965703', 'http://www.wikidata.org/entity/Q125966437', 'http://www.wikidata.org/entity/Q125966992', 'http://www.wikidata.org/entity/Q125968806', 'http://www.wikidata.org/entity/Q125969610', 'http://www.wikidata.org/entity/Q125970539', 'http://www.wikidata.org/entity/Q125984409', 'http://www.wikidata.org/entity/Q125984492', 'http://www.wikidata.org/entity/Q125994583', 'http://www.wikidata.org/entity/Q125997034', 'http://www.wikidata.org/entity/Q125998688', 'http://www.wikidata.org/entity/Q125998803', 'http://www.wikidata.org/entity/Q125998897', 'http://www.wikidata.org/entity/Q125999072', 'http://www.wikidata.org/entity/Q12599950', 'http://www.wikidata.org/entity/Q126010095', 'http://www.wikidata.org/entity/Q126010128', 'http://www.wikidata.org/entity/Q126028447', 'http://www.wikidata.org/entity/Q126028546', 'http://www.wikidata.org/entity/Q126032653', 'http://www.wikidata.org/entity/Q126126323', 'http://www.wikidata.org/entity/Q126126778', 'http://www.wikidata.org/entity/Q12613371', 'http://www.wikidata.org/entity/Q12629515', 'http://www.wikidata.org/entity/Q126325524', 'http://www.wikidata.org/entity/Q126361854', 'http://www.wikidata.org/entity/Q126362969', 'http://www.wikidata.org/entity/Q126371412', 'http://www.wikidata.org/entity/Q126371457', 'http://www.wikidata.org/entity/Q126371864', 'http://www.wikidata.org/entity/Q126371886', 'http://www.wikidata.org/entity/Q126372368', 'http://www.wikidata.org/entity/Q126372458', 'http://www.wikidata.org/entity/Q126372576', 'http://www.wikidata.org/entity/Q126415038', 'http://www.wikidata.org/entity/Q126456102', 'http://www.wikidata.org/entity/Q126477003', 'http://www.wikidata.org/entity/Q126477086', 'http://www.wikidata.org/entity/Q126477151', 'http://www.wikidata.org/entity/Q126477162', 'http://www.wikidata.org/entity/Q126478091', 'http://www.wikidata.org/entity/Q126478228', 'http://www.wikidata.org/entity/Q126511431', 'http://www.wikidata.org/entity/Q126513767', 'http://www.wikidata.org/entity/Q126593634', 'http://www.wikidata.org/entity/Q12663413', 'http://www.wikidata.org/entity/Q126666887', 'http://www.wikidata.org/entity/Q126709387', 'http://www.wikidata.org/entity/Q126721902', 'http://www.wikidata.org/entity/Q126726117', 'http://www.wikidata.org/entity/Q126811008', 'http://www.wikidata.org/e</t>
+          <t>['http://www.wikidata.org/entity/Q210669']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata.org/entity/Q113499458', 'http://www.wikidata.org/entity/Q1135034', 'http://www.wikidata.org/entity/Q11354348', 'http://www.wikidata.org/entity/Q113549137', 'http://www.wikidata.org/entity/Q113576165', 'http://www.wikidata.org/entity/Q113581609', 'http://www.wikidata.org/entity/Q113627236', 'http://www.wikidata.org/entity/Q113631347', 'http://www.wikidata.org/entity/Q113631375', 'http://www.wikidata.org/entity/Q113631508', 'http://www.wikidata.org/entity/Q113631563', 'http://www.wikidata.org/entity/Q113631569', 'http://www.wikidata.org/entity/Q113674106', 'http://www.wikidata.org/entity/Q11371391', 'http://www.wikidata.org/entity/Q113714633', 'http://www.wikidata.org/entity/Q11387117', 'http://www.wikidata.org/entity/Q113903854', 'http://www.wikidata.org/entity/Q11391277', 'http://www.wikidata.org/entity/Q1139591', 'http://www.wikidata.org/entity/Q11409712', 'http://www.wikidata.org/entity/Q114315605', 'http://www.wikidata.org/entity/Q114658295', 'http://www.wikidata.org/entity/Q1147008', 'http://www.wikidata.org/entity/Q114779611', 'http://www.wikidata.org/entity/Q114780741', 'http://www.wikidata.org/entity/Q114781351', 'http://www.wikidata.org/entity/Q114840373', 'http://www.wikidata.org/entity/Q114863314', 'http://www.wikidata.org/entity/Q115152362', 'http://www.wikidata.org/entity/Q115209188', 'http://www.wikidata.org/entity/Q115214299', 'http://www.wikidata.org/entity/Q115259173', 'http://www.wikidata.org/entity/Q115294651', 'http://www.wikidata.org/entity/Q115327380', 'http://www.wikidata.org/entity/Q1153848', 'http://www.wikidata.org/entity/Q11545488', 'http://www.wikidata.org/entity/Q115516436', 'http://www.wikidata.org/entity/Q115526578', 'http://www.wikidata.org/entity/Q115624997', 'http://www.wikidata.org/entity/Q115628690', 'http://www.wikidata.org/entity/Q11567159', 'http://www.wikidata.org/entity/Q11590237', 'http://www.wikidata.org/entity/Q115937074', 'http://www.wikidata.org/entity/Q11606287', 'http://www.wikidata.org/entity/Q116113833', 'http://www.wikidata.org/entity/Q116349234', 'http://www.wikidata.org/entity/Q116767714', 'http://www.wikidata.org/entity/Q116790237', 'http://www.wikidata.org/entity/Q116846825', 'http://www.wikidata.org/entity/Q116858640', 'http://www.wikidata.org/entity/Q116938985', 'http://www.wikidata.org/entity/Q11695705', 'http://www.wikidata.org/entity/Q11695707', 'http://www.wikidata.org/entity/Q11695708', 'http://www.wikidata.org/entity/Q11695711', 'http://www.wikidata.org/entity/Q11695713', 'http://www.wikidata.org/entity/Q11695714', 'http://www.wikidata.org/entity/Q11695716', 'http://www.wikidata.org/entity/Q11695717', 'http://www.wikidata.org/entity/Q11695718', 'http://www.wikidata.org/entity/Q11695721', 'http://www.wikidata.org/entity/Q11695722', 'http://www.wikidata.org/entity/Q11695723', 'http://www.wikidata.org/entity/Q116973585', 'http://www.wikidata.org/entity/Q116980492', 'http://www.wikidata.org/entity/Q117035968', 'http://www.wikidata.org/entity/Q11703716', 'http://www.wikidata.org/entity/Q117040282', 'http://www.wikidata.org/entity/Q11706236', 'http://www.wikidata.org/entity/Q1170632', 'http://www.wikidata.org/entity/Q117361394', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117455751', 'http://www.wikidata.org/entity/Q117587270', 'http://www.wikidata.org/entity/Q117711867', 'http://www.wikidata.org/entity/Q11783773', 'http://www.wikidata.org/entity/Q11783808', 'http://www.wikidata.org/entity/Q117844480', 'http://www.wikidata.org/entity/Q11789695', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q11789707', 'http://www.wikidata.org/entity/Q11802972', 'http://www.wikidata.org/entity/Q118224784', 'http://www.wikidata.org/entity/Q118288532', 'http://www.wikidata.org/entity/Q118314773', 'http://www.wikidata.org/entity/Q118330188', 'http://www.wikidata.org/entity/Q118369207', 'http://www.wikidata.org/entity/Q118744251', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118947258', 'http://www.wikidata.org/entity/Q119105010', 'http://www.wikidata.org/entity/Q11919090', 'http://www.wikidata.org/entity/Q119241124', 'http://www.wikidata.org/entity/Q119243817', 'http://www.wikidata.org/entity/Q119285617', 'http://www.wikidata.org/entity/Q119348301', 'http://www.wikidata.org/entity/Q119397277', 'http://www.wikidata.org/entity/Q1194059', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q119806244', 'http://www.wikidata.org/entity/Q119853995', 'http://www.wikidata.org/entity/Q120068971', 'http://www.wikidata.org/entity/Q120146391', 'http://www.wikidata.org/entity/Q120403912', 'http://www.wikidata.org/entity/Q120486552', 'http://www.wikidata.org/entity/Q12060958', 'http://www.wikidata.org/entity/Q120823815', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q12090941', 'http://www.wikidata.org/entity/Q1209940', 'http://www.wikidata.org/entity/Q12100125', 'http://www.wikidata.org/entity/Q12100126', 'http://www.wikidata.org/entity/Q12100128', 'http://www.wikidata.org/entity/Q12100132', 'http://www.wikidata.org/entity/Q12100138', 'http://www.wikidata.org/entity/Q12100141', 'http://www.wikidata.org/entity/Q12100152', 'http://www.wikidata.org/entity/Q12100160', 'http://www.wikidata.org/entity/Q12131090', 'http://www.wikidata.org/entity/Q121322780', 'http://www.wikidata.org/entity/Q121393', 'http://www.wikidata.org/entity/Q12149731', 'http://www.wikidata.org/entity/Q12174361', 'http://www.wikidata.org/entity/Q121759535', 'http://www.wikidata.org/entity/Q121852183', 'http://www.wikidata.org/entity/Q121864546', 'http://www.wikidata.org/entity/Q121991381', 'http://www.wikidata.org/entity/Q122057715', 'http://www.wikidata.org/entity/Q122058042', 'http://www.wikidata.org/entity/Q122144115', 'http://www.wikidata.org/entity/Q122199376', 'http://www.wikidata.org/entity/Q122341064', 'http://www.wikidata.org/entity/Q122460010', 'http://www.wikidata.org/entity/Q122495885', 'http://www.wikidata.org/entity/Q1226845', 'http://www.wikidata.org/entity/Q122767100', 'http://www.wikidata.org/entity/Q12284238', 'http://www.wikidata.org/entity/Q12286265', 'http://www.wikidata.org/entity/Q12286390', 'http://www.wikidata.org/entity/Q12289674', 'http://www.wikidata.org/entity/Q12292151', 'http://www.wikidata.org/entity/Q12293119', 'http://www.wikidata.org/entity/Q12293243', 'http://www.wikidata.org/entity/Q12299913', 'http://www.wikidata.org/entity/Q123111964', 'http://www.wikidata.org/entity/Q1231872', 'http://www.wikidata.org/entity/Q123253535', 'http://www.wikidata.org/entity/Q123265528', 'http://www.wikidata.org/entity/Q123450314', 'http://www.wikidata.org/entity/Q123515600', 'http://www.wikidata.org/entity/Q12353618', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q123757853', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q12407917', 'http://www.wikidata.org/entity/Q12407923', 'http://www.wikidata.org/entity/Q1241858', 'http://www.wikidata.org/entity/Q12422844', 'http://www.wikidata.org/entity/Q124250314', 'http://www.wikidata.org/entity/Q124250951', 'http://www.wikidata.org/entity/Q124255532', 'http://www.wikidata.org/entity/Q124318023', 'http://www.wikidata.org/entity/Q124352953', 'http://www.wikidata.org/entity/Q124367000', 'http://www.wikidata.org/entity/Q12438967', 'http://www.wikidata.org/entity/Q124408550', 'http://www.wikidata.org/entity/Q12441237', 'http://www.wikidata.org/entity/Q124498473', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q124568688', 'http://www.wikidata.org/entity/Q124747000', 'http://www.wikidata.org/entity/Q124799998', 'http://www.wikidata.org/entity/Q124830290', 'http://www.wikidata.org/entity/Q124854084', 'http://www.wikidata.org/entity/Q12513670', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q1252585', 'http://www.wikidata.org/entity/Q1252596', 'http://www.wikidata.org/entity/Q125505711', 'http://www.wikidata.org/entity/Q1255099', 'http://www.wikidata.org/entity/Q125524227', 'http://www.wikidata.org/entity/Q125613295', 'http://www.wikidata.org/entity/Q125912847', 'http://www.wikidata.org/entity/Q125928736', 'http://www.wikidata.org/entity/Q12601109', 'http://www.wikidata.org/entity/Q12602481', 'http://www.wikidata.org/entity/Q126083299', 'http://www.wikidata.org/entity/Q126083373', 'http://www.wikidata.org/entity/Q126113071', 'http://www.wikidata.org/entity/Q12614307', 'http://www.wikidata.org/entity/Q12614875', 'http://www.wikidata.org/entity/Q126192995', 'http://www.wikidata.org/entity/Q126260200', 'http://www.wikidata.org/entity/Q12650252', 'http://www.wikidata.org/entity/Q12663498', 'http://www.wikidata.org/entity/Q126708915', 'http://www.wikidata.org/entity/Q126902823', 'http://www.wikidata.org/entity/Q126903060', 'http://www.wikidata.org/entity/Q126910647', 'http://www.wikidata.org/entity/Q126948133', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q1270782', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12719109', 'http://www.wikidata.org/entity/Q127393146', 'http://www.wikidata.org/entity/Q127502506', 'http://www.wikidata.org/entity/Q12750635', 'http://www.wikidata.org/entity/Q127597840', 'http://www.wikidata.org/entity/Q127798249', 'http://www.wikidata.org/entity/Q12787253', 'http://www.wikidata.org/entity/Q12787255', 'http://www.wikidata.org/entity/Q127922454', 'http://www.wikidata.org/entity/Q12803843', 'http://www.wikidata.org/entity/Q12836659', 'http://www.wikidata.org/entity/Q12859165', 'http://www.wikidata.org/entity/Q12864158', 'http://www.wikidata.org/entity/Q1290276', 'http://www.wikidata.org/entity/Q12927731', 'http://www.wikidata.org/entity/Q129726', 'http://www.wikidata.org/entity/Q12986877', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q12989464', 'http://www.wikidata.org/entity/Q13020973', 'http://www.wikidata.org/entity/Q130215597', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130237481', 'http://www.wikidata.org/entity/Q130237482', 'http://www.wikidata.org/entity/Q130237484', 'http://www.wikidata.org/entity/Q130237485', 'http://www.wikidata.org/entity/Q130237487', 'http://www.wikidata.org/entity/Q130237488', 'http://www.wikidata.org/entity/Q130237489', 'http://www.wikidata.org/entity/Q130237490', 'http://www.wikidata.org/entity/Q130237491', 'http://www.wikidata.org/entity/Q130237492', 'http://www.wikidata.org/entity/Q130237493', 'http://www.wikidata.org/entity/Q130237494', 'http://www.wikidata.org/entity/Q130237495', 'http://www.wikidata.org/entity/Q130237496', 'http://www.wikidata.org/entity/Q130237497', 'http://www.wikidata.org/entity/Q130237498', 'http://www.wikidata.org/entity/Q130237499', 'http://www.wikidata.org/entity/Q130237500', 'http://www.wikidata.org/entity/Q130237501', 'http://www.wikidata.org/entity/Q130237502', 'http://www.wikidata.org/entity/Q130237503', 'http://www.wikidata.org/entity/Q130237504', 'http://www.wikidata.org/entity/Q130237505', 'http://www.wikidata.org/entity/Q130237506', 'http://www.wikidata.org/entity/Q130237507', 'http://www.wikidata.org/entity/Q130237508', 'http://www.wikidata.org/entity/Q130237509', 'http://www.wikidata.org/entity/Q130237510', 'http://www.wikidata.org/entity/Q130237511', 'http://www.wikidata.org/entity/Q130237513', 'http://www.wikidata.org/entity/Q130237514', 'http://www.wikidata.org/entity/Q130237515', 'http://www.wikidata.org/entity/Q130237516', 'http://www.wikidata.org/entity/Q130237517', 'http://www.wikidata.org/entity/Q130237518', 'http://www.wikidata.org/entity/Q130237520', 'http://www.wikidata.org/entity/Q130237521', 'http://www.wikidata.org/entity/Q130237522', 'http://www.wikidata.org/entity/Q130237524', 'http://www.wikidata.org/entity/Q130237525', 'http://www.wikidata.org/entity/Q130237526', 'http://www.wikidata.org/entity/Q130237527', 'http://www.wikidata.org/entity/Q130237529', 'http://www.wikidata.org/entity/Q130237530', 'http://www.wikidata.org/entity/Q130237531', 'http://www.wikidata.org/entity/Q130237532', 'http://www.wikidata.org/entity/Q130237534', 'http://www.wikidata.org/entity/Q130237535', 'http://www.wikidata.org/entity/Q130237536', 'http://www.wikidata.org/entity/Q130237537', 'http://www.wikidata.org/entity/Q130237538', 'http://www.wikidata.org/entity/Q130237539', 'http://www.wikidata.org/entity/Q130237540', 'http://www.wikidata.org/entity/Q130237541', 'http://www.wikidata.org/entity/Q130237542', 'http://www.wikidata.org/entity/Q130237543', 'http://www.wikidata.org/entity/Q130237544', 'http://www.wikidata.org/entity/Q130237545', 'http://www.wikidata.org/entity/Q130237546', 'http://www.wikidata.org/entity/Q130237547', 'http://www.wikidata.org/entity/Q130237548', 'http://www.wikidata.org/entity/Q130237549', 'http://www.wikidata.org/entity/Q130237550', 'http://www.wikidata.org/entity/Q130237552', 'http://www.wikidata.org/entity/Q130237553', 'http://www.wikidata.org/entity/Q130237554', 'http://www.wikidata.org/entity/Q130237555', 'http://www.wikidata.org/entity/Q130237556', 'http://www.wikidata.org/entity/Q130237557', 'http://www.wikidata.org/entity/Q130237558', 'http://www.wikidata.org/entity/Q130237559', 'http://www.wikidata.org/entity/Q130237560', 'http://www.wikidata.org/entity/Q130237561', 'http://www.wikidata.org/entity/Q130237562', 'http://www.wikidata.org/entity/Q130237563', 'http://www.wikidata.org/entity/Q130237564', 'http://www.wikidata.org/entity/Q130237565', 'http://www.wikidata.org/entity/Q130237566', 'http://www.wikidata.org/entity/Q130237567', 'http://www.wikidata.org/entity/Q130237570', 'http://www.wikidata.org/entity/Q130237571', 'http://www.wikidata.org/entity/Q130237572', 'http://www.wikidata.org/entity/Q130237573', 'http://www.wikidata.org/entity/Q130237574', 'http://www.wikidata.org/entity/Q130237575', 'http://www.wikidata.org/entity/Q130237576', 'http://www.wikidata.org/entity/Q130237577', 'http://www.wikidata.org/entity/Q130237578', 'http://www.wikidata.org/entity/Q130237579', 'http://www.wikidata.org/entity/Q130237581', 'http://www.wikidata.org/entity/Q130237582', 'http://www.wikidata.org/entity/Q130237584', 'http://www.wikidata.org/entity/Q130237585', 'http://www.wikidata.org/entity/Q130237587', 'http://www.wikidata.org/entity/Q130237588', 'http://www.wikidata.org/entity/Q130237589', 'http://www.wikidata.org/entity/Q130237591', 'http://www.wikidata.org/entity/Q130237592', 'http://www.wikidata.org/entity/Q130237593', 'http://www.wikidata.org/entity/Q130237594', 'http://www.wikidata.org/entity/Q130237597', 'http://www.wikidata.org/entity/Q130237598', 'http://www.wikidata.org/entity/Q130237599', 'http://www.wikidata.org/entity/Q130237601', 'http://www.wikidata.org/entity/Q130237602', 'http://www.wikidata.org/entity/Q130237603', 'http://www.wikidata.org/entity/Q130237604', 'http://www.wikidata.org/entity/Q130237605', 'http://www.wikidata.org/entity/Q130237607', 'http://www.wikidata.org/entity/Q130237608', 'http://www.wikidata.org/entity/Q130237609', 'http://www.wikidata.org/entity/Q130237611', 'http://www.wikidata.org/entity/Q130237612', 'http://www.wikidata.org/entity/Q130237613', 'http://www.wikidata.org/entity/Q130237615', 'http://www.wikidata.org/entity/Q130237616', 'http://www.wikidata.org/entity/Q130237617', 'http://www.wikidata.org/entity/Q130237618', 'http://www.wikidata.org/entity/Q130237619', 'http://www.wikidata.org/entity/Q130237620', 'http://www.wikidata.org/entity/Q130237621', 'http://www.wikidata.org/entity/Q130237623', 'http://www.wikidata.org/entity/Q130237624', 'http://www.wikidata.org/entity/Q130237625', 'http://www.wikidata.org/entity/Q130237626', 'http://www.wikidata.org/entity/Q130237627', 'http://www.wikidata.org/entity/Q130237628', 'http://www.wikidata.org/entity/Q130237629', 'http://www.wikidata.org/entity/Q130237630', 'http://www.wikidata.org</t>
+          <t>['http://www.wikidata.org/entity/Q210669']</t>
         </is>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1158,17 +1158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>How tall is Michael Jordan?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['198']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['198']</t>
         </is>
       </c>
       <c r="D37" t="b">
@@ -1178,37 +1178,37 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Give me the capitals of all countries that the Himalayas run through.</t>
+          <t>Which films starring Clint Eastwood did he direct himself?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q3037', 'http://www.wikidata.org/entity/Q37400', 'http://www.wikidata.org/entity/Q5838', 'http://www.wikidata.org/entity/Q9270', 'http://www.wikidata.org/entity/Q956', 'http://www.wikidata.org/entity/Q987']</t>
+          <t>['http://www.wikidata.org/entity/Q103817549', 'http://www.wikidata.org/entity/Q104137', 'http://www.wikidata.org/entity/Q1125083', 'http://www.wikidata.org/entity/Q126699', 'http://www.wikidata.org/entity/Q1305799', 'http://www.wikidata.org/entity/Q1418932', 'http://www.wikidata.org/entity/Q1423573', 'http://www.wikidata.org/entity/Q1627161', 'http://www.wikidata.org/entity/Q174683', 'http://www.wikidata.org/entity/Q184255', 'http://www.wikidata.org/entity/Q332497', 'http://www.wikidata.org/entity/Q3382188', 'http://www.wikidata.org/entity/Q375186', 'http://www.wikidata.org/entity/Q399823', 'http://www.wikidata.org/entity/Q477630', 'http://www.wikidata.org/entity/Q502189', 'http://www.wikidata.org/entity/Q503338', 'http://www.wikidata.org/entity/Q544434', 'http://www.wikidata.org/entity/Q54812267', 'http://www.wikidata.org/entity/Q577306', 'http://www.wikidata.org/entity/Q598338', 'http://www.wikidata.org/entity/Q602522', 'http://www.wikidata.org/entity/Q611424', 'http://www.wikidata.org/entity/Q653251', 'http://www.wikidata.org/entity/Q741196', 'http://www.wikidata.org/entity/Q785461', 'http://www.wikidata.org/entity/Q906705']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100', 'http://www.wikidata.org/entity/Q1000029', 'http://www.wikidata.org/entity/Q1000030', 'http://www.wikidata.org/entity/Q1000033', 'http://www.wikidata.org/entity/Q1000046', 'http://www.wikidata.org/entity/Q1000056', 'http://www.wikidata.org/entity/Q1000060', 'http://www.wikidata.org/entity/Q1000065', 'http://www.wikidata.org/entity/Q1000069', 'http://www.wikidata.org/entity/Q1000073', 'http://www.wikidata.org/entity/Q1000078', 'http://www.wikidata.org/entity/Q1000086', 'http://www.wikidata.org/entity/Q1000091', 'http://www.wikidata.org/entity/Q10001', 'http://www.wikidata.org/entity/Q1000101', 'http://www.wikidata.org/entity/Q1000123', 'http://www.wikidata.org/entity/Q1000127', 'http://www.wikidata.org/entity/Q1000129', 'http://www.wikidata.org/entity/Q1000133', 'http://www.wikidata.org/entity/Q1000134', 'http://www.wikidata.org/entity/Q1000139', 'http://www.wikidata.org/entity/Q1000140', 'http://www.wikidata.org/entity/Q1000143', 'http://www.wikidata.org/entity/Q1000146', 'http://www.wikidata.org/entity/Q1000147', 'http://www.wikidata.org/entity/Q1000148', 'http://www.wikidata.org/entity/Q1000191', 'http://www.wikidata.org/entity/Q10002', 'http://www.wikidata.org/entity/Q1000222', 'http://www.wikidata.org/entity/Q1000241', 'http://www.wikidata.org/entity/Q1000244', 'http://www.wikidata.org/entity/Q1000333', 'http://www.wikidata.org/entity/Q1000336', 'http://www.wikidata.org/entity/Q1000341', 'http://www.wikidata.org/entity/Q1000346', 'http://www.wikidata.org/entity/Q1000353', 'http://www.wikidata.org/entity/Q1000362', 'http://www.wikidata.org/entity/Q100037', 'http://www.wikidata.org/entity/Q1000373', 'http://www.wikidata.org/entity/Q1000383', 'http://www.wikidata.org/entity/Q1000404', 'http://www.wikidata.org/entity/Q100041', 'http://www.wikidata.org/entity/Q100043', 'http://www.wikidata.org/entity/Q1000438', 'http://www.wikidata.org/entity/Q1000446', 'http://www.wikidata.org/entity/Q1000454', 'http://www.wikidata.org/entity/Q1000456', 'http://www.wikidata.org/entity/Q1000461', 'http://www.wikidata.org/entity/Q1000485', 'http://www.wikidata.org/entity/Q1000495', 'http://www.wikidata.org/entity/Q100050', 'http://www.wikidata.org/entity/Q1000511', 'http://www.wikidata.org/entity/Q1000597', 'http://www.wikidata.org/entity/Q10006', 'http://www.wikidata.org/entity/Q1000609', 'http://www.wikidata.org/entity/Q1000633', 'http://www.wikidata.org/entity/Q1000641', 'http://www.wikidata.org/entity/Q100065', 'http://www.wikidata.org/entity/Q1000679', 'http://www.wikidata.org/entity/Q1000701', 'http://www.wikidata.org/entity/Q1000717', 'http://www.wikidata.org/entity/Q100076', 'http://www.wikidata.org/entity/Q1000831', 'http://www.wikidata.org/entity/Q1000839', 'http://www.wikidata.org/entity/Q100084', 'http://www.wikidata.org/entity/Q1000844', 'http://www.wikidata.org/entity/Q1000856', 'http://www.wikidata.org/entity/Q1000878', 'http://www.wikidata.org/entity/Q1000883', 'http://www.wikidata.org/entity/Q1000918', 'http://www.wikidata.org/entity/Q1000927', 'http://www.wikidata.org/entity/Q1000938', 'http://www.wikidata.org/entity/Q1000971', 'http://www.wikidata.org/entity/Q1000987', 'http://www.wikidata.org/entity/Q1001056', 'http://www.wikidata.org/entity/Q1001064', 'http://www.wikidata.org/entity/Q1001083', 'http://www.wikidata.org/entity/Q1001092', 'http://www.wikidata.org/entity/Q1001096', 'http://www.wikidata.org/entity/Q100110', 'http://www.wikidata.org/entity/Q1001109', 'http://www.wikidata.org/entity/Q1001154', 'http://www.wikidata.org/entity/Q1001183', 'http://www.wikidata.org/entity/Q1001200', 'http://www.wikidata.org/entity/Q1001207', 'http://www.wikidata.org/entity/Q1001225', 'http://www.wikidata.org/entity/Q1001239', 'http://www.wikidata.org/entity/Q1001243', 'http://www.wikidata.org/entity/Q1001275', 'http://www.wikidata.org/entity/Q1001286', 'http://www.wikidata.org/entity/Q1001297', 'http://www.wikidata.org/entity/Q10013', 'http://www.wikidata.org/entity/Q1001307', 'http://www.wikidata.org/entity/Q1001315', 'http://www.wikidata.org/entity/Q1001322', 'http://www.wikidata.org/entity/Q1001339', 'http://www.wikidata.org/entity/Q10014', 'http://www.wikidata.org/entity/Q1001416', 'http://www.wikidata.org/entity/Q1001430', 'http://www.wikidata.org/entity/Q1001435', 'http://www.wikidata.org/entity/Q1001448', 'http://www.wikidata.org/entity/Q1001456', 'http://www.wikidata.org/entity/Q1001465', 'http://www.wikidata.org/entity/Q1001473', 'http://www.wikidata.org/entity/Q1001478', 'http://www.wikidata.org/entity/Q1001488', 'http://www.wikidata.org/entity/Q1001496', 'http://www.wikidata.org/entity/Q1001505', 'http://www.wikidata.org/entity/Q1001509', 'http://www.wikidata.org/entity/Q1001512', 'http://www.wikidata.org/entity/Q1001517', 'http://www.wikidata.org/entity/Q1001522', 'http://www.wikidata.org/entity/Q1001553', 'http://www.wikidata.org/entity/Q1001568', 'http://www.wikidata.org/entity/Q1001571', 'http://www.wikidata.org/entity/Q1001594', 'http://www.wikidata.org/entity/Q100162', 'http://www.wikidata.org/entity/Q1001639', 'http://www.wikidata.org/entity/Q1001642', 'http://www.wikidata.org/entity/Q1001654', 'http://www.wikidata.org/entity/Q1001685', 'http://www.wikidata.org/entity/Q1001710', 'http://www.wikidata.org/entity/Q1001733', 'http://www.wikidata.org/entity/Q1001752', 'http://www.wikidata.org/entity/Q1001758', 'http://www.wikidata.org/entity/Q10018', 'http://www.wikidata.org/entity/Q1001806', 'http://www.wikidata.org/entity/Q1001817', 'http://www.wikidata.org/entity/Q1001828', 'http://www.wikidata.org/entity/Q1001857', 'http://www.wikidata.org/entity/Q1001865', 'http://www.wikidata.org/entity/Q100188', 'http://www.wikidata.org/entity/Q1001887', 'http://www.wikidata.org/entity/Q1001897', 'http://www.wikidata.org/entity/Q1001905', 'http://www.wikidata.org/entity/Q1001914', 'http://www.wikidata.org/entity/Q1001939', 'http://www.wikidata.org/entity/Q1001941', 'http://www.wikidata.org/entity/Q1001959', 'http://www.wikidata.org/entity/Q1001975', 'http://www.wikidata.org/entity/Q1001989', 'http://www.wikidata.org/entity/Q1001995', 'http://www.wikidata.org/entity/Q1001999', 'http://www.wikidata.org/entity/Q1002007', 'http://www.wikidata.org/entity/Q1002035', 'http://www.wikidata.org/entity/Q1002052', 'http://www.wikidata.org/entity/Q1002059', 'http://www.wikidata.org/entity/Q1002065', 'http://www.wikidata.org/entity/Q1002067', 'http://www.wikidata.org/entity/Q1002073', 'http://www.wikidata.org/entity/Q1002081', 'http://www.wikidata.org/entity/Q1002092', 'http://www.wikidata.org/entity/Q1002099', 'http://www.wikidata.org/entity/Q1002115', 'http://www.wikidata.org/entity/Q1002117', 'http://www.wikidata.org/entity/Q1002118', 'http://www.wikidata.org/entity/Q1002140', 'http://www.wikidata.org/entity/Q1002388', 'http://www.wikidata.org/entity/Q1002438', 'http://www.wikidata.org/entity/Q1002490', 'http://www.wikidata.org/entity/Q1002533', 'http://www.wikidata.org/entity/Q1002537', 'http://www.wikidata.org/entity/Q1002542', 'http://www.wikidata.org/entity/Q1002552', 'http://www.wikidata.org/entity/Q1002571', 'http://www.wikidata.org/entity/Q1002583', 'http://www.wikidata.org/entity/Q1002592', 'http://www.wikidata.org/entity/Q100259440', 'http://www.wikidata.org/entity/Q1002595', 'http://www.wikidata.org/entity/Q1002607', 'http://www.wikidata.org/entity/Q1002615', 'http://www.wikidata.org/entity/Q1002621', 'http://www.wikidata.org/entity/Q1002631', 'http://www.wikidata.org/entity/Q1002638', 'http://www.wikidata.org/entity/Q1002640', 'http://www.wikidata.org/entity/Q1002641', 'http://www.wikidata.org/entity/Q1002655', 'http://www.wikidata.org/entity/Q1002658', 'http://www.wikidata.org/entity/Q1002670', 'http://www.wikidata.org/entity/Q1002685', 'http://www.wikidata.org/entity/Q100268642', 'http://www.wikidata.org/entity/Q100268653', 'http://www.wikidata.org/entity/Q1002688', 'http://www.wikidata.org/entity/Q1002696', 'http://www.wikidata.org/entity/Q1002700', 'http://www.wikidata.org/entity/Q1002706', 'http://www.wikidata.org/entity/Q1002714', 'http://www.wikidata.org/entity/Q1002744', 'http://www.wikidata.org/entity/Q1002751', 'http://www.wikidata.org/entity/Q1002760', 'http://www.wikidata.org/entity/Q1002769', 'http://www.wikidata.org/entity/Q1002786', 'http://www.wikidata.org/entity/Q1002799', 'http://www.wikidata.org/entity/Q1002807', 'http://www.wikidata.org/entity/Q1002823', 'http://www.wikidata.org/entity/Q1002841', 'http://www.wikidata.org/entity/Q1002856', 'http://www.wikidata.org/entity/Q1002883', 'http://www.wikidata.org/entity/Q1002896', 'http://www.wikidata.org/entity/Q1002900', 'http://www.wikidata.org/entity/Q1002906', 'http://www.wikidata.org/entity/Q1002915', 'http://www.wikidata.org/entity/Q1002944', 'http://www.wikidata.org/entity/Q1002960', 'http://www.wikidata.org/entity/Q1002962', 'http://www.wikidata.org/entity/Q1002994', 'http://www.wikidata.org/entity/Q1003001', 'http://www.wikidata.org/entity/Q1003016', 'http://www.wikidata.org/entity/Q1003036', 'http://www.wikidata.org/entity/Q1003105', 'http://www.wikidata.org/entity/Q1003112', 'http://www.wikidata.org/entity/Q1003134', 'http://www.wikidata.org/entity/Q1003164', 'http://www.wikidata.org/entity/Q1003196', 'http://www.wikidata.org/entity/Q10032', 'http://www.wikidata.org/entity/Q1003201', 'http://www.wikidata.org/entity/Q1003227', 'http://www.wikidata.org/entity/Q1003237', 'http://www.wikidata.org/entity/Q1003240', 'http://www.wikidata.org/entity/Q100324238', 'http://www.wikidata.org/entity/Q100325085', 'http://www.wikidata.org/entity/Q1003260', 'http://www.wikidata.org/entity/Q1003264', 'http://www.wikidata.org/entity/Q1003267', 'http://www.wikidata.org/entity/Q1003272', 'http://www.wikidata.org/entity/Q1003276', 'http://www.wikidata.org/entity/Q1003279', 'http://www.wikidata.org/entity/Q1003283', 'http://www.wikidata.org/entity/Q1003290', 'http://www.wikidata.org/entity/Q1003295', 'http://www.wikidata.org/entity/Q1003300', 'http://www.wikidata.org/entity/Q1003301', 'http://www.wikidata.org/entity/Q1003302', 'http://www.wikidata.org/entity/Q1003304', 'http://www.wikidata.org/entity/Q1003318', 'http://www.wikidata.org/entity/Q1003329', 'http://www.wikidata.org/entity/Q1003332', 'http://www.wikidata.org/entity/Q1003348', 'http://www.wikidata.org/entity/Q1003403', 'http://www.wikidata.org/entity/Q1003408', 'http://www.wikidata.org/entity/Q1003446', 'http://www.wikidata.org/entity/Q1003496', 'http://www.wikidata.org/entity/Q1003505', 'http://www.wikidata.org/entity/Q1003520', 'http://www.wikidata.org/entity/Q1003527', 'http://www.wikidata.org/entity/Q1003533', 'http://www.wikidata.org/entity/Q1003540', 'http://www.wikidata.org/entity/Q1003546', 'http://www.wikidata.org/entity/Q1003568', 'http://www.wikidata.org/entity/Q1003576', 'http://www.wikidata.org/entity/Q1003579', 'http://www.wikidata.org/entity/Q1003601', 'http://www.wikidata.org/entity/Q1003612', 'http://www.wikidata.org/entity/Q1003621', 'http://www.wikidata.org/entity/Q1003630', 'http://www.wikidata.org/entity/Q1003636', 'http://www.wikidata.org/entity/Q1003658', 'http://www.wikidata.org/entity/Q1003662', 'http://www.wikidata.org/entity/Q1003667', 'http://www.wikidata.org/entity/Q1003686', 'http://www.wikidata.org/entity/Q1003693', 'http://www.wikidata.org/entity/Q1003699', 'http://www.wikidata.org/entity/Q1003702', 'http://www.wikidata.org/entity/Q1003713', 'http://www.wikidata.org/entity/Q1003715', 'http://www.wikidata.org/entity/Q1003724', 'http://www.wikidata.org/entity/Q1003733', 'http://www.wikidata.org/entity/Q100374888', 'http://www.wikidata.org/entity/Q1003751', 'http://www.wikidata.org/entity/Q1003757', 'http://www.wikidata.org/entity/Q1003869', 'http://www.wikidata.org/entity/Q100388', 'http://www.wikidata.org/entity/Q1004008', 'http://www.wikidata.org/entity/Q1004048', 'http://www.wikidata.org/entity/Q1004066', 'http://www.wikidata.org/entity/Q1004085', 'http://www.wikidata.org/entity/Q1004113', 'http://www.wikidata.org/entity/Q100411478', 'http://www.wikidata.org/entity/Q1004126', 'http://www.wikidata.org/entity/Q1004149', 'http://www.wikidata.org/entity/Q1004157', 'http://www.wikidata.org/entity/Q1004180', 'http://www.wikidata.org/entity/Q1004189', 'http://www.wikidata.org/entity/Q1004200', 'http://www.wikidata.org/entity/Q1004226', 'http://www.wikidata.org/entity/Q1004236', 'http://www.wikidata.org/entity/Q1004257', 'http://www.wikidata.org/entity/Q1004264', 'http://www.wikidata.org/entity/Q1004265', 'http://www.wikidata.org/entity/Q1004270', 'http://www.wikidata.org/entity/Q1004290', 'http://www.wikidata.org/entity/Q1004295', 'http://www.wikidata.org/entity/Q1004298', 'http://www.wikidata.org/entity/Q1004302', 'http://www.wikidata.org/entity/Q1004306', 'http://www.wikidata.org/entity/Q1004312', 'http://www.wikidata.org/entity/Q1004316', 'http://www.wikidata.org/entity/Q1004320', 'http://www.wikidata.org/entity/Q1004323', 'http://www.wikidata.org/entity/Q1004328', 'http://www.wikidata.org/entity/Q1004332', 'http://www.wikidata.org/entity/Q1004374', 'http://www.wikidata.org/entity/Q1004397', 'http://www.wikidata.org/entity/Q1004584', 'http://www.wikidata.org/entity/Q1004656', 'http://www.wikidata.org/entity/Q1004667', 'http://www.wikidata.org/entity/Q1004677', 'http://www.wikidata.org/entity/Q1004686', 'http://www.wikidata.org/entity/Q1004691', 'http://www.wikidata.org/entity/Q1004740', 'http://www.wikidata.org/entity/Q1004768', 'http://www.wikidata.org/entity/Q1004773', 'http://www.wikidata.org/entity/Q1004774', 'http://www.wikidata.org/entity/Q1004784', 'http://www.wikidata.org/entity/Q1004791', 'http://www.wikidata.org/entity/Q1004815', 'http://www.wikidata.org/entity/Q1004838', 'http://www.wikidata.org/entity/Q1004905', 'http://www.wikidata.org/entity/Q1004983', 'http://www.wikidata.org/entity/Q10050', 'http://www.wikidata.org/entity/Q1005022', 'http://www.wikidata.org/entity/Q1005221', 'http://www.wikidata.org/entity/Q1005227', 'http://www.wikidata.org/entity/Q1005252', 'http://www.wikidata.org/entity/Q1005259', 'http://www.wikidata.org/entity/Q1005274', 'http://www.wikidata.org/entity/Q1005282', 'http://www.wikidata.org/entity/Q1005291', 'http://www.wikidata.org/entity/Q1005301', 'http://www.wikidata.org/entity/Q1005319', 'http://www.wikidata.org/entity/Q1005332', 'http://www.wikidata.org/entity/Q1005346', 'http://www.wikidata.org/entity/Q1005350', 'http://www.wikidata.org/entity/Q1005356', 'http://www.wikidata.org/entity/Q1005359', 'http://www.wikidata.org/entity/Q1005384', 'http://www.wikidata.org/entity/Q1005394', 'http://www.wikidata.org/entity/Q1005403', 'http://www.wikidata.org/entity/Q1005409', 'http://www.wikidata.org/entity/Q1005414', 'http://www.wikidata.org/entity/Q1005419', 'http://www.wikidata.org/entity/Q1005428', 'http://www.wikidata.org/entity/Q1005442', 'http://www.wikidata.org/entity/Q10054424', 'http://www.wikidata.org/entity/Q1005453', 'http://www.wikidata.org/entity/Q1005464', 'http://www.wikidata.org/entity/Q1005472', 'http://www.wikidata.org/entity/Q1005483', 'http://www.wikidata.org/entity/Q1005492', 'http://www.wikidata.org/entity/Q1005503', 'http://www.wikidata.org/entity/Q1005511', 'http://www.wikidata.org/entity/Q1005521', 'http://www.wikidata.org/entity/Q1005527', 'http://www.wikidata.org/entity/Q1005538', 'http://www.wikidata.org/entity/Q1005555', 'http://www.wikidata.org/entity/Q1005562', 'http://www.wikidata.org/entity/Q1005584', 'http://www.wikidata.org/entity/Q10056', 'http://www.wikidata.org/entity/Q1005637', 'http://www.wikidata.org/entity/Q1005659', 'http://www.wikidata.org/entity/Q1005701', 'http://www.wikidata.org/entity/Q1005725', 'http://www.wikidata.org/entity/Q1005759', 'http://www.wikidata.org/entity/Q1005797', 'http://www.wikidata.org/entity/Q1005809', 'http://www.wikidata.org/entity/Q1005827', 'http://www.wikidata.org/entity/Q1005837', 'http://www.wikidata.org/entity/Q1005855', 'http://www.wikidata.org/entity/Q1005862', 'http://www.wikidata.org/entity/Q1005873', 'http://www.wikidata.org/entity/Q1005885', 'http://www.wikidata.org/entity/Q1005905', 'http://www.wikidata.org/entity/Q1005953', 'http://www.wikidata.org/entity/Q1005972', 'http://www.wikidata.org/entity/Q1006029', 'http://www.wikidata.org/entity/Q1006039', 'http://www.wikidata.org/entity/Q1006054', 'http://www.wikidata.org/entity/Q1006065', 'http://www.wikidata.org/entity/Q1006070', 'http://www.wikidata.org/entity/Q1006076', 'http://www.wikidata.org/entity/Q1006081', 'http://www.wikidata.org/entity/Q1006094', 'http://www.wikidata.org/entity/Q1006101', 'http://www.wikidata.org/entity/Q1006116', 'http://www.wikidata.org/entity/Q1006155', 'http://www.wikidata.org/entity/Q1006179', 'http://www.wikidata.org/entity/Q1006217', 'http://www.wikidata.org/entity/Q1006225', 'http://www.wikidata.org/entity/Q1006232', 'http://www.wikidata.org/entity/Q1006240', 'http://www.wikidata.org/entity/Q1006256', 'http://www.wikidata.org/entity/Q1006270', 'http://www.wikidata.org/entity/Q1006277', 'http://www.wikidata.org/entity/Q1006289', 'http://www.wikidata.org/entity/Q1006296', 'http://www.wikidata.org/entity/Q1006303', 'http://www.wikidata.org/entity/Q1006309', 'http://www.wikidata.org/entity/Q1006321', 'http://www.wikidata.org/entity/Q1006330', 'http://www.wikidata.org/entity/Q1006338', 'http://www.wikidata.org/entity/Q1006350', 'http://www.wikidata.org/entity/Q1006355', 'http://www.wikidata.org/entity/Q1006363', 'http://www.wikidata.org/entity/Q1006472', 'http://www.wikidata.org/entity/Q1006493', 'http://www.wikidata.org/entity/Q1006545', 'http://www.wikidata.org/entity/Q1006552', 'http://www.wikidata.org/entity/Q1006566', 'http://www.wikidata.org/entity/Q1006622', 'http://www.wikidata.org/entity/Q1006629', 'http://www.wikidata.org/entity/Q1006641', 'http://www.wikidata.org/entity/Q1006761', 'http://www.wikidata.org/entity/Q1006764', 'http://www.wikidata.org/entity/Q1006772', 'http://www.wikidata.org/entity/Q1006788', 'http://www.wikidata.org/entity/Q1006802', 'http://www.wikidata.org/entity/Q1006813', 'http://www.wikidata.org/entity/Q1006824', 'http://www.wikidata.org/entity/Q1006846', 'http://www.wikidata.org/entity/Q1006856', 'http://www.wikidata.org/entity/Q1006973', 'http://www.wikidata.org/entity/Q1007037', 'http://www.wikidata.org/entity/Q1007046', 'http://www.wikidata.org/entity/Q100707303', 'http://www.wikidata.org/entity/Q1007106', 'http://www.wikidata.org/entity/Q100711812', 'http://www.wikidata.org/entity/Q1007134', 'http://www.wikidata.org/entity/Q1007191', 'http://www.wikidata.org/entity/Q10072', 'http://www.wikidata.org/entity/Q1007201', 'http://www.wikidata.org/entity/Q1007232', 'http://www.wikidata.org/entity/Q1007242', 'http://www.wikidata.org/entity/Q1007247', 'http://www.wikidata.org/entity/Q100726345', 'http://www.wikidata.org/entity/Q1007278', 'http://www.wikidata.org/entity/Q1007289', 'http://www.wikidata.org/entity/Q1007292', 'http://www.wikidata.org/entity/Q10073', 'http://www.wikidata.org/entity/Q1007302', 'http://www.wikidata.org/entity/Q1007321', 'http://www.wikidata.org/entity/Q1007342', 'http://www.wikidata.org/entity/Q1007355', 'http://www.wikidata.org/entity/Q1007362', 'http://www.wikidata.org/entity/Q1007378', 'http://www.wikidata.org/entity/Q1007418', 'http://www.wikidata.org/entity/Q1007425', 'http://www.wikidata.org/entity/Q1007430', 'http://www.wikidata.org/entity/Q1007479', 'http://www.wikidata.org/entity/Q100749871', 'http://www.wikidata.org/entity/Q1007534', 'http://www.wikidata.org/entity/Q100755', 'http://www.wikidata.org/entity/Q1007556', 'http://www.wikidata.org/entity/Q10076', 'http://www.wikidata.org/entity/Q1007603', 'http://www.wikidata.org/entity/Q1007634', 'http://www.wikidata.org/entity/Q1007665', 'http://www.wikidata.org/entity/Q100767', 'http://www.wikidata.org/entity/Q1007719', 'http://www.wikidata.org/entity/Q100772', 'http://www.wikidata.org/entity/Q1007758', 'http://www.wikidata.org/entity/Q1007811', 'http://www.wikidata.org/entity/Q1007845', 'http://www.wikidata.org/entity/Q1007874', 'http://www.wikidata.org/entity/Q1007891', 'http://www.wikidata.org/entity/Q1007911', 'http://www.wikidata.org/entity/Q1008042', 'http://www.wikidata.org/entity/Q100811', 'http://www.wikidata.org/entity/Q1008152', 'http://www.wikidata.org/entity/Q10082', 'http://www.wikidata.org/entity/Q1008368', 'http://www.wikidata.org/entity/Q1008383', 'http://www.wikidata.org/entity/Q1008390', 'http://www.wikidata.org/entity/Q10084', 'http://www.wikidata.org/entity/Q1008424', 'http://www.wikidata.org/entity/Q1008443', 'http://www.wikidata.org/entity/Q1008456', 'http://www.wikidata.org/entity/Q100846', 'http://www.wikidata.org/entity/Q1008595', 'http://www.wikidata.org/entity/Q10086', 'http://www.wikidata.org/entity/Q100860512', 'http://www.wikidata.org/entity/Q1008607', 'http://www.wikidata.org/entity/Q1008610', 'http://www.wikidata.org/entity/Q1008686', 'http://www.wikidata.org/entity/Q1008696', 'http://www.wikidata.org/entity/Q1008737', 'http://www.wikidata.org/entity/Q1008750', 'http://www.wikidata.org/entity/Q1008761', 'http://www.wikidata.org/entity/Q1008765', 'http://www.wikidata.org/entity/Q1008777', 'http://www.wikidata.org/entity/Q1008869', 'http://www.wikidata.org/entity/Q1008877', 'http://www.wikidata.org/entity/Q1008892', 'http://www.wikidata.org/entity/Q1008918', 'http://www.wikidata.org/entity/Q1008927', 'http://www.wikidata.org/entity/Q100896146', 'http://www.wikidata.org/entity/Q1008963', 'http://www.wikidata.org/entity/Q1008983', 'http://www.wikidata.org/entity/Q1009091', 'http://www.wikidata.org/entity/Q1009095', 'http://www.wikidata.org/entity/Q1009199', 'http://www.wikidata.org/entity/Q1009253', 'http://www.wikidata.org/entity/Q1009268', 'http://www.wikidata.org/entity/Q1009308', 'http://www.wikidata.org/entity/Q100932', 'http://www.wikidata.org/entity/Q1009324', 'http://www.wikidata.org/entity/Q1009331', 'http://www.wikidata.org/entity/Q1009384', 'http://www.wikidata.org/entity/Q1009477', 'http://www.wikidata.org/entity/Q1009502', 'http://www.wikidata.org/entity/Q1009505', 'http://www.wikidata.org/entity/Q1009509', 'http://www.wikidata.org/entity/Q1009515', 'http://www.wikidata.org/entity/Q1009517', 'http://www.wikidata.org/entity/Q1009554', 'http://www.wikidata.org/entity/Q1009558', 'http://www.wikidata.org/entity/Q1009565', 'http://www.wikidata.org/entity/Q1009627', 'http://www.wikidata.org/entity/Q1009652', 'http://www.wikidata.org/entity/Q100972', 'http://www.wikidata.org/entity/Q1009837', 'http://www.wikidata.org/entity/Q1009935', 'http://www.wikidata.org/entity/Q1009953', 'http://www.wikidata.org/entity/Q1009957', 'http://www.wikidata.org/entity/Q1010', 'http://www.wikidata.org/entity/Q1010015', 'http://www.wikidata.org/entity/Q101002825', 'http://www.wikidata.org/entity/Q101003431', 'http://www.wikidata.org/entity/Q1010040', 'http://www.wikidata.org/entity/Q101007', 'http://www.wikidata.org/entity/Q1010084', 'http://www.wikidata.org/entity/Q1010088', 'http://www.wikidata.org/entity/Q1010100', 'http://www.wikidata.org/entity/Q1010105', 'http://www.wikidata.org/entity/Q1010109', 'http://www.wikidata.org/entity/Q1010115', 'http://www.wikidata.org/entity/Q1010122', 'http://www.wikidata.org/entity/Q1010131', 'http://www.wikidata.org/entity/Q1010137', 'http://www.wikidata.org/entity/Q1010153', 'http://www.wikidata.org/entity/Q1010163', 'http://www.wikidata.org/entity/Q1010194', 'http://www.wikidata.org/entity/Q1010196', 'http://www.wikidata.org/entity/Q1010199', 'http://www.wikidata.org/entity/Q1010203', 'http://www.wikidata.org/entity/Q1010225', 'http://www.wikidata.org/entity/Q1010228', 'http://www.wikidata.org/entity/Q1010232', 'http://www.wikidata.org/entity/Q1010236', 'http://www.wikidata.org/entity/Q1010240', 'http://www.wikidata.org/entity/Q1010244', 'http://www.wikidata.org/entity/Q1010247', 'http://www.wikidata.org/entity/Q1010278', 'http://www.wikidata.org/entity/Q1010287', 'http://www.wikidata.org/entity/Q1010293', 'http://www.wikidata.org/entity/Q1010326', 'http://www.wikidata.org/entity/Q1010331', 'http://www.wikidata.org/entity/Q1010345', 'http://www.wikidata.org/entity/Q1010367', 'http://www.wikidata.org/entity/Q1010381', 'http://www.wikidata.org/entity/Q10104', 'http://www.wikidata.org/entity/Q1010410', 'http://www.wikidata.org/entity/Q1010463', 'http://www.wikidata.org/entity/Q1010468', 'http://www.wikidata.org/entity/Q1010503', 'http://www.wikidata.org/entity/Q1010520', 'http://www.wikidata.org/entity/Q1010521', 'http://www.wikidata.org/entity/Q1010554', 'http://www.wikidata.org/entity/Q1010562', 'http://www.wikidata.org/entity/Q1010583', 'http://www.wikidata.org/entity/Q1010621', 'http://www.wikidata.org/entity/Q1010630', 'http://www.wikidata.org/entity/Q1010634', 'http://www.wikidata.org/entity/Q1010639', 'http://www.wikidata.org/entity/Q1010651', 'http://www.wikidata.org/entity/Q1010673', 'http://www.wikidata.org/entity/Q1010679', 'http://www.wikidata.org/entity/Q1010803', 'http://www.wikidata.org/entity/Q1010810', 'http://www.wikidata.org/entity/Q1010816', 'http://www.wikidata.org/entity/Q1010837', 'http://www.wikidata.org/entity/Q1010907', 'http://www.wikidata.org/entity/Q1010931', 'http://www.wikidata.org/entity/Q1010935', 'http://www.wikidata.org/entity/Q1010939', 'http://www.wikidata.org/entity/Q1010944', 'http://www.wikidata.org/entity/Q1010954', 'http://www.wikidata.org/entity/Q1010960', 'http://www.wikidata.org/entity/Q1010965', 'http://www.wikidata.org/entity/Q1010979', 'http://www.wikidata.org/entity/Q1010985', 'http://www.wikidata.org/entity/Q1010989', 'http://www.wikidata.org/entity/Q1010998', 'http://www.wikidata.org/entity/Q1011003', 'http://www.wikidata.org/entity/Q1011011', 'http://www.wikidata.org/entity/Q1011016', 'http://www.wikidata.org/entity/Q1011020', 'http://www.wikidata.org/entity/Q1011033', 'http://www.wikidata.org/entity/Q1011047', 'http://www.wikidata.org/entity/Q1011051', 'http://www.wikidata.org/entity/Q1011062', 'http://www.wikidata.org/entity/Q1011066', 'http://www.wikidata.org/entity/Q1011073', 'http://www.wikidata.org/entity/Q1011092', 'http://www.wikidata.org/entity/Q101112155', 'http://www.wikidata.org/entity/Q1011125', 'http://www.wikidata.org/entity/Q1011151', 'http://www.wikidata.org/entity/Q1011263', 'http://www.wikidata.org/entity/Q1011275', 'http://www.wikidata.org/entity/Q1011303', 'http://www.wikidata.org/entity/Q1011310', 'http://www.wikidata.org/entity/Q1011314', 'http://www.wikidata.org/entity/Q1011316', 'http://www.wikidata.org/entity/Q1011322', 'http://www.wikidata.org/entity/Q1011325', 'http://www.wikidata.org/entity/Q1011327', 'http://www.wikidata.org/entity/Q1011330', 'http://www.wikidata.org/entity/Q1011334', 'http://www.wikidata.org/entity/Q1011339', 'http://www.wikidata.org/entity/Q1011346', 'http://www.wikidata.org/entity/Q1011347', 'http://www.wikidata.org/entity/Q1011350', 'http://www.wikidata.org/entity/Q1011367', 'http://www.wikidata.org/entity/Q1011377', 'http://www.wikidata.org/entity/Q1011380', 'http://www.wikidata.org/entity/Q1011393', 'http://www.wikidata.org/entity/Q1011404', 'http://www.wikidata.org/entity/Q1011406', 'http://www.wikidata.org/entity/Q1011423', 'http://www.wikidata.org/entity/Q1011429', 'http://www.wikidata.org/entity/Q1011430', 'http://www.wikidata.org/entity/Q1011435', 'http://www.wikidata.org/entity/Q1011437', 'http://www.wikidata.org/entity/Q1011449', 'http://www.wikidata.org/entity/Q1011452', 'http://www.wikidata.org/entity/Q1011459', 'http://www.wikidata.org/entity/Q1011474', 'http://www.wikidata.org/entity/Q1011483', 'http://www.wikidata.org/entity/Q1011524', 'http://www.wikidata.org/entity/Q1011529', 'http://www.wikidata.org/entity/Q1011535', 'http://www.wikidata.org/entity/Q1011543', 'http://www.wikidata.org/entity/Q1011549', 'http://www.wikidata.org/entity/Q1011553', 'http://www.wikidata.org/entity/Q1011558', 'http://www.wikidata.org/entity/Q1011566', 'http://www.wikidata.org/entity/Q1011573', 'http://www.wikidata.org/entity/Q1011576', 'http://www.wikidata.org/entity/Q1011589', 'http://www.wikidata.org/entity/Q1011606', 'http://www.wikidata.org/entity/Q1011619', 'http://www.wikidata.org/entity/Q1011624', 'http://www.wikidata.org/entity/Q1011647', 'http://www.wikidata.org/entity/Q1011653', 'http://www.wikidata.org/entity/Q1011669', 'http://www.wikidata.org/entity/Q1011674', 'http://www.wikidata.org/entity/Q101168667', 'http://www.wikidata.org/entity/Q1011687', 'http://www.wikidata.org/entity/Q1011711', 'http://www.wikidata.org/entity/Q1011718', 'http://www.wikidata.org/entity/Q1011753', 'http://www.wikidata.org/entity/Q1011809', 'http://www.wikidata.org/entity/Q1011819', 'http://www.wikidata.org/entity/Q1011837', 'http://www.wikidata.org/entity/Q1011844', 'http://www.wikidata.org/entity/Q1011863', 'http://www.wikidata.org/entity/Q101186473', 'http://www.wikidata.org/entity/Q1011866', 'http://www.wikidata.org/entity/Q1011873', 'http://www.wikidata.org/entity/Q1011882', 'http://www.wikidata.org/entity/Q1011890', 'http://www.wikidata.org/entity/Q1011912', 'http://www.wikidata.org/entity/Q1011982', 'http://www.wikidata.org/entity/Q1012', 'http://www.wikidata.org/entity/Q1012011', 'http://www.wikidata.org/entity/Q101202', 'http://www.wikidata.org/entity/Q1012076', 'http://www.wikidata.org/entity/Q1012089', 'http://www.wikidata.org/entity/Q1012164', 'http://www.wikidata.org/entity/Q1012187', 'http://www.wikidata.org/entity/Q1012231', 'http://www.wikidata.org/entity/Q1012244', 'http://www.wikidata.org/entity/Q1012255', 'http://www.wikidata.org/entity/Q1012278', 'http://www.wikidata.org/entity/Q1012303', 'http://www.wikidata.org/entity/Q1012309', 'http://www.wikidata.org/entity/Q1012330', 'http://www.wikidata.org/entity/Q1012345', 'http://www.wikidata.org/entity/Q1012355', 'http://www.wikidata.org/entity/Q1012364', 'http://www.wikidata.org/entity/Q1012367', 'http://www.wikidata.org/entity/Q1012372', 'http://www.wikidata.org/entity/Q1012392', 'http://www.wikidata.org/entity/Q1012397', 'http://www.wikidata.org/entity/Q1012407', 'http://www.wikidata.org/entity/Q1012415', 'http://www.wikidata.org/entity/Q1012424', 'http://www.wikidata.org/entity/Q1012434', 'http://www.wikidata.org/entity/Q1012436', 'http://www.wikidata.org/entity/Q1012440', 'http://www.wikidata.org/entity/Q1012444', 'http://www.wikidata.org/entity/Q1012455', 'http://www.wikidata.org/entity/Q1012481', 'http://www.wikidata.org/entity/Q1012502', 'http://www.wikidata.org/entity/Q101254', 'http://www.wikidata.org/entity/Q1012559', 'http://www.wikidata.org/entity/Q1012565', 'http://www.wikidata.org/entity/Q1012571', 'http://www.wikidata.org/entity/Q1012582', 'http://www.wikidata.org/entity/Q1012593', 'http://www.wikidata.org/entity/Q1012599', 'http://www.wikidata.org/entity/Q10126', 'http://www.wikidata.org/entity/Q1012604', 'http://www.wikidata.org/entity/Q1012610', 'http://www.wikidata.org/entity/Q1012620', 'http://www.wikidata.org/entity/Q1012631', 'http://www.wikidata.org/entity/Q1012633', 'http://www.wikidata.org/entity/Q1012635', 'http://www.wikidata.org/entity/Q1012639', 'http://www.wikidata.org/entity/Q1012665', 'http://www.wikidata.org/entity/Q1012688', 'http://www.wikidata.org/entity/Q1012813', 'http://www.wikidata.org/entity/Q1012840', 'http://www.wikidata.org/entity/Q1012868', 'http://www.wikidata.org/entity/Q1012887', 'http://www.wikidata.org/entity/Q1012924', 'http://www.wikidata.org/entity/Q1012961', 'http://www.wikidata.org/entity/Q1012971', 'http://www.wikidata.org/entity/Q1012975', 'http://www.wikidata.org/entity/Q1013119', 'http://www.wikidata.org/entity/Q1013136', 'http://www.wikidata.org/entity/Q1013189', 'http://www.wikidata.org/entity/Q1013299', 'http://www.wikidata.org/entity/Q1013305', 'http://www.wikidata.org/entity/Q1013317', 'http://www.wikidata.org/entity/Q1013322', 'http://www.wikidata.org/entity/Q1013344', 'http://www.wikidata.org/entity/Q1013348', 'http://www.wikidata.org/entity/Q1013379', 'http://www.wikidata.org/entity/Q1013403', 'http://www.wikidata.org/entity/Q1013413', 'http://www.wikidata.org/entity/Q1013421', 'http://www.wikidata.org/entity/Q1013428', 'http://www.wikidata.org/entity/Q1013438', 'http://www.wikidata.org/entity/Q1013454', 'http://www.wikidata.org/entity/Q1013471', 'http://www.wikidata.org/entity/Q1013474', 'http://www.wikidata.org/entity/Q1013478', 'http://www.wikidata.org/entity/Q1013481', 'http://www.wikidata.org/entity/Q1013497', 'http://www.wikidata.org/entity/Q1013526', 'http://www.wikidata.org/entity/Q1013531', 'http://www.wikidata.org/entity/Q1013537', 'http://www.wikidata.org/entity/Q1013540', 'http://www.wikidata.org/entity/Q1013549', 'http://www.wikidata.org/entity/Q1013556', 'http://www.wikidata.org/entity/Q1013568', 'http://www.wikidata.org/entity/Q1013584', 'http://www.wikidata.org/entity/Q1013594', 'http://www.wikidata.org/entity/Q1013608', 'http://www.wikidata.org/entity/Q1013633', 'http://www.wikidata.org/entity/Q1013660', 'http://www.wikidata.org/entity/Q1013664', 'http://www.wikidata.org/ent</t>
+          <t>['http://www.wikidata.org/entity/Q103817549', 'http://www.wikidata.org/entity/Q104137', 'http://www.wikidata.org/entity/Q1125083', 'http://www.wikidata.org/entity/Q126699', 'http://www.wikidata.org/entity/Q1305799', 'http://www.wikidata.org/entity/Q1418932', 'http://www.wikidata.org/entity/Q1423573', 'http://www.wikidata.org/entity/Q1627161', 'http://www.wikidata.org/entity/Q174683', 'http://www.wikidata.org/entity/Q184255', 'http://www.wikidata.org/entity/Q332497', 'http://www.wikidata.org/entity/Q3382188', 'http://www.wikidata.org/entity/Q375186', 'http://www.wikidata.org/entity/Q399823', 'http://www.wikidata.org/entity/Q477630', 'http://www.wikidata.org/entity/Q502189', 'http://www.wikidata.org/entity/Q503338', 'http://www.wikidata.org/entity/Q544434', 'http://www.wikidata.org/entity/Q54812267', 'http://www.wikidata.org/entity/Q577306', 'http://www.wikidata.org/entity/Q598338', 'http://www.wikidata.org/entity/Q602522', 'http://www.wikidata.org/entity/Q611424', 'http://www.wikidata.org/entity/Q653251', 'http://www.wikidata.org/entity/Q741196', 'http://www.wikidata.org/entity/Q785461', 'http://www.wikidata.org/entity/Q906705']</t>
         </is>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>In which country is the Limerick Lake?</t>
+          <t>In which countries can you pay using the West African CFA franc?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q16']</t>
+          <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q16']</t>
+          <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
         </is>
       </c>
       <c r="D39" t="b">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>How tall is Michael Jordan?</t>
+          <t>how much is the population Iraq?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['198']</t>
+          <t>['38274618']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['198']</t>
+          <t>['38274618']</t>
         </is>
       </c>
       <c r="D40" t="b">
@@ -1238,37 +1238,37 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Which films starring Clint Eastwood did he direct himself?</t>
+          <t>Which holidays are celebrated around the world?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103817549', 'http://www.wikidata.org/entity/Q104137', 'http://www.wikidata.org/entity/Q1125083', 'http://www.wikidata.org/entity/Q126699', 'http://www.wikidata.org/entity/Q1305799', 'http://www.wikidata.org/entity/Q1418932', 'http://www.wikidata.org/entity/Q1423573', 'http://www.wikidata.org/entity/Q1627161', 'http://www.wikidata.org/entity/Q174683', 'http://www.wikidata.org/entity/Q184255', 'http://www.wikidata.org/entity/Q332497', 'http://www.wikidata.org/entity/Q3382188', 'http://www.wikidata.org/entity/Q375186', 'http://www.wikidata.org/entity/Q399823', 'http://www.wikidata.org/entity/Q477630', 'http://www.wikidata.org/entity/Q502189', 'http://www.wikidata.org/entity/Q503338', 'http://www.wikidata.org/entity/Q544434', 'http://www.wikidata.org/entity/Q54812267', 'http://www.wikidata.org/entity/Q577306', 'http://www.wikidata.org/entity/Q598338', 'http://www.wikidata.org/entity/Q602522', 'http://www.wikidata.org/entity/Q611424', 'http://www.wikidata.org/entity/Q653251', 'http://www.wikidata.org/entity/Q741196', 'http://www.wikidata.org/entity/Q785461', 'http://www.wikidata.org/entity/Q906705']</t>
+          <t>['http://www.wikidata.org/entity/Q100271515', 'http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100740692', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281749', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10281780', 'http://www.wikidata.org/entity/Q10281783', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10281793', 'http://www.wikidata.org/entity/Q10281798', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q1033140', 'http://www.wikidata.org/entity/Q103407630', 'http://www.wikidata.org/entity/Q103408482', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q103461996', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10405623', 'http://www.wikidata.org/entity/Q10405661', 'http://www.wikidata.org/entity/Q10411424', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495385', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10541293', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q1054975', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q105888686', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106113886', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106333', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106462957', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q106658464', 'http://www.wikidata.org/entity/Q106658575', 'http://www.wikidata.org/entity/Q106658749', 'http://www.wikidata.org/entity/Q106658879', 'http://www.wikidata.org/entity/Q106659060', 'http://www.wikidata.org/entity/Q106663543', 'http://www.wikidata.org/entity/Q106663566', 'http://www.wikidata.org/entity/Q106663587', 'http://www.wikidata.org/entity/Q106663613', 'http://www.wikidata.org/entity/Q106663745', 'http://www.wikidata.org/entity/Q106663779', 'http://www.wikidata.org/entity/Q106663799', 'http://www.wikidata.org/entity/Q106664025', 'http://www.wikidata.org/entity/Q106664072', 'http://www.wikidata.org/entity/Q106664114', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q106698317', 'http://www.wikidata.org/entity/Q106708800', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106810895', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107296290', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107438167', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108131396', 'http://www.wikidata.org/entity/Q108177441', 'http://www.wikidata.org/entity/Q108183111', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108333212', 'http://www.wikidata.org/entity/Q108338128', 'http://www.wikidata.org/entity/Q108367189', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108404671', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q108447771', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10854390', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108581891', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108783890', 'http://www.wikidata.org/entity/Q108803354', 'http://www.wikidata.org/entity/Q108803791', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108923501', 'http://www.wikidata.org/entity/Q108927805', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q1090024', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109310919', 'http://www.wikidata.org/entity/Q109311258', 'http://www.wikidata.org/entity/Q109311824', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q109500716', 'http://www.wikidata.org/entity/Q1095258', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109593799', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109727087', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q10985961', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q109923166', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110064747', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110192210', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110246928', 'http://www.wikidata.org/entity/Q110413817', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q1107928', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q111191757', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111242836', 'http://www.wikidata.org/entity/Q111242852', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111551849', 'http://www.wikidata.org/entity/Q111551982', 'http://www.wikidata.org/entity/Q111552242', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111633412', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111725919', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738315', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111848989', 'http://www.wikidata.org/entity/Q111850874', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111968636', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112045555', 'http://www.wikidata.org/entity/Q11205278', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183440', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q112630989', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112667845', 'http://www.wikidata.org/entity/Q112667901', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112674649', 'http://www.wikidata.org/entity/Q112678738', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q112769957', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q11278649', 'http://www.wikidata.org/entity/Q1128065', 'http://www.wikidata.org/entity/Q112894936', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113325889', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113406974', 'http://www.wikidata.org/entity/Q113458549', 'http://www.wikidata.org/entity/Q113458586', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470239', 'http://www.wikidata.org/entity/Q113470340', 'http://www.wikidata.org/entity/Q113470387', 'http://www.wikidata.org/entity/Q113470512', 'http://www.wikidata.org/entity/Q113470522', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103817549', 'http://www.wikidata.org/entity/Q104137', 'http://www.wikidata.org/entity/Q1125083', 'http://www.wikidata.org/entity/Q126699', 'http://www.wikidata.org/entity/Q1305799', 'http://www.wikidata.org/entity/Q1418932', 'http://www.wikidata.org/entity/Q1423573', 'http://www.wikidata.org/entity/Q1627161', 'http://www.wikidata.org/entity/Q174683', 'http://www.wikidata.org/entity/Q184255', 'http://www.wikidata.org/entity/Q332497', 'http://www.wikidata.org/entity/Q3382188', 'http://www.wikidata.org/entity/Q375186', 'http://www.wikidata.org/entity/Q399823', 'http://www.wikidata.org/entity/Q477630', 'http://www.wikidata.org/entity/Q502189', 'http://www.wikidata.org/entity/Q503338', 'http://www.wikidata.org/entity/Q544434', 'http://www.wikidata.org/entity/Q54812267', 'http://www.wikidata.org/entity/Q577306', 'http://www.wikidata.org/entity/Q598338', 'http://www.wikidata.org/entity/Q602522', 'http://www.wikidata.org/entity/Q611424', 'http://www.wikidata.org/entity/Q653251', 'http://www.wikidata.org/entity/Q741196', 'http://www.wikidata.org/entity/Q785461', 'http://www.wikidata.org/entity/Q906705']</t>
+          <t>['http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata.org/entity/Q113499458', 'http://www.wikidata.org/entity/Q1135034', 'http://www.wikidata.org/entity/Q11354348', 'http://www.wikidata.org/entity/Q113549137', 'http://www.wikidata.org/entity/Q113576165', 'http://www.wikidata.org/entity/Q113581609', 'http://www.wikidata.org/entity/Q113627236', 'http://www.wikidata.org/entity/Q113631347', 'http://www.wikidata.org/entity/Q113631375', 'http://www.wikidata.org/entity/Q113631508', 'http://www.wikidata.org/entity/Q113631563', 'http://www.wikidata.org/entity/Q113631569', 'http://www.wikidata.org/entity/Q113674106', 'http://www.wikidata.org/entity/Q11371391', 'http://www.wikidata.org/entity/Q113714633', 'http://www.wikidata.org/entity/Q11387117', 'http://www.wikidata.org/entity/Q113903854', 'http://www.wikidata.org/entity/Q11391277', 'http://www.wikidata.org/entity/Q1139591', 'http://www.wikidata.org/entity/Q11409712', 'http://www.wikidata.org/entity/Q114315605', 'http://www.wikidata.org/entity/Q114658295', 'http://www.wikidata.org/entity/Q1147008', 'http://www.wikidata.org/entity/Q114779611', 'http://www.wikidata.org/entity/Q114780741', 'http://www.wikidata.org/entity/Q114781351', 'http://www.wikidata.org/entity/Q114840373', 'http://www.wikidata.org/entity/Q114863314', 'http://www.wikidata.org/entity/Q115152362', 'http://www.wikidata.org/entity/Q115209188', 'http://www.wikidata.org/entity/Q115214299', 'http://www.wikidata.org/entity/Q115259173', 'http://www.wikidata.org/entity/Q115294651', 'http://www.wikidata.org/entity/Q115327380', 'http://www.wikidata.org/entity/Q1153848', 'http://www.wikidata.org/entity/Q11545488', 'http://www.wikidata.org/entity/Q115516436', 'http://www.wikidata.org/entity/Q115526578', 'http://www.wikidata.org/entity/Q115624997', 'http://www.wikidata.org/entity/Q115628690', 'http://www.wikidata.org/entity/Q11567159', 'http://www.wikidata.org/entity/Q11590237', 'http://www.wikidata.org/entity/Q115937074', 'http://www.wikidata.org/entity/Q11606287', 'http://www.wikidata.org/entity/Q116113833', 'http://www.wikidata.org/entity/Q116349234', 'http://www.wikidata.org/entity/Q116767714', 'http://www.wikidata.org/entity/Q116790237', 'http://www.wikidata.org/entity/Q116846825', 'http://www.wikidata.org/entity/Q116858640', 'http://www.wikidata.org/entity/Q116938985', 'http://www.wikidata.org/entity/Q11695705', 'http://www.wikidata.org/entity/Q11695707', 'http://www.wikidata.org/entity/Q11695708', 'http://www.wikidata.org/entity/Q11695711', 'http://www.wikidata.org/entity/Q11695713', 'http://www.wikidata.org/entity/Q11695714', 'http://www.wikidata.org/entity/Q11695716', 'http://www.wikidata.org/entity/Q11695717', 'http://www.wikidata.org/entity/Q11695718', 'http://www.wikidata.org/entity/Q11695721', 'http://www.wikidata.org/entity/Q11695722', 'http://www.wikidata.org/entity/Q11695723', 'http://www.wikidata.org/entity/Q116973585', 'http://www.wikidata.org/entity/Q116980492', 'http://www.wikidata.org/entity/Q117035968', 'http://www.wikidata.org/entity/Q11703716', 'http://www.wikidata.org/entity/Q117040282', 'http://www.wikidata.org/entity/Q11706236', 'http://www.wikidata.org/entity/Q1170632', 'http://www.wikidata.org/entity/Q117361394', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117455751', 'http://www.wikidata.org/entity/Q117587270', 'http://www.wikidata.org/entity/Q117711867', 'http://www.wikidata.org/entity/Q11783773', 'http://www.wikidata.org/entity/Q11783808', 'http://www.wikidata.org/entity/Q117844480', 'http://www.wikidata.org/entity/Q11789695', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q11789707', 'http://www.wikidata.org/entity/Q11802972', 'http://www.wikidata.org/entity/Q118224784', 'http://www.wikidata.org/entity/Q118288532', 'http://www.wikidata.org/entity/Q118314773', 'http://www.wikidata.org/entity/Q118330188', 'http://www.wikidata.org/entity/Q118369207', 'http://www.wikidata.org/entity/Q118744251', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118947258', 'http://www.wikidata.org/entity/Q119105010', 'http://www.wikidata.org/entity/Q11919090', 'http://www.wikidata.org/entity/Q119241124', 'http://www.wikidata.org/entity/Q119243817', 'http://www.wikidata.org/entity/Q119285617', 'http://www.wikidata.org/entity/Q119348301', 'http://www.wikidata.org/entity/Q119397277', 'http://www.wikidata.org/entity/Q1194059', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q119806244', 'http://www.wikidata.org/entity/Q119853995', 'http://www.wikidata.org/entity/Q120068971', 'http://www.wikidata.org/entity/Q120146391', 'http://www.wikidata.org/entity/Q120403912', 'http://www.wikidata.org/entity/Q120486552', 'http://www.wikidata.org/entity/Q12060958', 'http://www.wikidata.org/entity/Q120823815', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q12090941', 'http://www.wikidata.org/entity/Q1209940', 'http://www.wikidata.org/entity/Q12100125', 'http://www.wikidata.org/entity/Q12100126', 'http://www.wikidata.org/entity/Q12100128', 'http://www.wikidata.org/entity/Q12100132', 'http://www.wikidata.org/entity/Q12100138', 'http://www.wikidata.org/entity/Q12100141', 'http://www.wikidata.org/entity/Q12100152', 'http://www.wikidata.org/entity/Q12100160', 'http://www.wikidata.org/entity/Q12131090', 'http://www.wikidata.org/entity/Q121322780', 'http://www.wikidata.org/entity/Q121393', 'http://www.wikidata.org/entity/Q12149731', 'http://www.wikidata.org/entity/Q12174361', 'http://www.wikidata.org/entity/Q121759535', 'http://www.wikidata.org/entity/Q121852183', 'http://www.wikidata.org/entity/Q121864546', 'http://www.wikidata.org/entity/Q121991381', 'http://www.wikidata.org/entity/Q122057715', 'http://www.wikidata.org/entity/Q122058042', 'http://www.wikidata.org/entity/Q122144115', 'http://www.wikidata.org/entity/Q122199376', 'http://www.wikidata.org/entity/Q122341064', 'http://www.wikidata.org/entity/Q122460010', 'http://www.wikidata.org/entity/Q122495885', 'http://www.wikidata.org/entity/Q1226845', 'http://www.wikidata.org/entity/Q122767100', 'http://www.wikidata.org/entity/Q12284238', 'http://www.wikidata.org/entity/Q12286265', 'http://www.wikidata.org/entity/Q12286390', 'http://www.wikidata.org/entity/Q12289674', 'http://www.wikidata.org/entity/Q12292151', 'http://www.wikidata.org/entity/Q12293119', 'http://www.wikidata.org/entity/Q12293243', 'http://www.wikidata.org/entity/Q12299913', 'http://www.wikidata.org/entity/Q123111964', 'http://www.wikidata.org/entity/Q1231872', 'http://www.wikidata.org/entity/Q123253535', 'http://www.wikidata.org/entity/Q123265528', 'http://www.wikidata.org/entity/Q123450314', 'http://www.wikidata.org/entity/Q123515600', 'http://www.wikidata.org/entity/Q12353618', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q123757853', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q12407917', 'http://www.wikidata.org/entity/Q12407923', 'http://www.wikidata.org/entity/Q1241858', 'http://www.wikidata.org/entity/Q12422844', 'http://www.wikidata.org/entity/Q124250314', 'http://www.wikidata.org/entity/Q124250951', 'http://www.wikidata.org/entity/Q124255532', 'http://www.wikidata.org/entity/Q124318023', 'http://www.wikidata.org/entity/Q124352953', 'http://www.wikidata.org/entity/Q124367000', 'http://www.wikidata.org/entity/Q12438967', 'http://www.wikidata.org/entity/Q124408550', 'http://www.wikidata.org/entity/Q12441237', 'http://www.wikidata.org/entity/Q124498473', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q124568688', 'http://www.wikidata.org/entity/Q124747000', 'http://www.wikidata.org/entity/Q124799998', 'http://www.wikidata.org/entity/Q124830290', 'http://www.wikidata.org/entity/Q124854084', 'http://www.wikidata.org/entity/Q12513670', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q1252585', 'http://www.wikidata.org/entity/Q1252596', 'http://www.wikidata.org/entity/Q125505711', 'http://www.wikidata.org/entity/Q1255099', 'http://www.wikidata.org/entity/Q125524227', 'http://www.wikidata.org/entity/Q125613295', 'http://www.wikidata.org/entity/Q125912847', 'http://www.wikidata.org/entity/Q125928736', 'http://www.wikidata.org/entity/Q12601109', 'http://www.wikidata.org/entity/Q12602481', 'http://www.wikidata.org/entity/Q126083299', 'http://www.wikidata.org/entity/Q126083373', 'http://www.wikidata.org/entity/Q126113071', 'http://www.wikidata.org/entity/Q12614307', 'http://www.wikidata.org/entity/Q12614875', 'http://www.wikidata.org/entity/Q126192995', 'http://www.wikidata.org/entity/Q126260200', 'http://www.wikidata.org/entity/Q12650252', 'http://www.wikidata.org/entity/Q12663498', 'http://www.wikidata.org/entity/Q126708915', 'http://www.wikidata.org/entity/Q126902823', 'http://www.wikidata.org/entity/Q126903060', 'http://www.wikidata.org/entity/Q126910647', 'http://www.wikidata.org/entity/Q126948133', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q1270782', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12719109', 'http://www.wikidata.org/entity/Q127393146', 'http://www.wikidata.org/entity/Q127502506', 'http://www.wikidata.org/entity/Q12750635', 'http://www.wikidata.org/entity/Q127597840', 'http://www.wikidata.org/entity/Q127798249', 'http://www.wikidata.org/entity/Q12787253', 'http://www.wikidata.org/entity/Q12787255', 'http://www.wikidata.org/entity/Q127922454', 'http://www.wikidata.org/entity/Q12803843', 'http://www.wikidata.org/entity/Q12836659', 'http://www.wikidata.org/entity/Q12859165', 'http://www.wikidata.org/entity/Q12864158', 'http://www.wikidata.org/entity/Q1290276', 'http://www.wikidata.org/entity/Q12927731', 'http://www.wikidata.org/entity/Q129726', 'http://www.wikidata.org/entity/Q12986877', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q12989464', 'http://www.wikidata.org/entity/Q13020973', 'http://www.wikidata.org/entity/Q130215597', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130237481', 'http://www.wikidata.org/entity/Q130237482', 'http://www.wikidata.org/entity/Q130237484', 'http://www.wikidata.org/entity/Q130237485', 'http://www.wikidata.org/entity/Q130237487', 'http://www.wikidata.org/entity/Q130237488', 'http://www.wikidata.org/entity/Q130237489', 'http://www.wikidata.org/entity/Q130237490', 'http://www.wikidata.org/entity/Q130237491', 'http://www.wikidata.org/entity/Q130237492', 'http://www.wikidata.org/entity/Q130237493', 'http://www.wikidata.org/entity/Q130237494', 'http://www.wikidata.org/entity/Q130237495', 'http://www.wikidata.org/entity/Q130237496', 'http://www.wikidata.org/entity/Q130237497', 'http://www.wikidata.org/entity/Q130237498', 'http://www.wikidata.org/entity/Q130237499', 'http://www.wikidata.org/entity/Q130237500', 'http://www.wikidata.org/entity/Q130237501', 'http://www.wikidata.org/entity/Q130237502', 'http://www.wikidata.org/entity/Q130237503', 'http://www.wikidata.org/entity/Q130237504', 'http://www.wikidata.org/entity/Q130237505', 'http://www.wikidata.org/entity/Q130237506', 'http://www.wikidata.org/entity/Q130237507', 'http://www.wikidata.org/entity/Q130237508', 'http://www.wikidata.org/entity/Q130237509', 'http://www.wikidata.org/entity/Q130237510', 'http://www.wikidata.org/entity/Q130237511', 'http://www.wikidata.org/entity/Q130237513', 'http://www.wikidata.org/entity/Q130237514', 'http://www.wikidata.org/entity/Q130237515', 'http://www.wikidata.org/entity/Q130237516', 'http://www.wikidata.org/entity/Q130237517', 'http://www.wikidata.org/entity/Q130237518', 'http://www.wikidata.org/entity/Q130237520', 'http://www.wikidata.org/entity/Q130237521', 'http://www.wikidata.org/entity/Q130237522', 'http://www.wikidata.org/entity/Q130237524', 'http://www.wikidata.org/entity/Q130237525', 'http://www.wikidata.org/entity/Q130237526', 'http://www.wikidata.org/entity/Q130237527', 'http://www.wikidata.org/entity/Q130237529', 'http://www.wikidata.org/entity/Q130237530', 'http://www.wikidata.org/entity/Q130237531', 'http://www.wikidata.org/entity/Q130237532', 'http://www.wikidata.org/entity/Q130237534', 'http://www.wikidata.org/entity/Q130237535', 'http://www.wikidata.org/entity/Q130237536', 'http://www.wikidata.org/entity/Q130237537', 'http://www.wikidata.org/entity/Q130237538', 'http://www.wikidata.org/entity/Q130237539', 'http://www.wikidata.org/entity/Q130237540', 'http://www.wikidata.org/entity/Q130237541', 'http://www.wikidata.org/entity/Q130237542', 'http://www.wikidata.org/entity/Q130237543', 'http://www.wikidata.org/entity/Q130237544', 'http://www.wikidata.org/entity/Q130237545', 'http://www.wikidata.org/entity/Q130237546', 'http://www.wikidata.org/entity/Q130237547', 'http://www.wikidata.org/entity/Q130237548', 'http://www.wikidata.org/entity/Q130237549', 'http://www.wikidata.org/entity/Q130237550', 'http://www.wikidata.org/entity/Q130237552', 'http://www.wikidata.org/entity/Q130237553', 'http://www.wikidata.org/entity/Q130237554', 'http://www.wikidata.org/entity/Q130237555', 'http://www.wikidata.org/entity/Q130237556', 'http://www.wikidata.org/entity/Q130237557', 'http://www.wikidata.org/entity/Q130237558', 'http://www.wikidata.org/entity/Q130237559', 'http://www.wikidata.org/entity/Q130237560', 'http://www.wikidata.org/entity/Q130237561', 'http://www.wikidata.org/entity/Q130237562', 'http://www.wikidata.org/entity/Q130237563', 'http://www.wikidata.org/entity/Q130237564', 'http://www.wikidata.org/entity/Q130237565', 'http://www.wikidata.org/entity/Q130237566', 'http://www.wikidata.org/entity/Q130237567', 'http://www.wikidata.org/entity/Q130237570', 'http://www.wikidata.org/entity/Q130237571', 'http://www.wikidata.org/entity/Q130237572', 'http://www.wikidata.org/entity/Q130237573', 'http://www.wikidata.org/entity/Q130237574', 'http://www.wikidata.org/entity/Q130237575', 'http://www.wikidata.org/entity/Q130237576', 'http://www.wikidata.org/entity/Q130237577', 'http://www.wikidata.org/entity/Q130237578', 'http://www.wikidata.org/entity/Q130237579', 'http://www.wikidata.org/entity/Q130237581', 'http://www.wikidata.org/entity/Q130237582', 'http://www.wikidata.org/entity/Q130237584', 'http://www.wikidata.org/entity/Q130237585', 'http://www.wikidata.org/entity/Q130237587', 'http://www.wikidata.org/entity/Q130237588', 'http://www.wikidata.org/entity/Q130237589', 'http://www.wikidata.org/entity/Q130237591', 'http://www.wikidata.org/entity/Q130237592', 'http://www.wikidata.org/entity/Q130237593', 'http://www.wikidata.org/entity/Q130237594', 'http://www.wikidata.org/entity/Q130237597', 'http://www.wikidata.org/entity/Q130237598', 'http://www.wikidata.org/entity/Q130237599', 'http://www.wikidata.org/entity/Q130237601', 'http://www.wikidata.org/entity/Q130237602', 'http://www.wikidata.org/entity/Q130237603', 'http://www.wikidata.org/entity/Q130237604', 'http://www.wikidata.org/entity/Q130237605', 'http://www.wikidata.org/entity/Q130237607', 'http://www.wikidata.org/entity/Q130237608', 'http://www.wikidata.org/entity/Q130237609', 'http://www.wikidata.org/entity/Q130237611', 'http://www.wikidata.org/entity/Q130237612', 'http://www.wikidata.org/entity/Q130237613', 'http://www.wikidata.org/entity/Q130237615', 'http://www.wikidata.org/entity/Q130237616', 'http://www.wikidata.org/entity/Q130237617', 'http://www.wikidata.org/entity/Q130237618', 'http://www.wikidata.org/entity/Q130237619', 'http://www.wikidata.org/entity/Q130237620', 'http://www.wikidata.org/entity/Q130237621', 'http://www.wikidata.org/entity/Q130237623', 'http://www.wikidata.org/entity/Q130237624', 'http://www.wikidata.org/entity/Q130237625', 'http://www.wikidata.org/entity/Q130237626', 'http://www.wikidata.org/entity/Q130237627', 'http://www.wikidata.org/entity/Q130237628', 'http://www.wikidata.org/entity/Q130237629', 'http://www.wikidata.org/entity/Q130237630', 'http://www.wikidata.org</t>
         </is>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>In which countries can you pay using the West African CFA franc?</t>
+          <t>Which Greek parties are pro-European?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
+          <t>['http://www.wikidata.org/entity/Q15920068', 'http://www.wikidata.org/entity/Q222897', 'http://www.wikidata.org/entity/Q3567209', 'http://www.wikidata.org/entity/Q61046702', 'http://www.wikidata.org/entity/Q7303029']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
+          <t>['http://www.wikidata.org/entity/Q15920068', 'http://www.wikidata.org/entity/Q222897', 'http://www.wikidata.org/entity/Q3567209', 'http://www.wikidata.org/entity/Q61046702', 'http://www.wikidata.org/entity/Q7303029']</t>
         </is>
       </c>
       <c r="D42" t="b">
@@ -1278,57 +1278,57 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>Who designed the Brooklyn Bridge?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['38274618']</t>
+          <t>['http://www.wikidata.org/entity/Q77237']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/statement/Q796-03A1FA94-0658-470A-8BFA-045FBAF2555E', 'http://www.wikidata.org/entity/statement/Q796-049C764F-53C6-4084-B4EE-C3CFF5165E1C', 'http://www.wikidata.org/entity/statement/Q796-0547B3EF-7F47-4C1A-A53B-9FCD0CA437E3', 'http://www.wikidata.org/entity/statement/Q796-0AD61519-4F9F-4E26-BC47-F66F98AE2744', 'http://www.wikidata.org/entity/statement/Q796-0E188ADC-9E9E-4CFC-9F0D-68C1240A000D', 'http://www.wikidata.org/entity/statement/Q796-129A1C35-5402-4145-B6F5-83A684C9C35F', 'http://www.wikidata.org/entity/statement/Q796-164EFD3B-8355-4F53-97AB-827EA5F62285', 'http://www.wikidata.org/entity/statement/Q796-1D57F01F-7B73-4791-9804-AE312C9CD380', 'http://www.wikidata.org/entity/statement/Q796-225DCC68-36B1-4646-9872-55FB1DC6697C', 'http://www.wikidata.org/entity/statement/Q796-24A4E2D6-A2A0-4ACC-8F95-6E3ED9A7AC2F', 'http://www.wikidata.org/entity/statement/Q796-258F371B-21E0-4F7F-B595-0A91CDC0EE7F', 'http://www.wikidata.org/entity/statement/Q796-261C68CE-EF65-425A-A576-376815838DD9', 'http://www.wikidata.org/entity/statement/Q796-26EE93C2-60F8-422B-AD41-790C7C84D6F8', 'http://www.wikidata.org/entity/statement/Q796-2C662CAB-B058-4D9F-A35A-B8FE7F5F2A94', 'http://www.wikidata.org/entity/statement/Q796-452F40AB-6BCA-474B-844B-E09C6847C1FA', 'http://www.wikidata.org/entity/statement/Q796-4B23B2A6-7C23-4657-BFDD-46D17DEDB0C6', 'http://www.wikidata.org/entity/statement/Q796-4D8448AD-D0B8-4C82-9759-74A79D48693B', 'http://www.wikidata.org/entity/statement/Q796-54820927-2001-47DC-9E39-37B953391565', 'http://www.wikidata.org/entity/statement/Q796-563C5E3E-ADBA-469B-B3AA-3D7F2228F0B8', 'http://www.wikidata.org/entity/statement/Q796-56DDE0DB-202F-4774-80B9-FF9E7DC4096A', 'http://www.wikidata.org/entity/statement/Q796-570FDF1C-4350-44FD-A5CE-8BAE71E37E36', 'http://www.wikidata.org/entity/statement/Q796-57B4386F-9BBE-4B1C-9C52-3DB3EC9E8A8F', 'http://www.wikidata.org/entity/statement/Q796-58aaa78c-45e8-1640-2983-ae69b2895cd9', 'http://www.wikidata.org/entity/statement/Q796-58D3A080-DA8E-4D69-8307-6A9FEF286E93', 'http://www.wikidata.org/entity/statement/Q796-5C1259D0-D83E-45A3-866E-98A70A7D4186', 'http://www.wikidata.org/entity/statement/Q796-5D048EFA-69DC-4E97-91A5-F0FABFB15C37', 'http://www.wikidata.org/entity/statement/Q796-6189B500-8FEE-4331-AF1F-5D8D6E63FB01', 'http://www.wikidata.org/entity/statement/Q796-6B9616BB-A2BA-4167-88CB-FCA6496F94F4', 'http://www.wikidata.org/entity/statement/Q796-6F096C34-6ED7-46A0-9A87-1CE1017DE792', 'http://www.wikidata.org/entity/statement/Q796-72E83CD1-3DBF-4482-8921-1AB25BBAE8F3', 'http://www.wikidata.org/entity/statement/Q796-83BE686F-4917-4B99-8BF1-0541F957C0A2', 'http://www.wikidata.org/entity/statement/Q796-865870C4-891F-4E4D-B2DC-4A2D5508F3FE', 'http://www.wikidata.org/entity/statement/Q796-8869A6C0-B92C-45D1-A07C-4984A3531EF9', 'http://www.wikidata.org/entity/statement/Q796-89D10CE2-084F-4249-9E22-6DD5094AA6B6', 'http://www.wikidata.org/entity/statement/Q796-8E28E1FB-3A80-400F-8C12-20CA6D9E0E9B', 'http://www.wikidata.org/entity/statement/Q796-9B2B6658-A6D1-48E3-AB1E-B1EE86D4D7D9', 'http://www.wikidata.org/entity/statement/Q796-A0A1A59B-7E35-49EB-8FAC-18DDABDB3EE1', 'http://www.wikidata.org/entity/statement/Q796-AB54DE8B-647B-4CE0-BFE4-E06A70F69347', 'http://www.wikidata.org/entity/statement/Q796-BD49B068-9339-43EB-839D-92C97251026D', 'http://www.wikidata.org/entity/statement/Q796-BE1D6746-8712-4321-8B7F-5336AD7CDC29', 'http://www.wikidata.org/entity/statement/Q796-C20FC269-2074-4BE3-93B6-AFC0D7E39B2D', 'http://www.wikidata.org/entity/statement/Q796-C311903B-6576-497D-85B4-A1005ECDB50D', 'http://www.wikidata.org/entity/statement/Q796-C99DFDFA-BE39-4089-A3FC-5A1C6E055F00', 'http://www.wikidata.org/entity/statement/Q796-CD849219-CABE-44F3-A04B-6E5E088451F9', 'http://www.wikidata.org/entity/statement/Q796-CDC4C786-112D-4023-8417-B824D880C61D', 'http://www.wikidata.org/entity/statement/Q796-CE4C70BA-E831-43CD-9986-7F94501309B7', 'http://www.wikidata.org/entity/statement/Q796-D7BCE207-4A18-43DC-8E90-CC732D632C21', 'http://www.wikidata.org/entity/statement/Q796-DAD62F77-ABF6-4F9F-B7AA-CBE2F03A187B', 'http://www.wikidata.org/entity/statement/Q796-DF6EF8FD-A47A-4046-B2EC-7D79BC5918D9', 'http://www.wikidata.org/entity/statement/Q796-E1652FE7-42E1-42F1-BDB2-BB4B9F30AC17', 'http://www.wikidata.org/entity/statement/Q796-E27CFCF3-7E7F-4A38-9439-5ABD85799826', 'http://www.wikidata.org/entity/statement/Q796-E8DEC8E6-29C9-453B-AABB-777E71E26AE4', 'http://www.wikidata.org/entity/statement/Q796-E9E6CDCF-E4B7-4221-9E6A-0E5132811F8D', 'http://www.wikidata.org/entity/statement/Q796-ECDBC10F-D7D7-4C87-86A3-F40D974D89E0', 'http://www.wikidata.org/entity/statement/Q796-EE75F6AD-B00E-4270-BAB1-F114A11D9A08', 'http://www.wikidata.org/entity/statement/Q796-FFF095F1-32EC-495D-923D-5B101FE13EB7']</t>
+          <t>['http://www.wikidata.org/entity/Q77237']</t>
         </is>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Which holidays are celebrated around the world?</t>
+          <t>Who wrote the Game of Thrones theme?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q116978631', 'http://www.wikidata.org/entity/Q21163268', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q124422802', 'http://www.wikidata.org/entity/Q18465013', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1651570', 'http://www.wikidata.org/entity/Q2564633', 'http://www.wikidata.org/entity/Q333016', 'http://www.wikidata.org/entity/Q61359735', 'http://www.wikidata.org/entity/Q72318', 'http://www.wikidata.org/entity/Q744159', 'http://www.wikidata.org/entity/Q751738', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q45922130', 'http://www.wikidata.org/entity/Q57350935', 'http://www.wikidata.org/entity/Q57397044', 'http://www.wikidata.org/entity/Q116978568', 'http://www.wikidata.org/entity/Q2859605', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q115181793', 'http://www.wikidata.org/entity/Q115369110', 'http://www.wikidata.org/entity/Q115369980', 'http://www.wikidata.org/entity/Q115377287', 'http://www.wikidata.org/entity/Q21697589', 'http://www.wikidata.org/entity/Q122069654', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q11406184', 'http://www.wikidata.org/entity/Q11643728', 'http://www.wikidata.org/entity/Q20044441', 'http://www.wikidata.org/entity/Q28685931', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q11387821', 'http://www.wikidata.org/entity/Q11436695', 'http://www.wikidata.org/entity/Q11501518', 'http://www.wikidata.org/entity/Q11502138', 'http://www.wikidata.org/entity/Q11512398', 'http://www.wikidata.org/entity/Q11590440', 'http://www.wikidata.org/entity/Q11604982', 'http://www.wikidata.org/entity/Q6455253', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q124005660', 'http://www.wikidata.org/entity/Q130611902', 'http://www.wikidata.org/entity/Q13258770', 'http://www.wikidata.org/entity/Q2838743', 'http://www.wikidata.org/entity/Q3092925', 'http://www.wikidata.org/entity/Q123004384', 'http://www.wikidata.org/entity/Q4546230', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q1137351', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q1186410', 'http://www.wikidata.org/entity/Q1355051', 'http://www.wikidata.org/entity/Q1355833', 'http://www.wikidata.org/entity/Q1359602', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1361489', 'http://www.wikidata.org/entity/Q17218111', 'http://www.wikidata.org/entity/Q483226', 'http://www.wikidata.org/entity/Q82405', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499494', 'http://www.wikidata.org/entity/Q113650760', 'http://www.wikidata.org/entity/Q11368765', 'http://www.wikidata.org/entity/Q113811579', 'http://www.wikidata.org/entity/Q113813231', 'http://www.wikidata.org/entity/Q113828978', 'http://www.wikidata.org/entity/Q113830063', 'http://www.wikidata.org/entity/Q113841626', 'http://www.wikidata.org/entity/Q113849016', 'http://www.wikidata.org/entity/Q113860611', 'http://www.wikidata.org/entity/Q113860644', 'http://www.wikidata.org/entity/Q113861194', 'http://www.wikidata.org/entity/Q113882354', 'http://www.wikidata.org/entity/Q113884368', 'http://www.wikidata.org/entity/Q113901976', 'http://www.wikidata.org/entity/Q113904662', 'http://www.wikidata.org/entity/Q1139536', 'http://www.wikidata.org/entity/Q113955599', 'http://www.wikidata.org/entity/Q113955616', 'http://www.wikidata.org/entity/Q113955620', 'http://www.wikidata.org/entity/Q113955692', 'http://www.wikidata.org/entity/Q113961851', 'http://www.wikidata.org/entity/Q113961888', 'http://www.wikidata.org/entity/Q113961932', 'http://www.wikidata.org/entity/Q114028189', 'http://www.wikidata.org/entity/Q114046091', 'http://www.wikidata.org/entity/Q114056617', 'http://www.wikidata.org/entity/Q114057278', 'http://www.wikidata.org/entity/Q114059225', 'http://www.wikidata.org/entity/Q114243677', 'http://www.wikidata.org/entity/Q114454471', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q114582556', 'http://www.wikidata.org/entity/Q114588676', 'http://www.wikidata.org/entity/Q114604', 'http://www.wikidata.org/entity/Q114947458', 'http://www.wikidata.org/entity/Q114948159', 'http://www.wikidata.org/entity/Q114996688', 'http://www.wikidata.org/entity/Q114997174', 'http://www.wikidata.org/entity/Q115341348', 'http://www.wikidata.org/entity/Q115367992', 'http://www.wikidata.org/entity/Q115397386', 'http://www.wikidata.org/entity/Q115517924', 'http://www.wikidata.org/entity/Q115764515', 'http://www.wikidata.org/entity/Q115801523', 'http://www.wikidata.org/entity/Q115912774', 'http://www.wikidata.org/entity/Q115990472', 'http://www.wikidata.org/entity/Q116414186', 'http://www.wikidata.org/entity/Q116690653', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117695225', 'http://www.wikidata.org/entity/Q117751349', 'http://www.wikidata.org/entity/Q117795094', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q118128483', 'http://www.wikidata.org/entity/Q11921906', 'http://www.wikidata.org/entity/Q11938851', 'http://www.wikidata.org/entity/Q119496586', 'http://www.wikidata.org/entity/Q11993043', 'http://www.wikidata.org/entity/Q1207931', 'http://www.wikidata.org/entity/Q1207932', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q121886956', 'http://www.wikidata.org/entity/Q122068698', 'http://www.wikidata.org/entity/Q122188018', 'http://www.wikidata.org/entity/Q12228863', 'http://www.wikidata.org/entity/Q12228866', 'http://www.wikidata.org/entity/Q12228868', 'http://www.wikidata.org/entity/Q12228876', 'http://www.wikidata.org/entity/Q12228884', 'http://www.wikidata.org/entity/Q12252186', 'http://www.wikidata.org/entity/Q12277858', 'http://www.wikidata.org/entity/Q122832546', 'http://www.wikidata.org/entity/Q12314502', 'http://www.wikidata.org/entity/Q123337193', 'http://www.wikidata.org/entity/Q123592992', 'http://www.wikidata.org/entity/Q12361577', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q12376028', 'http://www.wikidata.org/entity/Q12378350', 'http://www.wikidata.org/entity/Q124036138', 'http://www.wikidata.org/entity/Q12407929', 'http://www.wikidata.org/entity/Q12411505', 'http://www.wikidata.org/entity/Q124367042', 'http://www.wikidata.org/entity/Q124504910', 'http://www.wikidata.org/entity/Q124564384', 'http://www.wikidata.org/entity/Q124612831', 'http://www.wikidata.org/entity/Q124615758', 'http://www.wikidata.org/entity/Q124619352', 'http://www.wikidata.org/entity/Q124620804', 'http://www.wikidata.org/entity/Q124620822', 'http://www.wikidata.org/entity/Q124707699', 'http://www.wikidata.org/entity/Q124820083', 'http://www.wikidata.org/entity/Q124830280', 'http://www.wikidata.org/entity/Q124857570', 'http://www.wikidata.org/entity/Q124858688', 'http://www.wikidata.org/entity/Q124858953', 'http://www.wikidata.org/entity/Q125149734', 'http://www.wikidata.org/entity/Q125205121', 'http://www.wikidata.org/entity/Q1254268', 'http://www.wikidata.org/entity/Q125510673', 'http://www.wikidata.org/entity/Q125511630', 'http://www.wikidata.org/entity/Q125521675', 'http://www.wikidata.org/entity/Q125521758', 'http://www.wikidata.org/entity/Q125555445', 'http://www.wikidata.org/entity/Q125566609', 'http://www.wikidata.org/entity/Q125577561', 'http://www.wikidata.org/entity/Q125592462', 'http://www.wikidata.org/entity/Q12560060', 'http://www.wikidata.org/entity/Q125688458', 'http://www.wikidata.org/entity/Q125688603', 'http://www.wikidata.org/entity/Q125700972', 'http://www.wikidata.org/entity/Q125704427', 'http://www.wikidata.org/entity/Q125747483', 'http://www.wikidata.org/entity/Q125749644', 'http://www.wikidata.org/entity/Q125758800', 'http://www.wikidata.org/entity/Q125759229', 'http://www.wikidata.org/entity/Q125845551', 'http://www.wikidata.org/entity/Q12584835', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q125867175', 'http://www.wikidata.org/entity/Q125867458', 'http://www.wikidata.org/entity/Q125867756', 'http://www.wikidata.org/entity/Q125867888', 'http://www.wikidata.org/entity/Q125869488', 'http://www.wikidata.org/entity/Q125879646', 'http://www.wikidata.org/entity/Q125879891', 'http://www.wikidata.org/entity/Q125883649', 'http://www.wikidata.org/entity/Q125883847', 'http://www.wikidata.org/entity/Q125890530', 'http://www.wikidata.org/entity/Q125890753', 'http://www.wikidata.org/entity/Q125891443', 'http://www.wikidata.org/entity/Q125891720', 'http://www.wikidata.org/entity/Q125895110', 'http://www.wikidata.org/entity/Q125895155', 'http://www.wikidata.org/entity/Q125899181', 'http://www.wikidata.org/entity/Q125899513', 'http://www.wikidata.org/entity/Q125901134', 'http://www.wikidata.org/entity/Q125903138', 'http://www.wikidata.org/entity/Q125910729', 'http://www.wikidata.org/entity/Q125910806', 'http://www.wikidata.org/entity/Q125911055', 'http://www.wikidata.org/entity/Q125911072', 'http://www.wikidata.org/entity/Q125914666', 'http://www.wikidata.org/entity/Q125914885', 'http://www.wikidata.org/entity/Q125921693', 'http://www.wikidata.org/entity/Q125922831', 'http://www.wikidata.org/entity/Q125922882', 'http://www.wikidata.org/entity/Q125926636', 'http://www.wikidata.org/entity/Q125932740', 'http://www.wikidata.org/entity/Q125936101', 'http://www.wikidata.org/entity/Q125936683', 'http://www.wikidata.org/entity/Q125956876', 'http://www.wikidata.org/entity/Q125959131', 'http://www.wikidata.org/entity/Q125965703', 'http://www.wikidata.org/entity/Q125966437', 'http://www.wikidata.org/entity/Q125966992', 'http://www.wikidata.org/entity/Q125968806', 'http://www.wikidata.org/entity/Q125969610', 'http://www.wikidata.org/entity/Q125970539', 'http://www.wikidata.org/entity/Q125984409', 'http://www.wikidata.org/entity/Q125984492', 'http://www.wikidata.org/entity/Q125994583', 'http://www.wikidata.org/entity/Q125997034', 'http://www.wikidata.org/entity/Q125998688', 'http://www.wikidata.org/entity/Q125998803', 'http://www.wikidata.org/entity/Q125998897', 'http://www.wikidata.org/entity/Q125999072', 'http://www.wikidata.org/entity/Q12599950', 'http://www.wikidata.org/entity/Q126010095', 'http://www.wikidata.org/entity/Q126010128', 'http://www.wikidata.org/entity/Q126028447', 'http://www.wikidata.org/entity/Q126028546', 'http://www.wikidata.org/entity/Q126032653', 'http://www.wikidata.org/entity/Q126126323', 'http://www.wikidata.org/entity/Q126126778', 'http://www.wikidata.org/entity/Q12613371', 'http://www.wikidata.org/entity/Q12629515', 'http://www.wikidata.org/entity/Q126325524', 'http://www.wikidata.org/entity/Q126361854', 'http://www.wikidata.org/entity/Q126362969', 'http://www.wikidata.org/entity/Q126371412', 'http://www.wikidata.org/entity/Q126371457', 'http://www.wikidata.org/entity/Q126371864', 'http://www.wikidata.org/entity/Q126371886', 'http://www.wikidata.org/entity/Q126372368', 'http://www.wikidata.org/entity/Q126372458', 'http://www.wikidata.org/entity/Q126372576', 'http://www.wikidata.org/entity/Q126415038', 'http://www.wikidata.org/entity/Q126456102', 'http://www.wikidata.org/entity/Q126477003', 'http://www.wikidata.org/entity/Q126477086', 'http://www.wikidata.org/entity/Q126477151', 'http://www.wikidata.org/entity/Q126477162', 'http://www.wikidata.org/entity/Q126478091', 'http://www.wikidata.org/entity/Q126478228', 'http://www.wikidata.org/entity/Q126511431', 'http://www.wikidata.org/entity/Q126513767', 'http://www.wikidata.org/entity/Q126593634', 'http://www.wikidata.org/entity/Q12663413', 'http://www.wikidata.org/entity/Q126666887', 'http://www.wikidata.org/entity/Q126709387', 'http://www.wikidata.org/entity/Q126721902', 'http://www.wikidata.org/entity/Q126726117', 'http://www.wikidata.org/entity/Q126811008', 'http://www.wikidata.org/e</t>
+          <t>['http://www.wikidata.org/entity/Q57577']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata.org/entity/Q113499458', 'http://www.wikidata.org/entity/Q1135034', 'http://www.wikidata.org/entity/Q11354348', 'http://www.wikidata.org/entity/Q113549137', 'http://www.wikidata.org/entity/Q113576165', 'http://www.wikidata.org/entity/Q113581609', 'http://www.wikidata.org/entity/Q113627236', 'http://www.wikidata.org/entity/Q113631347', 'http://www.wikidata.org/entity/Q113631375', 'http://www.wikidata.org/entity/Q113631508', 'http://www.wikidata.org/entity/Q113631563', 'http://www.wikidata.org/entity/Q113631569', 'http://www.wikidata.org/entity/Q113674106', 'http://www.wikidata.org/entity/Q11371391', 'http://www.wikidata.org/entity/Q113714633', 'http://www.wikidata.org/entity/Q11387117', 'http://www.wikidata.org/entity/Q113903854', 'http://www.wikidata.org/entity/Q11391277', 'http://www.wikidata.org/entity/Q1139591', 'http://www.wikidata.org/entity/Q11409712', 'http://www.wikidata.org/entity/Q114315605', 'http://www.wikidata.org/entity/Q114658295', 'http://www.wikidata.org/entity/Q1147008', 'http://www.wikidata.org/entity/Q114779611', 'http://www.wikidata.org/entity/Q114780741', 'http://www.wikidata.org/entity/Q114781351', 'http://www.wikidata.org/entity/Q114840373', 'http://www.wikidata.org/entity/Q114863314', 'http://www.wikidata.org/entity/Q115152362', 'http://www.wikidata.org/entity/Q115209188', 'http://www.wikidata.org/entity/Q115214299', 'http://www.wikidata.org/entity/Q115259173', 'http://www.wikidata.org/entity/Q115294651', 'http://www.wikidata.org/entity/Q115327380', 'http://www.wikidata.org/entity/Q1153848', 'http://www.wikidata.org/entity/Q11545488', 'http://www.wikidata.org/entity/Q115516436', 'http://www.wikidata.org/entity/Q115526578', 'http://www.wikidata.org/entity/Q115624997', 'http://www.wikidata.org/entity/Q115628690', 'http://www.wikidata.org/entity/Q11567159', 'http://www.wikidata.org/entity/Q11590237', 'http://www.wikidata.org/entity/Q115937074', 'http://www.wikidata.org/entity/Q11606287', 'http://www.wikidata.org/entity/Q116113833', 'http://www.wikidata.org/entity/Q116349234', 'http://www.wikidata.org/entity/Q116767714', 'http://www.wikidata.org/entity/Q116790237', 'http://www.wikidata.org/entity/Q116846825', 'http://www.wikidata.org/entity/Q116858640', 'http://www.wikidata.org/entity/Q116938985', 'http://www.wikidata.org/entity/Q11695705', 'http://www.wikidata.org/entity/Q11695707', 'http://www.wikidata.org/entity/Q11695708', 'http://www.wikidata.org/entity/Q11695711', 'http://www.wikidata.org/entity/Q11695713', 'http://www.wikidata.org/entity/Q11695714', 'http://www.wikidata.org/entity/Q11695716', 'http://www.wikidata.org/entity/Q11695717', 'http://www.wikidata.org/entity/Q11695718', 'http://www.wikidata.org/entity/Q11695721', 'http://www.wikidata.org/entity/Q11695722', 'http://www.wikidata.org/entity/Q11695723', 'http://www.wikidata.org/entity/Q116973585', 'http://www.wikidata.org/entity/Q116980492', 'http://www.wikidata.org/entity/Q117035968', 'http://www.wikidata.org/entity/Q11703716', 'http://www.wikidata.org/entity/Q117040282', 'http://www.wikidata.org/entity/Q11706236', 'http://www.wikidata.org/entity/Q1170632', 'http://www.wikidata.org/entity/Q117361394', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117455751', 'http://www.wikidata.org/entity/Q117587270', 'http://www.wikidata.org/entity/Q117711867', 'http://www.wikidata.org/entity/Q11783773', 'http://www.wikidata.org/entity/Q11783808', 'http://www.wikidata.org/entity/Q117844480', 'http://www.wikidata.org/entity/Q11789695', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q11789707', 'http://www.wikidata.org/entity/Q11802972', 'http://www.wikidata.org/entity/Q118224784', 'http://www.wikidata.org/entity/Q118288532', 'http://www.wikidata.org/entity/Q118314773', 'http://www.wikidata.org/entity/Q118330188', 'http://www.wikidata.org/entity/Q118369207', 'http://www.wikidata.org/entity/Q118744251', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118947258', 'http://www.wikidata.org/entity/Q119105010', 'http://www.wikidata.org/entity/Q11919090', 'http://www.wikidata.org/entity/Q119241124', 'http://www.wikidata.org/entity/Q119243817', 'http://www.wikidata.org/entity/Q119285617', 'http://www.wikidata.org/entity/Q119348301', 'http://www.wikidata.org/entity/Q119397277', 'http://www.wikidata.org/entity/Q1194059', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q119806244', 'http://www.wikidata.org/entity/Q119853995', 'http://www.wikidata.org/entity/Q120068971', 'http://www.wikidata.org/entity/Q120146391', 'http://www.wikidata.org/entity/Q120403912', 'http://www.wikidata.org/entity/Q120486552', 'http://www.wikidata.org/entity/Q12060958', 'http://www.wikidata.org/entity/Q120823815', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q12090941', 'http://www.wikidata.org/entity/Q1209940', 'http://www.wikidata.org/entity/Q12100125', 'http://www.wikidata.org/entity/Q12100126', 'http://www.wikidata.org/entity/Q12100128', 'http://www.wikidata.org/entity/Q12100132', 'http://www.wikidata.org/entity/Q12100138', 'http://www.wikidata.org/entity/Q12100141', 'http://www.wikidata.org/entity/Q12100152', 'http://www.wikidata.org/entity/Q12100160', 'http://www.wikidata.org/entity/Q12131090', 'http://www.wikidata.org/entity/Q121322780', 'http://www.wikidata.org/entity/Q121393', 'http://www.wikidata.org/entity/Q12149731', 'http://www.wikidata.org/entity/Q12174361', 'http://www.wikidata.org/entity/Q121759535', 'http://www.wikidata.org/entity/Q121852183', 'http://www.wikidata.org/entity/Q121864546', 'http://www.wikidata.org/entity/Q121991381', 'http://www.wikidata.org/entity/Q122057715', 'http://www.wikidata.org/entity/Q122058042', 'http://www.wikidata.org/entity/Q122144115', 'http://www.wikidata.org/entity/Q122199376', 'http://www.wikidata.org/entity/Q122341064', 'http://www.wikidata.org/entity/Q122460010', 'http://www.wikidata.org/entity/Q122495885', 'http://www.wikidata.org/entity/Q1226845', 'http://www.wikidata.org/entity/Q122767100', 'http://www.wikidata.org/entity/Q12284238', 'http://www.wikidata.org/entity/Q12286265', 'http://www.wikidata.org/entity/Q12286390', 'http://www.wikidata.org/entity/Q12289674', 'http://www.wikidata.org/entity/Q12292151', 'http://www.wikidata.org/entity/Q12293119', 'http://www.wikidata.org/entity/Q12293243', 'http://www.wikidata.org/entity/Q12299913', 'http://www.wikidata.org/entity/Q123111964', 'http://www.wikidata.org/entity/Q1231872', 'http://www.wikidata.org/entity/Q123253535', 'http://www.wikidata.org/entity/Q123265528', 'http://www.wikidata.org/entity/Q123450314', 'http://www.wikidata.org/entity/Q123515600', 'http://www.wikidata.org/entity/Q12353618', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q123757853', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q12407917', 'http://www.wikidata.org/entity/Q12407923', 'http://www.wikidata.org/entity/Q1241858', 'http://www.wikidata.org/entity/Q12422844', 'http://www.wikidata.org/entity/Q124250314', 'http://www.wikidata.org/entity/Q124250951', 'http://www.wikidata.org/entity/Q124255532', 'http://www.wikidata.org/entity/Q124318023', 'http://www.wikidata.org/entity/Q124352953', 'http://www.wikidata.org/entity/Q124367000', 'http://www.wikidata.org/entity/Q12438967', 'http://www.wikidata.org/entity/Q124408550', 'http://www.wikidata.org/entity/Q12441237', 'http://www.wikidata.org/entity/Q124498473', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q124568688', 'http://www.wikidata.org/entity/Q124747000', 'http://www.wikidata.org/entity/Q124799998', 'http://www.wikidata.org/entity/Q124830290', 'http://www.wikidata.org/entity/Q124854084', 'http://www.wikidata.org/entity/Q12513670', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q1252585', 'http://www.wikidata.org/entity/Q1252596', 'http://www.wikidata.org/entity/Q125505711', 'http://www.wikidata.org/entity/Q1255099', 'http://www.wikidata.org/entity/Q125524227', 'http://www.wikidata.org/entity/Q125613295', 'http://www.wikidata.org/entity/Q125912847', 'http://www.wikidata.org/entity/Q125928736', 'http://www.wikidata.org/entity/Q12601109', 'http://www.wikidata.org/entity/Q12602481', 'http://www.wikidata.org/entity/Q126083299', 'http://www.wikidata.org/entity/Q126083373', 'http://www.wikidata.org/entity/Q126113071', 'http://www.wikidata.org/entity/Q12614307', 'http://www.wikidata.org/entity/Q12614875', 'http://www.wikidata.org/entity/Q126192995', 'http://www.wikidata.org/entity/Q126260200', 'http://www.wikidata.org/entity/Q12650252', 'http://www.wikidata.org/entity/Q12663498', 'http://www.wikidata.org/entity/Q126708915', 'http://www.wikidata.org/entity/Q126902823', 'http://www.wikidata.org/entity/Q126903060', 'http://www.wikidata.org/entity/Q126910647', 'http://www.wikidata.org/entity/Q126948133', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q1270782', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12719109', 'http://www.wikidata.org/entity/Q127393146', 'http://www.wikidata.org/entity/Q127502506', 'http://www.wikidata.org/entity/Q12750635', 'http://www.wikidata.org/entity/Q127597840', 'http://www.wikidata.org/entity/Q127798249', 'http://www.wikidata.org/entity/Q12787253', 'http://www.wikidata.org/entity/Q12787255', 'http://www.wikidata.org/entity/Q127922454', 'http://www.wikidata.org/entity/Q12803843', 'http://www.wikidata.org/entity/Q12836659', 'http://www.wikidata.org/entity/Q12859165', 'http://www.wikidata.org/entity/Q12864158', 'http://www.wikidata.org/entity/Q1290276', 'http://www.wikidata.org/entity/Q12927731', 'http://www.wikidata.org/entity/Q129726', 'http://www.wikidata.org/entity/Q12986877', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q12989464', 'http://www.wikidata.org/entity/Q13020973', 'http://www.wikidata.org/entity/Q130215597', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130237481', 'http://www.wikidata.org/entity/Q130237482', 'http://www.wikidata.org/entity/Q130237484', 'http://www.wikidata.org/entity/Q130237485', 'http://www.wikidata.org/entity/Q130237487', 'http://www.wikidata.org/entity/Q130237488', 'http://www.wikidata.org/entity/Q130237489', 'http://www.wikidata.org/entity/Q130237490', 'http://www.wikidata.org/entity/Q130237491', 'http://www.wikidata.org/entity/Q130237492', 'http://www.wikidata.org/entity/Q130237493', 'http://www.wikidata.org/entity/Q130237494', 'http://www.wikidata.org/entity/Q130237495', 'http://www.wikidata.org/entity/Q130237496', 'http://www.wikidata.org/entity/Q130237497', 'http://www.wikidata.org/entity/Q130237498', 'http://www.wikidata.org/entity/Q130237499', 'http://www.wikidata.org/entity/Q130237500', 'http://www.wikidata.org/entity/Q130237501', 'http://www.wikidata.org/entity/Q130237502', 'http://www.wikidata.org/entity/Q130237503', 'http://www.wikidata.org/entity/Q130237504', 'http://www.wikidata.org/entity/Q130237505', 'http://www.wikidata.org/entity/Q130237506', 'http://www.wikidata.org/entity/Q130237507', 'http://www.wikidata.org/entity/Q130237508', 'http://www.wikidata.org/entity/Q130237509', 'http://www.wikidata.org/entity/Q130237510', 'http://www.wikidata.org/entity/Q130237511', 'http://www.wikidata.org/entity/Q130237513', 'http://www.wikidata.org/entity/Q130237514', 'http://www.wikidata.org/entity/Q130237515', 'http://www.wikidata.org/entity/Q130237516', 'http://www.wikidata.org/entity/Q130237517', 'http://www.wikidata.org/entity/Q130237518', 'http://www.wikidata.org/entity/Q130237520', 'http://www.wikidata.org/entity/Q130237521', 'http://www.wikidata.org/entity/Q130237522', 'http://www.wikidata.org/entity/Q130237524', 'http://www.wikidata.org/entity/Q130237525', 'http://www.wikidata.org/entity/Q130237526', 'http://www.wikidata.org/entity/Q130237527', 'http://www.wikidata.org/entity/Q130237529', 'http://www.wikidata.org/entity/Q130237530', 'http://www.wikidata.org/entity/Q130237531', 'http://www.wikidata.org/entity/Q130237532', 'http://www.wikidata.org/entity/Q130237534', 'http://www.wikidata.org/entity/Q130237535', 'http://www.wikidata.org/entity/Q130237536', 'http://www.wikidata.org/entity/Q130237537', 'http://www.wikidata.org/entity/Q130237538', 'http://www.wikidata.org/entity/Q130237539', 'http://www.wikidata.org/entity/Q130237540', 'http://www.wikidata.org/entity/Q130237541', 'http://www.wikidata.org/entity/Q130237542', 'http://www.wikidata.org/entity/Q130237543', 'http://www.wikidata.org/entity/Q130237544', 'http://www.wikidata.org/entity/Q130237545', 'http://www.wikidata.org/entity/Q130237546', 'http://www.wikidata.org/entity/Q130237547', 'http://www.wikidata.org/entity/Q130237548', 'http://www.wikidata.org/entity/Q130237549', 'http://www.wikidata.org/entity/Q130237550', 'http://www.wikidata.org/entity/Q130237552', 'http://www.wikidata.org/entity/Q130237553', 'http://www.wikidata.org/entity/Q130237554', 'http://www.wikidata.org/entity/Q130237555', 'http://www.wikidata.org/entity/Q130237556', 'http://www.wikidata.org/entity/Q130237557', 'http://www.wikidata.org/entity/Q130237558', 'http://www.wikidata.org/entity/Q130237559', 'http://www.wikidata.org/entity/Q130237560', 'http://www.wikidata.org/entity/Q130237561', 'http://www.wikidata.org/entity/Q130237562', 'http://www.wikidata.org/entity/Q130237563', 'http://www.wikidata.org/entity/Q130237564', 'http://www.wikidata.org/entity/Q130237565', 'http://www.wikidata.org/entity/Q130237566', 'http://www.wikidata.org/entity/Q130237567', 'http://www.wikidata.org/entity/Q130237570', 'http://www.wikidata.org/entity/Q130237571', 'http://www.wikidata.org/entity/Q130237572', 'http://www.wikidata.org/entity/Q130237573', 'http://www.wikidata.org/entity/Q130237574', 'http://www.wikidata.org/entity/Q130237575', 'http://www.wikidata.org/entity/Q130237576', 'http://www.wikidata.org/entity/Q130237577', 'http://www.wikidata.org/entity/Q130237578', 'http://www.wikidata.org/entity/Q130237579', 'http://www.wikidata.org/entity/Q130237581', 'http://www.wikidata.org/entity/Q130237582', 'http://www.wikidata.org/entity/Q130237584', 'http://www.wikidata.org/entity/Q130237585', 'http://www.wikidata.org/entity/Q130237587', 'http://www.wikidata.org/entity/Q130237588', 'http://www.wikidata.org/entity/Q130237589', 'http://www.wikidata.org/entity/Q130237591', 'http://www.wikidata.org/entity/Q130237592', 'http://www.wikidata.org/entity/Q130237593', 'http://www.wikidata.org/entity/Q130237594', 'http://www.wikidata.org/entity/Q130237597', 'http://www.wikidata.org/entity/Q130237598', 'http://www.wikidata.org/entity/Q130237599', 'http://www.wikidata.org/entity/Q130237601', 'http://www.wikidata.org/entity/Q130237602', 'http://www.wikidata.org/entity/Q130237603', 'http://www.wikidata.org/entity/Q130237604', 'http://www.wikidata.org/entity/Q130237605', 'http://www.wikidata.org/entity/Q130237607', 'http://www.wikidata.org/entity/Q130237608', 'http://www.wikidata.org/entity/Q130237609', 'http://www.wikidata.org/entity/Q130237611', 'http://www.wikidata.org/entity/Q130237612', 'http://www.wikidata.org/entity/Q130237613', 'http://www.wikidata.org/entity/Q130237615', 'http://www.wikidata.org/entity/Q130237616', 'http://www.wikidata.org/entity/Q130237617', 'http://www.wikidata.org/entity/Q130237618', 'http://www.wikidata.org/entity/Q130237619', 'http://www.wikidata.org/entity/Q130237620', 'http://www.wikidata.org/entity/Q130237621', 'http://www.wikidata.org/entity/Q130237623', 'http://www.wikidata.org/entity/Q130237624', 'http://www.wikidata.org/entity/Q130237625', 'http://www.wikidata.org/entity/Q130237626', 'http://www.wikidata.org/entity/Q130237627', 'http://www.wikidata.org/entity/Q130237628', 'http://www.wikidata.org/entity/Q130237629', 'http://www.wikidata.org/entity/Q130237630', 'http://www.wikidata.org</t>
+          <t>['http://www.wikidata.org/entity/Q57577']</t>
         </is>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Which actors were born in Germany?</t>
+          <t>Give me all movies directed by Francis Ford Coppola.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1000089', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q1000309', 'http://www.wikidata.org/entity/Q1000631', 'http://www.wikidata.org/entity/Q1001088', 'http://www.wikidata.org/entity/Q1001175', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q1001257', 'http://www.wikidata.org/entity/Q1001304', 'http://www.wikidata.org/entity/Q100149495', 'http://www.wikidata.org/entity/Q100151770', 'http://www.wikidata.org/entity/Q100152085', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100220', 'http://www.wikidata.org/entity/Q100224', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100248945', 'http://www.wikidata.org/entity/Q100251', 'http://www.wikidata.org/entity/Q100264', 'http://www.wikidata.org/entity/Q100269', 'http://www.wikidata.org/entity/Q100277164', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100299', 'http://www.wikidata.org/entity/Q100318', 'http://www.wikidata.org/entity/Q100322', 'http://www.wikidata.org/entity/Q100333', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100338', 'http://www.wikidata.org/entity/Q100347140', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q100361853', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100414', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100417', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100451', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q1004736', 'http://www.wikidata.org/entity/Q100491593', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100545', 'http://www.wikidata.org/entity/Q100562', 'http://www.wikidata.org/entity/Q100571', 'http://www.wikidata.org/entity/Q100572', 'http://www.wikidata.org/entity/Q100602', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100673', 'http://www.wikidata.org/entity/Q100675530', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100781', 'http://www.wikidata.org/entity/Q100784561', 'http://www.wikidata.org/entity/Q100841', 'http://www.wikidata.org/entity/Q100844', 'http://www.wikidata.org/entity/Q100893', 'http://www.wikidata.org/entity/Q100903', 'http://www.wikidata.org/entity/Q100954855', 'http://www.wikidata.org/entity/Q100981152', 'http://www.wikidata.org/entity/Q100989', 'http://www.wikidata.org/entity/Q100989640', 'http://www.wikidata.org/entity/Q101019', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101079', 'http://www.wikidata.org/entity/Q101094', 'http://www.wikidata.org/entity/Q101104', 'http://www.wikidata.org/entity/Q101112792', 'http://www.wikidata.org/entity/Q101120', 'http://www.wikidata.org/entity/Q101149', 'http://www.wikidata.org/entity/Q101171', 'http://www.wikidata.org/entity/Q101177', 'http://www.wikidata.org/entity/Q101189', 'http://www.wikidata.org/entity/Q101200085', 'http://www.wikidata.org/entity/Q101203', 'http://www.wikidata.org/entity/Q101209739', 'http://www.wikidata.org/entity/Q101210090', 'http://www.wikidata.org/entity/Q101218', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101228', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q101238', 'http://www.wikidata.org/entity/Q101243', 'http://www.wikidata.org/entity/Q101243079', 'http://www.wikidata.org/entity/Q101252599', 'http://www.wikidata.org/entity/Q101267', 'http://www.wikidata.org/entity/Q101347', 'http://www.wikidata.org/entity/Q101380', 'http://www.wikidata.org/entity/Q101381', 'http://www.wikidata.org/entity/Q101392', 'http://www.wikidata.org/entity/Q101434', 'http://www.wikidata.org/entity/Q10147562', 'http://www.wikidata.org/entity/Q101476', 'http://www.wikidata.org/entity/Q101507816', 'http://www.wikidata.org/entity/Q101524', 'http://www.wikidata.org/entity/Q101554634', 'http://www.wikidata.org/entity/Q101598', 'http://www.wikidata.org/entity/Q101615', 'http://www.wikidata.org/entity/Q101618', 'http://www.wikidata.org/entity/Q1016445', 'http://www.wikidata.org/entity/Q1016492', 'http://www.wikidata.org/entity/Q101705', 'http://www.wikidata.org/entity/Q101719', 'http://www.wikidata.org/entity/Q101720', 'http://www.wikidata.org/entity/Q101734', 'http://www.wikidata.org/entity/Q101768', 'http://www.wikidata.org/entity/Q101775', 'http://www.wikidata.org/entity/Q101782', 'http://www.wikidata.org/entity/Q101840', 'http://www.wikidata.org/entity/Q101855', 'http://www.wikidata.org/entity/Q101888', 'http://www.wikidata.org/entity/Q101897', 'http://www.wikidata.org/entity/Q1019017', 'http://www.wikidata.org/entity/Q1019427', 'http://www.wikidata.org/entity/Q101969', 'http://www.wikidata.org/entity/Q101973', 'http://www.wikidata.org/entity/Q102047618', 'http://www.wikidata.org/entity/Q102050', 'http://www.wikidata.org/entity/Q1020684', 'http://www.wikidata.org/entity/Q1020694', 'http://www.wikidata.org/entity/Q102109528', 'http://www.wikidata.org/entity/Q102115662', 'http://www.wikidata.org/entity/Q102127', 'http://www.wikidata.org/entity/Q102140621', 'http://www.wikidata.org/entity/Q102260', 'http://www.wikidata.org/entity/Q102280', 'http://www.wikidata.org/entity/Q102287149', 'http://www.wikidata.org/entity/Q102288', 'http://www.wikidata.org/entity/Q102294', 'http://www.wikidata.org/entity/Q102302', 'http://www.wikidata.org/entity/Q102332', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102352', 'http://www.wikidata.org/entity/Q102354', 'http://www.wikidata.org/entity/Q102356959', 'http://www.wikidata.org/entity/Q102363', 'http://www.wikidata.org/entity/Q102374', 'http://www.wikidata.org/entity/Q102450', 'http://www.wikidata.org/entity/Q102504', 'http://www.wikidata.org/entity/Q102530', 'http://www.wikidata.org/entity/Q102572', 'http://www.wikidata.org/entity/Q102574', 'http://www.wikidata.org/entity/Q102606', 'http://www.wikidata.org/entity/Q102611', 'http://www.wikidata.org/entity/Q102627', 'http://www.wikidata.org/entity/Q102630', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q1026499', 'http://www.wikidata.org/entity/Q102650', 'http://www.wikidata.org/entity/Q102651', 'http://www.wikidata.org/entity/Q102672', 'http://www.wikidata.org/entity/Q102678', 'http://www.wikidata.org/entity/Q102693', 'http://www.wikidata.org/entity/Q102712', 'http://www.wikidata.org/entity/Q102743', 'http://www.wikidata.org/entity/Q102783', 'http://www.wikidata.org/entity/Q102796', 'http://www.wikidata.org/entity/Q102802', 'http://www.wikidata.org/entity/Q1028813', 'http://www.wikidata.org/entity/Q1028955', 'http://www.wikidata.org/entity/Q102923', 'http://www.wikidata.org/entity/Q102929', 'http://www.wikidata.org/entity/Q102936', 'http://www.wikidata.org/entity/Q102937', 'http://www.wikidata.org/entity/Q102947', 'http://www.wikidata.org/entity/Q102961', 'http://www.wikidata.org/entity/Q102976', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q1029964', 'http://www.wikidata.org/entity/Q102998', 'http://www.wikidata.org/entity/Q103000', 'http://www.wikidata.org/entity/Q103002', 'http://www.wikidata.org/entity/Q1030539', 'http://www.wikidata.org/entity/Q103158', 'http://www.wikidata.org/entity/Q1031845', 'http://www.wikidata.org/entity/Q103197', 'http://www.wikidata.org/entity/Q103223179', 'http://www.wikidata.org/entity/Q103256', 'http://www.wikidata.org/entity/Q103271', 'http://www.wikidata.org/entity/Q103361', 'http://www.wikidata.org/entity/Q103362', 'http://www.wikidata.org/entity/Q103391', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103415', 'http://www.wikidata.org/entity/Q103416', 'http://www.wikidata.org/entity/Q103430', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q103476', 'http://www.wikidata.org/entity/Q103544', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q1036168', 'http://www.wikidata.org/entity/Q103623', 'http://www.wikidata.org/entity/Q103637', 'http://www.wikidata.org/entity/Q103643', 'http://www.wikidata.org/entity/Q103656', 'http://www.wikidata.org/entity/Q103696', 'http://www.wikidata.org/entity/Q103702', 'http://www.wikidata.org/entity/Q103718', 'http://www.wikidata.org/entity/Q103727', 'http://www.wikidata.org/entity/Q103746', 'http://www.wikidata.org/entity/Q103755600', 'http://www.wikidata.org/entity/Q103760', 'http://www.wikidata.org/entity/Q103775022', 'http://www.wikidata.org/entity/Q103805', 'http://www.wikidata.org/entity/Q103827144', 'http://www.wikidata.org/entity/Q103844323', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103851', 'http://www.wikidata.org/entity/Q103863', 'http://www.wikidata.org/entity/Q103868', 'http://www.wikidata.org/entity/Q1038953', 'http://www.wikidata.org/entity/Q103920', 'http://www.wikidata.org/entity/Q1039299', 'http://www.wikidata.org/entity/Q103948', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q103980542', 'http://www.wikidata.org/entity/Q103986', 'http://www.wikidata.org/entity/Q1039868', 'http://www.wikidata.org/entity/Q104006', 'http://www.wikidata.org/entity/Q104006972', 'http://www.wikidata.org/entity/Q104008', 'http://www.wikidata.org/entity/Q1040432', 'http://www.wikidata.org/entity/Q104084', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104120371', 'http://www.wikidata.org/entity/Q104121', 'http://www.wikidata.org/entity/Q104141', 'http://www.wikidata.org/entity/Q1041500', 'http://www.wikidata.org/entity/Q1041514', 'http://www.wikidata.org/entity/Q104153430', 'http://www.wikidata.org/entity/Q1041535', 'http://www.wikidata.org/entity/Q104154734', 'http://www.wikidata.org/entity/Q104155641', 'http://www.wikidata.org/entity/Q104155750', 'http://www.wikidata.org/entity/Q1041559', 'http://www.wikidata.org/entity/Q104156172', 'http://www.wikidata.org/entity/Q104156463', 'http://www.wikidata.org/entity/Q104157044', 'http://www.wikidata.org/entity/Q1041582', 'http://www.wikidata.org/entity/Q104160134', 'http://www.wikidata.org/entity/Q104161808', 'http://www.wikidata.org/entity/Q104162235', 'http://www.wikidata.org/entity/Q104172860', 'http://www.wikidata.org/entity/Q104176819', 'http://www.wikidata.org/entity/Q104178588', 'http://www.wikidata.org/entity/Q104180930', 'http://www.wikidata.org/entity/Q1041870', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104198093', 'http://www.wikidata.org/entity/Q104198269', 'http://www.wikidata.org/entity/Q104208', 'http://www.wikidata.org/entity/Q104211573', 'http://www.wikidata.org/entity/Q104212560', 'http://www.wikidata.org/entity/Q104213', 'http://www.wikidata.org/entity/Q104218050', 'http://www.wikidata.org/entity/Q1043589', 'http://www.wikidata.org/entity/Q1043681', 'http://www.wikidata.org/entity/Q1043709', 'http://www.wikidata.org/entity/Q104371', 'http://www.wikidata.org/entity/Q104383260', 'http://www.wikidata.org/entity/Q104383283', 'http://www.wikidata.org/entity/Q104385', 'http://www.wikidata.org/entity/Q104418200', 'http://www.wikidata.org/entity/Q104427', 'http://www.wikidata.org/entity/Q1044342', 'http://www.wikidata.org/entity/Q1044346', 'http://www.wikidata.org/entity/Q1044348', 'http://www.wikidata.org/entity/Q104437885', 'http://www.wikidata.org/entity/Q104439569', 'http://www.wikidata.org/entity/Q1044477', 'http://www.wikidata.org/entity/Q1044494', 'http://www.wikidata.org/entity/Q1044514', 'http://www.wikidata.org/entity/Q1044559', 'http://www.wikidata.org/entity/Q104468053', 'http://www.wikidata.org/entity/Q104476', 'http://www.wikidata.org/entity/Q104520659', 'http://www.wikidata.org/entity/Q104521370', 'http://www.wikidata.org/entity/Q104522001', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104544', 'http://www.wikidata.org/entity/Q1045477', 'http://www.wikidata.org/entity/Q104568', 'http://www.wikidata.org/entity/Q1045680', 'http://www.wikidata.org/entity/Q1045683', 'http://www.wikidata.org/entity/Q1045722', 'http://www.wikidata.org/entity/Q104576', 'http://www.wikidata.org/entity/Q104578', 'http://www.wikidata.org/entity/Q104579681', 'http://www.wikidata.org/entity/Q104587770', 'http://www.wikidata.org/entity/Q104590907', 'http://www.wikidata.org/entity/Q104599978', 'http://www.wikidata.org/entity/Q104601', 'http://www.wikidata.org/entity/Q104604', 'http://www.wikidata.org/entity/Q104604553', 'http://www.wikidata.org/entity/Q104613862', 'http://www.wikidata.org/entity/Q104615564', 'http://www.wikidata.org/entity/Q104626181', 'http://www.wikidata.org/entity/Q104631795', 'http://www.wikidata.org/entity/Q104659505', 'http://www.wikidata.org/entity/Q104663127', 'http://www.wikidata.org/entity/Q104665', 'http://www.wikidata.org/entity/Q104665277', 'http://www.wikidata.org/entity/Q104667', 'http://www.wikidata.org/entity/Q104670', 'http://www.wikidata.org/entity/Q104696788', 'http://www.wikidata.org/entity/Q104700634', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q104730', 'http://www.wikidata.org/entity/Q104737', 'http://www.wikidata.org/entity/Q104741', 'http://www.wikidata.org/entity/Q104760625', 'http://www.wikidata.org/entity/Q104762922', 'http://www.wikidata.org/entity/Q104764834', 'http://www.wikidata.org/entity/Q104764873', 'http://www.wikidata.org/entity/Q104764874', 'http://www.wikidata.org/entity/Q104764949', 'http://www.wikidata.org/entity/Q104764974', 'http://www.wikidata.org/entity/Q104765018', 'http://www.wikidata.org/entity/Q104766', 'http://www.wikidata.org/entity/Q104782393', 'http://www.wikidata.org/entity/Q104787', 'http://www.wikidata.org/entity/Q104815', 'http://www.wikidata.org/entity/Q104832', 'http://www.wikidata.org/entity/Q104845706', 'http://www.wikidata.org/entity/Q104866', 'http://www.wikidata.org/entity/Q104869469', 'http://www.wikidata.org/entity/Q104876', 'http://www.wikidata.org/entity/Q104878044', 'http://www.wikidata.org/entity/Q104879', 'http://www.wikidata.org/entity/Q104884382', 'http://www.wikidata.org/entity/Q104902', 'http://www.wikidata.org/entity/Q104923', 'http://www.wikidata.org/entity/Q104925', 'http://www.wikidata.org/entity/Q104925281', 'http://www.wikidata.org/entity/Q104929865', 'http://www.wikidata.org/entity/Q104977', 'http://www.wikidata.org/entity/Q105047008', 'http://www.wikidata.org/entity/Q105047482', 'http://www.wikidata.org/entity/Q105052', 'http://www.wikidata.org/entity/Q105058', 'http://www.wikidata.org/entity/Q105064646', 'http://www.wikidata.org/entity/Q105065', 'http://www.wikidata.org/entity/Q105070220', 'http://www.wikidata.org/entity/Q105082', 'http://www.wikidata.org/entity/Q105102', 'http://www.wikidata.org/entity/Q105104', 'http://www.wikidata.org/entity/Q1051091', 'http://www.wikidata.org/entity/Q1051126', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q105116505', 'http://www.wikidata.org/entity/Q105118747', 'http://www.wikidata.org/entity/Q105129', 'http://www.wikidata.org/entity/Q105133286', 'http://www.wikidata.org/entity/Q105134406', 'http://www.wikidata.org/entity/Q105136295', 'http://www.wikidata.org/entity/Q105138', 'http://www.wikidata.org/entity/Q105147', 'http://www.wikidata.org/entity/Q105149', 'http://www.wikidata.org/entity/Q105166', 'http://www.wikidata.org/entity/Q105193', 'http://www.wikidata.org/entity/Q1051939', 'http://www.wikidata.org/entity/Q105199568', 'http://www.wikidata.org/entity/Q1052372', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q105297', 'http://www.wikidata.org/entity/Q105309404', 'http://www.wikidata.org/entity/Q105336746', 'http://www.wikidata.org/entity/Q105338506', 'http://www.wikidata.org/entity/Q105373', 'http://www.wikidata.org/entity/Q105391976', 'http://www.wikidata.org/entity/Q105451432', 'http://www.wikidata.org/entity/Q105478', 'http://www.wikidata.org/entity/Q105491', 'http://www.wikidata.org/entity/Q105494121', 'http://www.wikidata.org/entity/Q105549643', 'http://www.wikidata.org/entity/Q105549794', 'http://www.wikidata.org/entity/Q105559', 'http://www.wikidata.org/entity/Q105585136', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q105610', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105613248', 'http://www.wikidata.org/entity/Q105627147', 'http://www.wikidata.org/entity/Q105631', 'http://www.wikidata.org/entity/Q10563757', 'http://www.wikidata.org/entity/Q105642', 'http://www.wikidata.org/entity/Q105665', 'http://www.wikidata.org/entity/Q105671328', 'http://www.wikidata.org/entity/Q105675820', 'http://www.wikidata.org/entity/Q105679', 'http://www.wikidata.org/entity/Q105681', 'http://www.wikidata.org/entity/Q105691', 'http://www.wikidata.org/entity/Q105716', 'http://www.wikidata.org/entity/Q105716679', 'http://www.wikidata.org/entity/Q105724333', 'http://www.wikidata.org/entity/Q105737724', 'http://www.wikidata.org/entity/Q105754846', 'http://www.wikidata.org/entity/Q105755335', 'http://www.wikidata.org/entity/Q105767098', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105770599', 'http://www.wikidata.org/entity/Q105785', 'http://www.wikidata.org/entity/Q105832784', 'http://www.wikidata.org/entity/Q105848334', 'http://www.wikidata.org/entity/Q105901', 'http://www.wikidata.org/entity/Q105914', 'http://www.wikidata.org/entity/Q105915', 'http://www.wikidata.org/entity/Q105918', 'http://www.wikidata.org/entity/Q105925', 'http://www.wikidata.org/entity/Q105944757', 'http://www.wikidata.org/entity/Q105992322', 'http://www.wikidata.org/entity/Q105992955', 'http://www.wikidata.org/entity/Q106000338', 'http://www.wikidata.org/entity/Q106006759', 'http://www.wikidata.org/entity/Q106035', 'http://www.wikidata.org/entity/Q106041', 'http://www.wikidata.org/entity/Q106061', 'http://www.wikidata.org/entity/Q106098372', 'http://www.wikidata.org/entity/Q106126', 'http://www.wikidata.org/entity/Q106127', 'http://www.wikidata.org/entity/Q106135271', 'http://www.wikidata.org/entity/Q106159611', 'http://www.wikidata.org/entity/Q106177', 'http://www.wikidata.org/entity/Q106188490', 'http://www.wikidata.org/entity/Q106223560', 'http://www.wikidata.org/entity/Q106254', 'http://www.wikidata.org/entity/Q106260', 'http://www.wikidata.org/entity/Q106298187', 'http://www.wikidata.org/entity/Q106311564', 'http://www.wikidata.org/entity/Q106311574', 'http://www.wikidata.org/entity/Q106322507', 'http://www.wikidata.org/entity/Q106323314', 'http://www.wikidata.org/entity/Q106358178', 'http://www.wikidata.org/entity/Q106368', 'http://www.wikidata.org/entity/Q106373', 'http://www.wikidata.org/entity/Q106390', 'http://www.wikidata.org/entity/Q106393', 'http://www.wikidata.org/entity/Q106395745', 'http://www.wikidata.org/entity/Q106412', 'http://www.wikidata.org/entity/Q106423', 'http://www.wikidata.org/entity/Q106438', 'http://www.wikidata.org/entity/Q106455', 'http://www.wikidata.org/entity/Q106460', 'http://www.wikidata.org/entity/Q106461', 'http://www.wikidata.org/entity/Q106479', 'http://www.wikidata.org/entity/Q106493', 'http://www.wikidata.org/entity/Q106496', 'http://www.wikidata.org/entity/Q106512329', 'http://www.wikidata.org/entity/Q106518946', 'http://www.wikidata.org/entity/Q106519848', 'http://www.wikidata.org/entity/Q1065321', 'http://www.wikidata.org/entity/Q106548568', 'http://www.wikidata.org/entity/Q106553', 'http://www.wikidata.org/entity/Q106564535', 'http://www.wikidata.org/entity/Q106572', 'http://www.wikidata.org/entity/Q106578', 'http://www.wikidata.org/entity/Q106594046', 'http://www.wikidata.org/entity/Q106595246', 'http://www.wikidata.org/entity/Q106631203', 'http://www.wikidata.org/entity/Q106637474', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106664319', 'http://www.wikidata.org/entity/Q106675767', 'http://www.wikidata.org/entity/Q106689558', 'http://www.wikidata.org/entity/Q1067102', 'http://www.wikidata.org/entity/Q1067206', 'http://www.wikidata.org/entity/Q1067219', 'http://www.wikidata.org/entity/Q1067238', 'http://www.wikidata.org/entity/Q1067243', 'http://www.wikidata.org/entity/Q1067327', 'http://www.wikidata.org/entity/Q1067337', 'http://www.wikidata.org/entity/Q106744', 'http://www.wikidata.org/entity/Q1067500', 'http://www.wikidata.org/entity/Q1067523', 'http://www.wikidata.org/entity/Q106754', 'http://www.wikidata.org/entity/Q106768194', 'http://www.wikidata.org/entity/Q106799', 'http://www.wikidata.org/entity/Q106819841', 'http://www.wikidata.org/entity/Q106831105', 'http://www.wikidata.org/entity/Q106841995', 'http://www.wikidata.org/entity/Q106869', 'http://www.wikidata.org/entity/Q106878335', 'http://www.wikidata.org/entity/Q106890375', 'http://www.wikidata.org/entity/Q106936826', 'http://www.wikidata.org/entity/Q106939', 'http://www.wikidata.org/entity/Q107036249', 'http://www.wikidata.org/entity/Q107045040', 'http://www.wikidata.org/entity/Q107112297', 'http://www.wikidata.org/entity/Q1071648', 'http://www.wikidata.org/entity/Q107190753', 'http://www.wikidata.org/entity/Q107204799', 'http://www.wikidata.org/entity/Q107219', 'http://www.wikidata.org/entity/Q107274', 'http://www.wikidata.org/entity/Q107286074', 'http://www.wikidata.org/entity/Q107291', 'http://www.wikidata.org/entity/Q1073163', 'http://www.wikidata.org/entity/Q107345', 'http://www.wikidata.org/entity/Q107349965', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107362784', 'http://www.wikidata.org/entity/Q107364', 'http://www.wikidata.org/entity/Q107375', 'http://www.wikidata.org/entity/Q107379896', 'http://www.wikidata.org/entity/Q107410916', 'http://www.wikidata.org/entity/Q107438', 'http://www.wikidata.org/entity/Q107474234', 'http://www.wikidata.org/entity/Q107483', 'http://www.wikidata.org/entity/Q107500877', 'http://www.wikidata.org/entity/Q107514', 'http://www.wikidata.org/entity/Q107538718', 'http://www.wikidata.org/entity/Q107583', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107605', 'http://www.wikidata.org/entity/Q107609122', 'http://www.wikidata.org/entity/Q107628', 'http://www.wikidata.org/entity/Q107630', 'http://www.wikidata.org/entity/Q107646', 'http://www.wikidata.org/entity/Q107651', 'http://www.wikidata.org/entity/Q107679210', 'http://www.wikidata.org/entity/Q107683', 'http://www.wikidata.org/entity/Q107711622', 'http://www.wikidata.org/entity/Q107740134', 'http://www.wikidata.org/entity/Q107743', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q107782', 'http://www.wikidata.org/entity/Q107788', 'http://www.wikidata.org/entity/Q107790473', 'http://www.wikidata.org/entity/Q1078028', 'http://www.wikidata.org/entity/Q107805', 'http://www.wikidata.org/entity/Q1078106', 'http://www.wikidata.org/entity/Q1078277', 'http://www.wikidata.org/entity/Q107849', 'http://www.wikidata.org/entity/Q107869', 'http://www.wikidata.org/entity/Q1078911', 'http://www.wikidata.org/entity/Q107924', 'http://www.wikidata.org/entity/Q1079558', 'http://www.wikidata.org/entity/Q107973784', 'http://www.wikidata.org/entity/Q107983', 'http://www.wikidata.org/entity/Q107987303', 'http://www.wikidata.org/entity/Q1080253', 'http://www.wikidata.org/entity/Q108029097', 'http://www.wikidata.org/entity/Q1080329', 'http://www.wikidata.org/entity/Q108035', 'http://www.wikidata.org/entity/Q1080540', 'http://www.wikidata.org/entity/Q108057', 'http://www.wikidata.org/entity/Q1080623', 'http://www.wikidata.org/entity/Q1080649', 'http://www.wikidata.org/entity/Q108070', 'http://www.wikidata.org/entity/Q1080716', 'http://www.wikidata.org/entity/Q1080732', 'http://www.wikidata.org/entity/Q1080816', 'http://www.wikidata.org/entity/Q1080819', 'http://www.wikidata.org/entity/Q108097', 'http://www.wikidata.org/entity/Q108104', 'http://www.wikidata.org/entity/Q1081113', 'http://www.wikidata.org/entity/Q108114', 'http://www.wikidata.org/entity/Q108127805', 'http://www.wikidata.org/entity/Q1081287', 'http://www.wikidata.org/entity/Q1081437', 'http://www.wikidata.org/entity/Q108153', 'http://www.wikidata.org/entity/Q1081561', 'http://www.wikidata.org/entity/Q1081599', 'http://www.wikidata.org/entity/Q1081610', 'http://www.wikidata.org/entity/Q108164', 'http://www.wikidata.org/entity/Q1081758', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q108192', 'http://www.wikidata.org/entity/Q108196632', 'http://www.wikidata.org/entity/Q108201130', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q1082198', 'http://www.wikidata.org/entity/Q1082288', 'http://www.wikidata.org/entity/Q108230', 'http://www.wikidata.org/entity/Q108233', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108255', 'http://www.wikidata.org/entity/Q1082640', 'http://www.wikidata.org/entity/Q1082673', 'http://www.wikidata.org/entity/Q1082749', 'http://www.wikidata.org/entity/Q1082754', 'http://www.wikidata.org/entity/Q1082761', 'http://www.wikidata.org/entity/Q1082798', 'http://www.wikidata.org/entity/Q108285546', 'http://www.wikidata.org/entity/Q108287276', 'http://www.wikidata.org/entity/Q1082880', 'http://www.wikidata.org/entity/Q108294049', 'http://www.wikidata.org/entity/Q108294329', 'http://www.wikidata.org/entity/Q108294870', 'http://www.wikidata.org/entity/Q108296218', 'http://www.wikidata.org/entity/Q108296809', 'http://www.wikidata.org/entity/Q108302', 'http://www.wikidata.org/entity/Q108306', 'http://www.wikidata.org/entity/Q1083077', 'http://www.wikidata.org/entity/Q1083086', 'http://www.wikidata.org/entity/Q1083099', 'http://www.wikidata.org/entity/Q108311', 'http://www.wikidata.org/entity/Q1083125', 'http://www.wikidata.org/entity/Q1083162', 'http://www.wikidata.org/entity/Q1083168', 'http://www.wikidata.org/entity/Q108319856', 'http://www.wikidata.org/entity/Q1083435', 'http://www.wikidata.org/entity/Q1083539', 'http://www.wikidata.org/entity/Q1083559', 'http://www.wikidata.org/entity/Q1083566', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q1083583', 'http://www.wikidata.org/entity/Q1083622', 'http://www.wikidata.org/entity/Q1083624', 'http://www.wikidata.org/entity/Q1083644', 'http://www.wikidata.org/entity/Q108365', 'http://www.wikidata.org/entity/Q1083730', 'http://www.wikidata.org/entity/Q108378294', 'http://www.wikidata.org/entity/Q1083806', 'http://www.wikidata.org/entity/Q1083827', 'http://www.wikidata.org/entity/Q108393', 'http://www.wikidata.org/entity/Q108434', 'http://www.wikidata.org/entity/Q108436220', 'http://www.wikidata.org/entity/Q1084549', 'http://www.wikidata.org/entity/Q1084557', 'http://www.wikidata.org/entity/Q1084596', 'http://www.wikidata.org/entity/Q108469', 'http://www.wikidata.org/entity/Q1084818', 'http://www.wikidata.org/entity/Q1084956', 'http://www.wikidata.org/entity/Q1084985', 'http://www.wikidata.org/entity/Q1085038', 'http://www.wikidata.org/entity/Q108504516', 'http://www.wikidata.org/entity/Q1085172', 'http://www.wikidata.org/entity/Q1085185', 'http://www.wikidata.org/entity/Q1085225', 'http://www.wikidata.org/entity/Q1085257', 'http://www.wikidata.org/entity/Q108526446', 'http://www.wikidata.org/entity/Q1085341', 'http://www.wikidata.org/entity/Q1085356', 'http://www.wikidata.org/entity/Q1085410', 'http://www.wikidata.org/entity/Q108554', 'http://www.wikidata.org/entity/Q108595256', 'http://www.wikidata.org/entity/Q1086005', 'http://www.wikidata.org/entity/Q108617', 'http://www.wikidata.org/entity/Q108617374', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q1086472', 'http://www.wikidata.org/entity/Q108660', 'http://www.wikidata.org/entity/Q108662429', 'http://www.wikidata.org/entity/Q108665648', 'http://www.wikidata.org/entity/Q1086799', 'http://www.wikidata.org/entity/Q108693451', 'http://www.wikidata.org/entity/Q108733443', 'http://www.wikidata.org/entity/Q108760927', 'http://www.wikidata.org/entity/Q108763', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108792', 'http://www.wikidata.org/entity/Q108803590', 'http://www.wikidata.org/entity/Q108805554', 'http://www.wikidata.org/entity/Q108811390', 'http://www.wikidata.org/entity/Q108828331', 'http://www.wikidata.org/entity/Q108839248', 'http://www.wikidata.org/entity/Q108845', 'http://www.wikidata.org/entity/Q108853', 'http://www.wikidata.org/entity/Q108861150', 'http://www.wikidata.org/entity/Q108861193', 'http://www.wikidata.org/entity/Q108862137', 'http://www.wikidata.org/entity/Q108867', 'http://www.wikidata.org/entity/Q108872482', 'http://www.wikidata.org/entity/Q108873', 'http://www.wikidata.org/entity/Q108873296', 'http://www.wikidata.org/entity/Q108884586', 'http://www.wikidata.org/entity/Q108914380', 'http://www.wikidata.org/entity/Q108920', 'http://www.wikidata.org/entity/Q108928', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108942', 'http://www.wikidata.org/entity/Q108964', 'http://www.wikidata.org/entity/Q108965', 'http://www.wikidata.org/entity/Q108972', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q108984', 'http://www.wikidata.org/entity/Q108987', 'http://www.wikidata.org/entity/Q108989', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109050', 'http://www.wikidata.org/entity/Q109104', 'http://www.wikidata.org/entity/Q109123', 'http://www.wikidata.org/entity/Q109124517', 'http://www.wikidata.org/entity/Q109127', 'http://www.wikidata.org/entity/Q109131', 'http://www.wikidata.org/entity/Q109141', 'http://www.wikidata.org/entity/Q109148', 'http://www.wikidata.org/entity/Q1091893', 'http://www.wikidata.org/entity/Q1091975', 'http://www.wikidata.org/entity/Q109200280', 'http://www.wikidata.org/entity/Q109211', 'http://www.wikidata.org/entity/Q109225', 'http://www.wikidata.org/entity/Q1092317', 'http://www.wikidata.org/entity/Q109252043', 'http://www.wikidata.org/entity/Q109253595', 'http://www.wikidata.org/entity/Q109271422', 'http://www.wikidata.org/entity/Q109286', 'http://www.wikidata.org/entity/Q109304', 'http://www.wikidata.org/entity/Q109306', 'http://www.wikidata.org/entity/Q109316729', 'http://www.wikidata.org/entity/Q109335', 'http://www.wikidata.org/entity/Q109355446', 'http://www.wikidata.org/entity/Q109356764', 'http://www.wikidata.org/entity/Q109357', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109366', 'http://www.wikidata.org/entity/Q109375705', 'http://www.wikidata.org/entity/Q109382417', 'http://www.wikidata.org/entity/Q109443', 'http://www.wikidata.org/entity/Q109444', 'http://www.wikidata.org/entity/Q1094818', 'http://www.wikidata.org/entity/Q109492', 'http://www.wikidata.org/entity/Q109505', 'http://www.wikidata.org/entity/Q109507264', 'http://www.wikidata.org/entity/Q109516', 'http://www.wikidata.org/entity/Q109526534', 'http://www.wikidata.org/entity/Q109534', 'http://www.wikidata.org/entity/Q109551709', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q109566877', 'http://www.wikidata.org/entity/Q109581', 'http://www.wikidata.org/entity/Q109587133', 'http://www.wikidata.org/entity/Q109595', 'http://www.wikidata.org/entity/Q109603', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109619', 'http://www.wikidata.org/entity/Q109623', 'http://www.wikidata.org/entity/Q109628', 'http://www.wikidata.org/entity/Q109629', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q109650102', 'http://www.wikidata.org/entity/Q109653134', 'http://www.wikidata.org/entity/Q109656492', 'http://www.wikidata.org/entity/Q109718', 'http://www.wikidata.org/entity/Q109720', 'http://www.wikidata.org/entity/Q1097341', 'http://www.wikidata.org/entity/Q1097365', 'http://www.wikidata.org/entity/Q1097434', 'http://www.wikidata.org/entity/Q1097461', 'http://www.wikidata.org/entity/Q1097463', 'http://www.wikidata.org/entity/Q1097471', 'http://www.wikidata.org/entity/Q1097480', 'http://www.wikidata.org/entity/Q1097526', 'http://www.wikidata.org/entity/Q1097527', 'http://www.wikidata.org/entity/Q1097592', 'http://www.wikidata.org/entity/Q1097610', 'http://www.wikidata.org/entity/Q1097620', 'http://www.wikidata.org/entity/Q1097640', 'http://www.wikidata.org/entity/Q1097686', 'http://www.wikidata.org/entity/Q1097701', 'http://www.wikidata.org/entity/Q1097712', 'http://www.wikidata.org/entity/Q1097756', 'http://www.wikidata.org/entity/Q1097774', 'http://www.wikidata.org/entity/Q109778', 'http://www.wikidata.org/entity/Q1097857', 'http://www.wikidata.org/entity/Q1097863', 'http://www.wikidata.org/entity/Q1097915', 'http://www.wikidata.org/entity/Q109796', 'http://www.wikidata.org/entity/Q1</t>
+          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1000002', 'http://www.wikidata.org/entity/Q1000006', 'http://www.wikidata.org/entity/Q100000812', 'http://www.wikidata.org/entity/Q100000831', 'http://www.wikidata.org/entity/Q1000015', 'http://www.wikidata.org/entity/Q1000023', 'http://www.wikidata.org/entity/Q1000034', 'http://www.wikidata.org/entity/Q1000048', 'http://www.wikidata.org/entity/Q1000050', 'http://www.wikidata.org/entity/Q1000074', 'http://www.wikidata.org/entity/Q1000079', 'http://www.wikidata.org/entity/Q1000089', 'http://www.wikidata.org/entity/Q1000173', 'http://www.wikidata.org/entity/Q1000180', 'http://www.wikidata.org/entity/Q1000183', 'http://www.wikidata.org/entity/Q1000190', 'http://www.wikidata.org/entity/Q1000193', 'http://www.wikidata.org/entity/Q100019391', 'http://www.wikidata.org/entity/Q1000195', 'http://www.wikidata.org/entity/Q1000198', 'http://www.wikidata.org/entity/Q1000204', 'http://www.wikidata.org/entity/Q1000231', 'http://www.wikidata.org/entity/Q1000233', 'http://www.wikidata.org/entity/Q1000238', 'http://www.wikidata.org/entity/Q1000242', 'http://www.wikidata.org/entity/Q100025380', 'http://www.wikidata.org/entity/Q10002689', 'http://www.wikidata.org/entity/Q1000269', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q1000282', 'http://www.wikidata.org/entity/Q1000292', 'http://www.wikidata.org/entity/Q1000309', 'http://www.wikidata.org/entity/Q100031', 'http://www.wikidata.org/entity/Q1000315', 'http://www.wikidata.org/entity/Q1000318', 'http://www.wikidata.org/entity/Q1000323', 'http://www.wikidata.org/entity/Q1000324', 'http://www.wikidata.org/entity/Q1000337', 'http://www.wikidata.org/entity/Q1000348', 'http://www.wikidata.org/entity/Q100035', 'http://www.wikidata.org/entity/Q1000382', 'http://www.wikidata.org/entity/Q1000416', 'http://www.wikidata.org/entity/Q1000444', 'http://www.wikidata.org/entity/Q1000542', 'http://www.wikidata.org/entity/Q1000545', 'http://www.wikidata.org/entity/Q1000581', 'http://www.wikidata.org/entity/Q1000619', 'http://www.wikidata.org/entity/Q1000631', 'http://www.wikidata.org/entity/Q1000680', 'http://www.wikidata.org/entity/Q1000687', 'http://www.wikidata.org/entity/Q1000696', 'http://www.wikidata.org/entity/Q1000698', 'http://www.wikidata.org/entity/Q100071181', 'http://www.wikidata.org/entity/Q1000714', 'http://www.wikidata.org/entity/Q1000734', 'http://www.wikidata.org/entity/Q1000744', 'http://www.wikidata.org/entity/Q1000748', 'http://www.wikidata.org/entity/Q100077563', 'http://www.wikidata.org/entity/Q100079045', 'http://www.wikidata.org/entity/Q1000800', 'http://www.wikidata.org/entity/Q1000805', 'http://www.wikidata.org/entity/Q1000920', 'http://www.wikidata.org/entity/Q1000924', 'http://www.wikidata.org/entity/Q1000983', 'http://www.wikidata.org/entity/Q1001025', 'http://www.wikidata.org/entity/Q1001072', 'http://www.wikidata.org/entity/Q1001088', 'http://www.wikidata.org/entity/Q1001110', 'http://www.wikidata.org/entity/Q1001135', 'http://www.wikidata.org/entity/Q1001149', 'http://www.wikidata.org/entity/Q100116', 'http://www.wikidata.org/entity/Q1001175', 'http://www.wikidata.org/entity/Q1001184', 'http://www.wikidata.org/entity/Q1001218', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q1001242', 'http://www.wikidata.org/entity/Q1001257', 'http://www.wikidata.org/entity/Q1001263', 'http://www.wikidata.org/entity/Q1001277', 'http://www.wikidata.org/entity/Q1001280', 'http://www.wikidata.org/entity/Q1001304', 'http://www.wikidata.org/entity/Q100130832', 'http://www.wikidata.org/entity/Q1001323', 'http://www.wikidata.org/entity/Q100134', 'http://www.wikidata.org/entity/Q100135889', 'http://www.wikidata.org/entity/Q100136', 'http://www.wikidata.org/entity/Q100136989', 'http://www.wikidata.org/entity/Q100138651', 'http://www.wikidata.org/entity/Q100139328', 'http://www.wikidata.org/entity/Q100139462', 'http://www.wikidata.org/entity/Q100139464', 'http://www.wikidata.org/entity/Q100139466', 'http://www.wikidata.org/entity/Q100140', 'http://www.wikidata.org/entity/Q100140007', 'http://www.wikidata.org/entity/Q100142', 'http://www.wikidata.org/entity/Q100143085', 'http://www.wikidata.org/entity/Q100144592', 'http://www.wikidata.org/entity/Q100144815', 'http://www.wikidata.org/entity/Q100145635', 'http://www.wikidata.org/entity/Q100145948', 'http://www.wikidata.org/entity/Q100146165', 'http://www.wikidata.org/entity/Q100146172', 'http://www.wikidata.org/entity/Q100146276', 'http://www.wikidata.org/entity/Q100148', 'http://www.wikidata.org/entity/Q100149495', 'http://www.wikidata.org/entity/Q100149496', 'http://www.wikidata.org/entity/Q100149962', 'http://www.wikidata.org/entity/Q100150121', 'http://www.wikidata.org/entity/Q100151387', 'http://www.wikidata.org/entity/Q100151710', 'http://www.wikidata.org/entity/Q100151770', 'http://www.wikidata.org/entity/Q100151906', 'http://www.wikidata.org/entity/Q100151912', 'http://www.wikidata.org/entity/Q100151913', 'http://www.wikidata.org/entity/Q100151988', 'http://www.wikidata.org/entity/Q100152078', 'http://www.wikidata.org/entity/Q100152085', 'http://www.wikidata.org/entity/Q100152298', 'http://www.wikidata.org/entity/Q100152701', 'http://www.wikidata.org/entity/Q100152709', 'http://www.wikidata.org/entity/Q100152725', 'http://www.wikidata.org/entity/Q100152749', 'http://www.wikidata.org/entity/Q100154', 'http://www.wikidata.org/entity/Q100154084', 'http://www.wikidata.org/entity/Q100154208', 'http://www.wikidata.org/entity/Q100154369', 'http://www.wikidata.org/entity/Q100156', 'http://www.wikidata.org/entity/Q100156033', 'http://www.wikidata.org/entity/Q100158797', 'http://www.wikidata.org/entity/Q100158833', 'http://www.wikidata.org/entity/Q100160111', 'http://www.wikidata.org/entity/Q100165440', 'http://www.wikidata.org/entity/Q100165484', 'http://www.wikidata.org/entity/Q100165817', 'http://www.wikidata.org/entity/Q100165846', 'http://www.wikidata.org/entity/Q100166309', 'http://www.wikidata.org/entity/Q100166444', 'http://www.wikidata.org/entity/Q1001671', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100176', 'http://www.wikidata.org/entity/Q100178', 'http://www.wikidata.org/entity/Q100178753', 'http://www.wikidata.org/entity/Q100181', 'http://www.wikidata.org/entity/Q100184', 'http://www.wikidata.org/entity/Q1001856', 'http://www.wikidata.org/entity/Q100194327', 'http://www.wikidata.org/entity/Q100200', 'http://www.wikidata.org/entity/Q100202', 'http://www.wikidata.org/entity/Q100204', 'http://www.wikidata.org/entity/Q100205', 'http://www.wikidata.org/entity/Q100206', 'http://www.wikidata.org/entity/Q100207600', 'http://www.wikidata.org/entity/Q100207604', 'http://www.wikidata.org/entity/Q100207853', 'http://www.wikidata.org/entity/Q100208', 'http://www.wikidata.org/entity/Q100210', 'http://www.wikidata.org/entity/Q100212', 'http://www.wikidata.org/entity/Q100213', 'http://www.wikidata.org/entity/Q100214', 'http://www.wikidata.org/entity/Q100215', 'http://www.wikidata.org/entity/Q100216', 'http://www.wikidata.org/entity/Q100217', 'http://www.wikidata.org/entity/Q1002173', 'http://www.wikidata.org/entity/Q100218', 'http://www.wikidata.org/entity/Q100219', 'http://www.wikidata.org/entity/Q100220', 'http://www.wikidata.org/entity/Q100221', 'http://www.wikidata.org/entity/Q100223', 'http://www.wikidata.org/entity/Q100224', 'http://www.wikidata.org/entity/Q1002243', 'http://www.wikidata.org/entity/Q100225', 'http://www.wikidata.org/entity/Q100226', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100228', 'http://www.wikidata.org/entity/Q100229', 'http://www.wikidata.org/entity/Q100230', 'http://www.wikidata.org/entity/Q100230400', 'http://www.wikidata.org/entity/Q100230401', 'http://www.wikidata.org/entity/Q100230402', 'http://www.wikidata.org/entity/Q100230406', 'http://www.wikidata.org/entity/Q100231', 'http://www.wikidata.org/entity/Q100232', 'http://www.wikidata.org/entity/Q100233', 'http://www.wikidata.org/entity/Q100234', 'http://www.wikidata.org/entity/Q100234006', 'http://www.wikidata.org/entity/Q100234020', 'http://www.wikidata.org/entity/Q100234021', 'http://www.wikidata.org/entity/Q100234023', 'http://www.wikidata.org/entity/Q100234762', 'http://www.wikidata.org/entity/Q100234927', 'http://www.wikidata.org/entity/Q100235', 'http://www.wikidata.org/entity/Q100235025', 'http://www.wikidata.org/entity/Q100235032', 'http://www.wikidata.org/entity/Q100235057', 'http://www.wikidata.org/entity/Q100235060', 'http://www.wikidata.org/entity/Q100235186', 'http://www.wikidata.org/entity/Q100235795', 'http://www.wikidata.org/entity/Q100236', 'http://www.wikidata.org/entity/Q1002368', 'http://www.wikidata.org/entity/Q100237', 'http://www.wikidata.org/entity/Q100238', 'http://www.wikidata.org/entity/Q100239', 'http://www.wikidata.org/entity/Q100239754', 'http://www.wikidata.org/entity/Q100240508', 'http://www.wikidata.org/entity/Q100241', 'http://www.wikidata.org/entity/Q100242', 'http://www.wikidata.org/entity/Q100242033', 'http://www.wikidata.org/entity/Q100243', 'http://www.wikidata.org/entity/Q100243648', 'http://www.wikidata.org/entity/Q100243676', 'http://www.wikidata.org/entity/Q100244', 'http://www.wikidata.org/entity/Q100245', 'http://www.wikidata.org/entity/Q100246814', 'http://www.wikidata.org/entity/Q100247', 'http://www.wikidata.org/entity/Q100247135', 'http://www.wikidata.org/entity/Q100248761', 'http://www.wikidata.org/entity/Q100248805', 'http://www.wikidata.org/entity/Q100248862', 'http://www.wikidata.org/entity/Q100248907', 'http://www.wikidata.org/entity/Q100248945', 'http://www.wikidata.org/entity/Q100249', 'http://www.wikidata.org/entity/Q100250', 'http://www.wikidata.org/entity/Q100250395', 'http://www.wikidata.org/entity/Q100250398', 'http://www.wikidata.org/entity/Q100251', 'http://www.wikidata.org/entity/Q100251419', 'http://www.wikidata.org/entity/Q100251420', 'http://www.wikidata.org/entity/Q100251423', 'http://www.wikidata.org/entity/Q100251487', 'http://www.wikidata.org/entity/Q100252', 'http://www.wikidata.org/entity/Q100252151', 'http://www.wikidata.org/entity/Q100253', 'http://www.wikidata.org/entity/Q100254', 'http://www.wikidata.org/entity/Q100255', 'http://www.wikidata.org/entity/Q100256', 'http://www.wikidata.org/entity/Q100256269', 'http://www.wikidata.org/entity/Q100256282', 'http://www.wikidata.org/entity/Q100256362', 'http://www.wikidata.org/entity/Q100256385', 'http://www.wikidata.org/entity/Q100256964', 'http://www.wikidata.org/entity/Q100256966', 'http://www.wikidata.org/entity/Q100256970', 'http://www.wikidata.org/entity/Q100257', 'http://www.wikidata.org/entity/Q100257528', 'http://www.wikidata.org/entity/Q100257954', 'http://www.wikidata.org/entity/Q100258', 'http://www.wikidata.org/entity/Q100259565', 'http://www.wikidata.org/entity/Q100259592', 'http://www.wikidata.org/entity/Q100259629', 'http://www.wikidata.org/entity/Q100261', 'http://www.wikidata.org/entity/Q100262', 'http://www.wikidata.org/entity/Q100263', 'http://www.wikidata.org/entity/Q100263105', 'http://www.wikidata.org/entity/Q100263142', 'http://www.wikidata.org/entity/Q100264', 'http://www.wikidata.org/entity/Q100264843', 'http://www.wikidata.org/entity/Q100265019', 'http://www.wikidata.org/entity/Q100266183', 'http://www.wikidata.org/entity/Q100266372', 'http://www.wikidata.org/entity/Q100266832', 'http://www.wikidata.org/entity/Q100267996', 'http://www.wikidata.org/entity/Q100268', 'http://www.wikidata.org/entity/Q100268035', 'http://www.wikidata.org/entity/Q100268125', 'http://www.wikidata.org/entity/Q100268126', 'http://www.wikidata.org/entity/Q100268218', 'http://www.wikidata.org/entity/Q100268358', 'http://www.wikidata.org/entity/Q100268423', 'http://www.wikidata.org/entity/Q100268454', 'http://www.wikidata.org/entity/Q100268582', 'http://www.wikidata.org/entity/Q100269', 'http://www.wikidata.org/entity/Q100269089', 'http://www.wikidata.org/entity/Q100269306', 'http://www.wikidata.org/entity/Q100269514', 'http://www.wikidata.org/entity/Q100269573', 'http://www.wikidata.org/entity/Q100270', 'http://www.wikidata.org/entity/Q100271', 'http://www.wikidata.org/entity/Q100272', 'http://www.wikidata.org/entity/Q100272181', 'http://www.wikidata.org/entity/Q100272182', 'http://www.wikidata.org/entity/Q100272298', 'http://www.wikidata.org/entity/Q100272299', 'http://www.wikidata.org/entity/Q100272300', 'http://www.wikidata.org/entity/Q100272657', 'http://www.wikidata.org/entity/Q100272658', 'http://www.wikidata.org/entity/Q100272747', 'http://www.wikidata.org/entity/Q100272935', 'http://www.wikidata.org/entity/Q100272940', 'http://www.wikidata.org/entity/Q100273078', 'http://www.wikidata.org/entity/Q100273556', 'http://www.wikidata.org/entity/Q100273829', 'http://www.wikidata.org/entity/Q100275', 'http://www.wikidata.org/entity/Q100275771', 'http://www.wikidata.org/entity/Q100276317', 'http://www.wikidata.org/entity/Q100276371', 'http://www.wikidata.org/entity/Q100276372', 'http://www.wikidata.org/entity/Q100276472', 'http://www.wikidata.org/entity/Q100276514', 'http://www.wikidata.org/entity/Q100276520', 'http://www.wikidata.org/entity/Q100276618', 'http://www.wikidata.org/entity/Q100276743', 'http://www.wikidata.org/entity/Q100276766', 'http://www.wikidata.org/entity/Q100276893', 'http://www.wikidata.org/entity/Q100277', 'http://www.wikidata.org/entity/Q100277136', 'http://www.wikidata.org/entity/Q100277164', 'http://www.wikidata.org/entity/Q100278855', 'http://www.wikidata.org/entity/Q100279', 'http://www.wikidata.org/entity/Q100279451', 'http://www.wikidata.org/entity/Q100280', 'http://www.wikidata.org/entity/Q100281', 'http://www.wikidata.org/entity/Q100282', 'http://www.wikidata.org/entity/Q100283', 'http://www.wikidata.org/entity/Q100284', 'http://www.wikidata.org/entity/Q100285', 'http://www.wikidata.org/entity/Q100286', 'http://www.wikidata.org/entity/Q100286980', 'http://www.wikidata.org/entity/Q100287544', 'http://www.wikidata.org/entity/Q100289', 'http://www.wikidata.org/entity/Q100290', 'http://www.wikidata.org/entity/Q100292', 'http://www.wikidata.org/entity/Q100292575', 'http://www.wikidata.org/entity/Q100292922', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100293345', 'http://www.wikidata.org/entity/Q100293348', 'http://www.wikidata.org/entity/Q100294400', 'http://www.wikidata.org/entity/Q100296', 'http://www.wikidata.org/entity/Q100297', 'http://www.wikidata.org/entity/Q100299', 'http://www.wikidata.org/entity/Q100299245', 'http://www.wikidata.org/entity/Q100300', 'http://www.wikidata.org/entity/Q100301', 'http://www.wikidata.org/entity/Q100302', 'http://www.wikidata.org/entity/Q100303', 'http://www.wikidata.org/entity/Q100303059', 'http://www.wikidata.org/entity/Q100303063', 'http://www.wikidata.org/entity/Q100303171', 'http://www.wikidata.org/entity/Q100304017', 'http://www.wikidata.org/entity/Q100304570', 'http://www.wikidata.org/entity/Q100305', 'http://www.wikidata.org/entity/Q100306', 'http://www.wikidata.org/entity/Q100307', 'http://www.wikidata.org/entity/Q100308', 'http://www.wikidata.org/entity/Q100309', 'http://www.wikidata.org/entity/Q100310', 'http://www.wikidata.org/entity/Q100310644', 'http://www.wikidata.org/entity/Q100310645', 'http://www.wikidata.org/entity/Q100310647', 'http://www.wikidata.org/entity/Q100310706', 'http://www.wikidata.org/entity/Q100310709', 'http://www.wikidata.org/entity/Q100312', 'http://www.wikidata.org/entity/Q100313', 'http://www.wikidata.org/entity/Q100315', 'http://www.wikidata.org/entity/Q100316', 'http://www.wikidata.org/entity/Q100316107', 'http://www.wikidata.org/entity/Q100316138', 'http://www.wikidata.org/entity/Q100316288', 'http://www.wikidata.org/entity/Q100316882', 'http://www.wikidata.org/entity/Q100317', 'http://www.wikidata.org/entity/Q100318', 'http://www.wikidata.org/entity/Q100318899', 'http://www.wikidata.org/entity/Q100319', 'http://www.wikidata.org/entity/Q100319979', 'http://www.wikidata.org/entity/Q100320', 'http://www.wikidata.org/entity/Q100320807', 'http://www.wikidata.org/entity/Q100321', 'http://www.wikidata.org/entity/Q100321101', 'http://www.wikidata.org/entity/Q100322', 'http://www.wikidata.org/entity/Q100323', 'http://www.wikidata.org/entity/Q100323020', 'http://www.wikidata.org/entity/Q100323022', 'http://www.wikidata.org/entity/Q100323519', 'http://www.wikidata.org/entity/Q100323522', 'http://www.wikidata.org/entity/Q100323524', 'http://www.wikidata.org/entity/Q100323618', 'http://www.wikidata.org/entity/Q100323621', 'http://www.wikidata.org/entity/Q100323636', 'http://www.wikidata.org/entity/Q100323687', 'http://www.wikidata.org/entity/Q100324', 'http://www.wikidata.org/entity/Q100324088', 'http://www.wikidata.org/entity/Q100324152', 'http://www.wikidata.org/entity/Q100324178', 'http://www.wikidata.org/entity/Q100324364', 'http://www.wikidata.org/entity/Q100325', 'http://www.wikidata.org/entity/Q100326', 'http://www.wikidata.org/entity/Q100326896', 'http://www.wikidata.org/entity/Q100327', 'http://www.wikidata.org/entity/Q100327650', 'http://www.wikidata.org/entity/Q100327866', 'http://www.wikidata.org/entity/Q100327907', 'http://www.wikidata.org/entity/Q100328', 'http://www.wikidata.org/entity/Q100328517', 'http://www.wikidata.org/entity/Q100329', 'http://www.wikidata.org/entity/Q100329035', 'http://www.wikidata.org/entity/Q100329037', 'http://www.wikidata.org/entity/Q100329038', 'http://www.wikidata.org/entity/Q100329588', 'http://www.wikidata.org/entity/Q100330', 'http://www.wikidata.org/entity/Q100330715', 'http://www.wikidata.org/entity/Q100331', 'http://www.wikidata.org/entity/Q100332', 'http://www.wikidata.org/entity/Q100332248', 'http://www.wikidata.org/entity/Q100333', 'http://www.wikidata.org/entity/Q100333054', 'http://www.wikidata.org/entity/Q100334', 'http://www.wikidata.org/entity/Q100334056', 'http://www.wikidata.org/entity/Q100334162', 'http://www.wikidata.org/entity/Q100334163', 'http://www.wikidata.org/entity/Q100335', 'http://www.wikidata.org/entity/Q100336', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100338', 'http://www.wikidata.org/entity/Q100339', 'http://www.wikidata.org/entity/Q100340701', 'http://www.wikidata.org/entity/Q100340786', 'http://www.wikidata.org/entity/Q100341379', 'http://www.wikidata.org/entity/Q100342', 'http://www.wikidata.org/entity/Q100343', 'http://www.wikidata.org/entity/Q100346', 'http://www.wikidata.org/entity/Q100346796', 'http://www.wikidata.org/entity/Q100346797', 'http://www.wikidata.org/entity/Q100347140', 'http://www.wikidata.org/entity/Q100347444', 'http://www.wikidata.org/entity/Q100347510', 'http://www.wikidata.org/entity/Q100348', 'http://www.wikidata.org/entity/Q100348786', 'http://www.wikidata.org/entity/Q100349582', 'http://www.wikidata.org/entity/Q100349586', 'http://www.wikidata.org/entity/Q100350', 'http://www.wikidata.org/entity/Q100351', 'http://www.wikidata.org/entity/Q100352', 'http://www.wikidata.org/entity/Q100353', 'http://www.wikidata.org/entity/Q100353526', 'http://www.wikidata.org/entity/Q100354758', 'http://www.wikidata.org/entity/Q100355', 'http://www.wikidata.org/entity/Q100355207', 'http://www.wikidata.org/entity/Q100355482', 'http://www.wikidata.org/entity/Q100355639', 'http://www.wikidata.org/entity/Q100355649', 'http://www.wikidata.org/entity/Q100355664', 'http://www.wikidata.org/entity/Q100355822', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q1003566', 'http://www.wikidata.org/entity/Q100357', 'http://www.wikidata.org/entity/Q100359', 'http://www.wikidata.org/entity/Q100359472', 'http://www.wikidata.org/entity/Q100360', 'http://www.wikidata.org/entity/Q100361853', 'http://www.wikidata.org/entity/Q100362', 'http://www.wikidata.org/entity/Q1003620', 'http://www.wikidata.org/entity/Q100363', 'http://www.wikidata.org/entity/Q100364', 'http://www.wikidata.org/entity/Q100366', 'http://www.wikidata.org/entity/Q100366973', 'http://www.wikidata.org/entity/Q100367', 'http://www.wikidata.org/entity/Q100368804', 'http://www.wikidata.org/entity/Q100369507', 'http://www.wikidata.org/entity/Q100370', 'http://www.wikidata.org/entity/Q100371268', 'http://www.wikidata.org/entity/Q100371279', 'http://www.wikidata.org/entity/Q100371297', 'http://www.wikidata.org/entity/Q100371337', 'http://www.wikidata.org/entity/Q100371342', 'http://www.wikidata.org/entity/Q100371352', 'http://www.wikidata.org/entity/Q100371371', 'http://www.wikidata.org/entity/Q100371783', 'http://www.wikidata.org/entity/Q100371810', 'http://www.wikidata.org/entity/Q100371870', 'http://www.wikidata.org/entity/Q100371880', 'http://www.wikidata.org/entity/Q100372', 'http://www.wikidata.org/entity/Q100374061', 'http://www.wikidata.org/entity/Q1003742', 'http://www.wikidata.org/entity/Q100374305', 'http://www.wikidata.org/entity/Q100374758', 'http://www.wikidata.org/entity/Q100375', 'http://www.wikidata.org/entity/Q100375826', 'http://www.wikidata.org/entity/Q100375832', 'http://www.wikidata.org/entity/Q100376', 'http://www.wikidata.org/entity/Q100378605', 'http://www.wikidata.org/entity/Q100379', 'http://www.wikidata.org/entity/Q100380', 'http://www.wikidata.org/entity/Q100380957', 'http://www.wikidata.org/entity/Q100381', 'http://www.wikidata.org/entity/Q100382', 'http://www.wikidata.org/entity/Q1003828', 'http://www.wikidata.org/entity/Q100383', 'http://www.wikidata.org/entity/Q100383158', 'http://www.wikidata.org/entity/Q100383160', 'http://www.wikidata.org/entity/Q100383420', 'http://www.wikidata.org/entity/Q100383425', 'http://www.wikidata.org/entity/Q100383440', 'http://www.wikidata.org/entity/Q100383454', 'http://www.wikidata.org/entity/Q100383486', 'http://www.wikidata.org/entity/Q100383547', 'http://www.wikidata.org/entity/Q100383575', 'http://www.wikidata.org/entity/Q100383576', 'http://www.wikidata.org/entity/Q100383608', 'http://www.wikidata.org/entity/Q100383623', 'http://www.wikidata.org/entity/Q100383628', 'http://www.wikidata.org/entity/Q100383632', 'http://www.wikidata.org/entity/Q100383646', 'http://www.wikidata.org/entity/Q100383652', 'http://www.wikidata.org/entity/Q100383657', 'http://www.wikidata.org/entity/Q100384', 'http://www.wikidata.org/entity/Q100384127', 'http://www.wikidata.org/entity/Q100385', 'http://www.wikidata.org/entity/Q100385362', 'http://www.wikidata.org/entity/Q100386', 'http://www.wikidata.org/entity/Q100387', 'http://www.wikidata.org/entity/Q100387364', 'http://www.wikidata.org/entity/Q100387365', 'http://www.wikidata.org/entity/Q100387367', 'http://www.wikidata.org/entity/Q100387448', 'http://www.wikidata.org/entity/Q100389', 'http://www.wikidata.org/entity/Q100390', 'http://www.wikidata.org/entity/Q100391963', 'http://www.wikidata.org/entity/Q100392', 'http://www.wikidata.org/entity/Q100393', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100398', 'http://www.wikidata.org/entity/Q100399', 'http://www.wikidata.org/entity/Q100400639', 'http://www.wikidata.org/entity/Q100401', 'http://www.wikidata.org/entity/Q100401062', 'http://www.wikidata.org/entity/Q100401221', 'http://www.wikidata.org/entity/Q100402', 'http://www.wikidata.org/entity/Q1004027', 'http://www.wikidata.org/entity/Q1004034', 'http://www.wikidata.org/entity/Q100405', 'http://www.wikidata.org/entity/Q100406', 'http://www.wikidata.org/entity/Q100407056', 'http://www.wikidata.org/entity/Q100408', 'http://www.wikidata.org/entity/Q100409384', 'http://www.wikidata.org/entity/Q100409387', 'http://www.wikidata.org/entity/Q100411', 'http://www.wikidata.org/entity/Q100412', 'http://www.wikidata.org/entity/Q100413396', 'http://www.wikidata.org/entity/Q100413624', 'http://www.wikidata.org/entity/Q100414', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100415075', 'http://www.wikidata.org/entity/Q100415088', 'http://www.wikidata.org/entity/Q100415100', 'http://www.wikidata.org/entity/Q100415128', 'http://www.wikidata.org/entity/Q100415221', 'http://www.wikidata.org/entity/Q100415723', 'http://www.wikidata.org/entity/Q100415831', 'http://www.wikidata.org/entity/Q100415847', 'http://www.wikidata.org/entity/Q100415866', 'http://www.wikidata.org/entity/Q100415873', 'http://www.wikidata.org/entity/Q100415943', 'http://www.wikidata.org/entity/Q100415989', 'http://www.wikidata.org/entity/Q100415998', 'http://www.wikidata.org/entity/Q100416255', 'http://www.wikidata.org/entity/Q100416304', 'http://www.wikidata.org/entity/Q100416778', 'http://www.wikidata.org/entity/Q100417', 'http://www.wikidata.org/entity/Q100417494', 'http://www.wikidata.org/entity/Q100417971', 'http://www.wikidata.org/entity/Q100418', 'http://www.wikidata.org/entity/Q100419', 'http://www.wikidata.org/entity/Q100421364', 'http://www.wikidata.org/entity/Q100421843', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100426989', 'http://www.wikidata.org/entity/Q100427785', 'http://www.wikidata.org/entity/Q100427787', 'http://www.wikidata.org/entity/Q100428479', 'http://www.wikidata.org/entity/Q100429', 'http://www.wikidata.org/entity/Q100430393', 'http://www.wikidata.org/entity/Q100431', 'http://www.wikidata.org/entity/Q100432', 'http://www.wikidata.org/entity/Q100432038', 'http://www.wikidata.org/entity/Q100435', 'http://www.wikidata.org/entity/Q1004351', 'http://www.wikidata.org/entity/Q100436203', 'http://www.wikidata.org/entity/Q100437', 'http://www.wikidata.org/entity/Q100437905', 'http://www.wikidata.org/entity/Q100440252', 'http://www.wikidata.org/entity/Q100441', 'http://www.wikidata.org/entity/Q100441085', 'http://www.wikidata.org/entity/Q100441729', 'http://www.wikidata.org/entity/Q100441734', 'http://www.wikidata.org/entity/Q100441742', 'http://www.wikidata.org/entity/Q100441749', 'http://www.wikidata.org/entity/Q100441757', 'http://www.wikidata.org/entity/Q100441774', 'http://www.wikidata.org/entity/Q100442', 'http://www.wikidata.org/entity/Q100442624', 'http://www.wikidata.org/entity/Q100443', 'http://www.wikidata.org/entity/Q100444', 'http://www.wikidata.org/entity/Q100445', 'http://www.wikidata.org/entity/Q100446', 'http://www.wikidata.org/entity/Q100447', 'http://www.wikidata.org/entity/Q100449', 'http://www.wikidata.org/entity/Q100450', 'http://www.wikidata.org/entity/Q100450263', 'http://www.wikidata.org/entity/Q100451', 'http://www.wikidata.org/entity/Q100452', 'http://www.wikidata.org/entity/Q100452371', 'http://www.wikidata.org/entity/Q100452980', 'http://www.wikidata.org/entity/Q100453', 'http://www.wikidata.org/entity/Q100453168', 'http://www.wikidata.org/entity/Q100454', 'http://www.wikidata.org/entity/Q100455', 'http://www.wikidata.org/entity/Q100455136', 'http://www.wikidata.org/entity/Q100456', 'http://www.wikidata.org/entity/Q100456974', 'http://www.wikidata.org/entity/Q100457', 'http://www.wikidata.org/entity/Q100458', 'http://www.wikidata.org/entity/Q100458833', 'http://www.wikidata.org/entity/Q100459', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q100460', 'http://www.wikidata.org/entity/Q100461', 'http://www.wikidata.org/entity/Q100462', 'http://www.wikidata.org/entity/Q100464', 'http://www.wikidata.org/entity/Q100465', 'http://www.wikidata.org/entity/Q100466', 'http://www.wikidata.org/entity/Q100467', 'http://www.wikidata.org/entity/Q100468', 'http://www.wikidata.org/entity/Q100469', 'http://www.wikidata.org/entity/Q100471', 'http://www.wikidata.org/entity/Q100472', 'http://www.wikidata.org/entity/Q100472783', 'http://www.wikidata.org/entity/Q100473', 'http://www.wikidata.org/entity/Q1004736', 'http://www.wikidata.org/entity/Q100474', 'http://www.wikidata.org/entity/Q100475', 'http://www.wikidata.org/entity/Q100476', 'http://www.wikidata.org/entity/Q100477', 'http://www.wikidata.org/entity/Q100479', 'http://www.wikidata.org/entity/Q100480', 'http://www.wikidata.org/entity/Q1004804', 'http://www.wikidata.org/entity/Q100480573', 'http://www.wikidata.org/entity/Q100480781', 'http://www.wikidata.org/entity/Q100480785', 'http://www.wikidata.org/entity/Q100481', 'http://www.wikidata.org/entity/Q100482', 'http://www.wikidata.org/entity/Q100483308', 'http://www.wikidata.org/entity/Q100484', 'http://www.wikidata.org/entity/Q100485', 'http://www.wikidata.org/entity/Q100486', 'http://www.wikidata.org/entity/Q100487', 'http://www.wikidata.org/entity/Q100488', 'http://www.wikidata.org/entity/Q100489', 'http://www.wikidata.org/entity/Q100490523', 'http://www.wikidata.org/entity/Q100491', 'http://www.wikidata.org/entity/Q100491593', 'http://www.wikidata.org/entity/Q100491686', 'http://www.wikidata.org/entity/Q100492', 'http://www.wikidata.org/entity/Q100493', 'http://www.wikidata.org/entity/Q100493150', 'http://www.wikidata.org/entity/Q100493449', 'http://www.wikidata.org/entity/Q100494', 'http://www.wikidata.org/entity/Q100496', 'http://www.wikidata.org/entity/Q100497264', 'http://www.wikidata.org/entity/Q100499', 'http://www.wikidata.org/entity/Q100500', 'http://www.wikidata.org/entity/Q100501', 'http://www.wikidata.org/entity/Q100501206', 'http://www.wikidata.org/entity/Q100501209', 'http://www.wikidata.org/entity/Q100501213', 'http://www.wikidata.org/entity/Q100501217', 'http://www.wikidata.org/entity/Q100501220', 'http://www.wikidata.org/entity/Q100501227', 'http://www.wikidata.org/entity/Q100501415', 'http://www.wikidata.org/entity/Q100504', 'http://www.wikidata.org/entity/Q100505', 'http://www.wikidata.org/entity/Q100505259', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100506906', 'http://www.wikidata.org/entity/Q100507', 'http://www.wikidata.org/entity/Q100507112', 'http://www.wikidata.org/entity/Q100509', 'http://www.wikidata.org/entity/Q100510027', 'http://www.wikidata.org/entity/Q100511', 'http://www.wikidata.org/entity/Q100513', 'http://www.wikidata.org/entity/Q100514', 'http://www.wikidata.org/entity/Q100515', 'http://www.wikidata.org/entity/Q100516', 'http://www.wikidata.org/entity/Q100517', 'http://www.wikidata.org/entity/Q100518', 'http://www.wikidata.org/entity/Q100519', 'http://www.wikidata.org/entity/Q100520', 'http://www.wikidata.org/entity/Q100521', 'http://www.wikidata.org/entity/Q100522', 'http://www.wikidata.org/entity/Q100523', 'http://www.wikidata.org/entity/Q100524677', 'http://www.wikidata.org/entity/Q100525', 'http://www.wikidata.org/entity/Q100525244', 'http://www.wikidata.org/entity/Q100526', 'http://www.wikidata.org/entity/Q100527', 'http://www.wikidata.org/entity/Q100527758', 'http://www.wikidata.org/entity/Q100529', 'http://www.wikidata.org/entity/Q100529468', 'http://www.wikidata.org/entity/Q100529702', 'http://www.wikidata.org/entity/Q100530', 'http://www.wikidata.org/entity/Q100531', 'http://www.wikidata.org/entity/Q100532', 'http://www.wikidata.org/entity/Q100532297', 'http://www.wikidata.org/entity/Q100532708', 'http://www.wikidata.org/entity/Q100533167', 'http://www.wikidata.org/entity/Q100533382', 'http://www.wikidata.org/entity/Q100533804', 'http://www.wikidata.org/entity/Q100534', 'http://www.wikidata.org/entity/Q100534351', 'http://www.wikidata.org/entity/Q100534656', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100535521', 'http://www.wikidata.org/entity/Q100535564', 'http://www.wikidata.org/entity/Q100536', 'http://www.wikidata.org/entity/Q100536081', 'http://www.wikidata.org/entity/Q100536822', 'http://www.wikidata.org/entity/Q100537', 'http://www.wikidata.org/entity/Q100538', 'http://www.wikidata.org/entity/Q100538312', 'http://www.wikidata.org/entity/Q100539', 'http://www.wikidata.org/entity/Q100539754', 'http://www.wikidata.org/entity/Q100540', 'http://www.wikidata.org/entity/Q100541', 'http://www.wikidata.org/entity/Q100542', 'http://www.wikidata.org/entity/Q100542298', 'http://www.wikidata.org/entity/Q100543', 'http://www.wikidata.org/entity/Q100544594', 'http://www.wikidata.org/entity/Q100544970', 'http://www.wikidata.org/entity/Q100545', 'http://www.wikidata.org/entity/Q100545616', 'http://www.wikidata.org/entity/Q100546', 'http://www.wikidata.org/entity/Q100547', 'http://www.wikidata.org/entity/Q100547649', 'http://www.wikidata.org/entity/Q100548', 'http://www.wikidata.org/entity/Q100549', 'http://www.wikidata.org/entity/Q100552', 'http://www.wikidata.org/entity/Q100552980', 'http://www.wikidata.org/entity/Q100552986', 'http://www.wikidata.org/entity/Q100552992', 'http://www.wikidata.org/entity/Q100553', 'http://www.wikidata.org/entity/Q100553154', 'http://www.wikidata.org/entity/Q100554', 'http://www.wikidata.org/entity/Q100554036', 'http://www.wikidata.org/entity/Q100555', 'http://www.wikidata.org/entity/Q100556920', 'http://www.wikidata.org/entity/Q100556946', 'http://www.wikidata.org/entity/Q100557', 'http://www.wikidata.org/entity/Q100557028', 'http://www.wikidata.org/entity/Q100558', 'http://www.wikidata.org/entity/Q100558722', 'http://www.wikidata.org/entity/Q100559', 'http://www.wikidata.org/entity/Q1005</t>
+          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
         </is>
       </c>
       <c r="D45" t="b">
@@ -1338,17 +1338,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Who designed the Brooklyn Bridge?</t>
+          <t>What is the birth name of Adele?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q77237']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q77237']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="D46" t="b">
@@ -1358,57 +1358,57 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Who wrote the Game of Thrones theme?</t>
+          <t>What is the currency of the Czech Republic?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q57577']</t>
+          <t>['http://www.wikidata.org/entity/Q131016']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/statement/Q23572-ac2854cf-4bb6-e5b4-2976-afc272112072']</t>
+          <t>['http://www.wikidata.org/entity/Q131016']</t>
         </is>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Give me all movies directed by Francis Ford Coppola.</t>
+          <t>Which bridges cross the Seine?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
+          <t>['http://www.wikidata.org/entity/Q113840426', 'http://www.wikidata.org/entity/Q123580629', 'http://www.wikidata.org/entity/Q14628924', 'http://www.wikidata.org/entity/Q14628936', 'http://www.wikidata.org/entity/Q16510093', 'http://www.wikidata.org/entity/Q17636970', 'http://www.wikidata.org/entity/Q19366968', 'http://www.wikidata.org/entity/Q19370810', 'http://www.wikidata.org/entity/Q19945222', 'http://www.wikidata.org/entity/Q2073282', 'http://www.wikidata.org/entity/Q2073308', 'http://www.wikidata.org/entity/Q21079205', 'http://www.wikidata.org/entity/Q21500125', 'http://www.wikidata.org/entity/Q21500144', 'http://www.wikidata.org/entity/Q21500156', 'http://www.wikidata.org/entity/Q2236752', 'http://www.wikidata.org/entity/Q2307670', 'http://www.wikidata.org/entity/Q2426843', 'http://www.wikidata.org/entity/Q2787259', 'http://www.wikidata.org/entity/Q2799240', 'http://www.wikidata.org/entity/Q3368279', 'http://www.wikidata.org/entity/Q3368297', 'http://www.wikidata.org/entity/Q3368324', 'http://www.wikidata.org/entity/Q3368325', 'http://www.wikidata.org/entity/Q3368327', 'http://www.wikidata.org/entity/Q3389968', 'http://www.wikidata.org/entity/Q3396471', 'http://www.wikidata.org/entity/Q3396505', 'http://www.wikidata.org/entity/Q3396552', 'http://www.wikidata.org/entity/Q3396554', 'http://www.wikidata.org/entity/Q3396581', 'http://www.wikidata.org/entity/Q3396643', 'http://www.wikidata.org/entity/Q3396668', 'http://www.wikidata.org/entity/Q3396677', 'http://www.wikidata.org/entity/Q3396680', 'http://www.wikidata.org/entity/Q3396700', 'http://www.wikidata.org/entity/Q3396702', 'http://www.wikidata.org/entity/Q3396751', 'http://www.wikidata.org/entity/Q3396799', 'http://www.wikidata.org/entity/Q3396824', 'http://www.wikidata.org/entity/Q3396841', 'http://www.wikidata.org/entity/Q3396842', 'http://www.wikidata.org/entity/Q3396857', 'http://www.wikidata.org/entity/Q3396868', 'http://www.wikidata.org/entity/Q3396873', 'http://www.wikidata.org/entity/Q3396920', 'http://www.wikidata.org/entity/Q3396929', 'http://www.wikidata.org/entity/Q3396944', 'http://www.wikidata.org/entity/Q3396970', 'http://www.wikidata.org/entity/Q3397013', 'http://www.wikidata.org/entity/Q3397027', 'http://www.wikidata.org/entity/Q3397043', 'http://www.wikidata.org/entity/Q3397089', 'http://www.wikidata.org/entity/Q3397099', 'http://www.wikidata.org/entity/Q3397103', 'http://www.wikidata.org/entity/Q3397124', 'http://www.wikidata.org/entity/Q3397125', 'http://www.wikidata.org/entity/Q3397165', 'http://www.wikidata.org/entity/Q3397185', 'http://www.wikidata.org/entity/Q3397245', 'http://www.wikidata.org/entity/Q3397248', 'http://www.wikidata.org/entity/Q3397462', 'http://www.wikidata.org/entity/Q3397482', 'http://www.wikidata.org/entity/Q3397487', 'http://www.wikidata.org/entity/Q3397607', 'http://www.wikidata.org/entity/Q3397642', 'http://www.wikidata.org/entity/Q3397797', 'http://www.wikidata.org/entity/Q3401780', 'http://www.wikidata.org/entity/Q3556527', 'http://www.wikidata.org/entity/Q3556533', 'http://www.wikidata.org/entity/Q3556553', 'http://www.wikidata.org/entity/Q3556564', 'http://www.wikidata.org/entity/Q3556573', 'http://www.wikidata.org/entity/Q3556615', 'http://www.wikidata.org/entity/Q504710', 'http://www.wikidata.org/entity/Q95374345', 'http://www.wikidata.org/entity/Q95377822', 'http://www.wikidata.org/entity/Q95628130', 'http://www.wikidata.org/entity/Q95685874']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
+          <t>['http://www.wikidata.org/entity/Q113840426', 'http://www.wikidata.org/entity/Q123580629', 'http://www.wikidata.org/entity/Q14628924', 'http://www.wikidata.org/entity/Q14628936', 'http://www.wikidata.org/entity/Q16510093', 'http://www.wikidata.org/entity/Q17636970', 'http://www.wikidata.org/entity/Q19366968', 'http://www.wikidata.org/entity/Q19370810', 'http://www.wikidata.org/entity/Q19945222', 'http://www.wikidata.org/entity/Q2073282', 'http://www.wikidata.org/entity/Q2073308', 'http://www.wikidata.org/entity/Q21079205', 'http://www.wikidata.org/entity/Q21500125', 'http://www.wikidata.org/entity/Q21500144', 'http://www.wikidata.org/entity/Q21500156', 'http://www.wikidata.org/entity/Q2236752', 'http://www.wikidata.org/entity/Q2307670', 'http://www.wikidata.org/entity/Q2426843', 'http://www.wikidata.org/entity/Q2787259', 'http://www.wikidata.org/entity/Q2799240', 'http://www.wikidata.org/entity/Q3368279', 'http://www.wikidata.org/entity/Q3368297', 'http://www.wikidata.org/entity/Q3368324', 'http://www.wikidata.org/entity/Q3368325', 'http://www.wikidata.org/entity/Q3368327', 'http://www.wikidata.org/entity/Q3389968', 'http://www.wikidata.org/entity/Q3396471', 'http://www.wikidata.org/entity/Q3396505', 'http://www.wikidata.org/entity/Q3396552', 'http://www.wikidata.org/entity/Q3396554', 'http://www.wikidata.org/entity/Q3396581', 'http://www.wikidata.org/entity/Q3396643', 'http://www.wikidata.org/entity/Q3396668', 'http://www.wikidata.org/entity/Q3396677', 'http://www.wikidata.org/entity/Q3396680', 'http://www.wikidata.org/entity/Q3396700', 'http://www.wikidata.org/entity/Q3396702', 'http://www.wikidata.org/entity/Q3396751', 'http://www.wikidata.org/entity/Q3396799', 'http://www.wikidata.org/entity/Q3396824', 'http://www.wikidata.org/entity/Q3396841', 'http://www.wikidata.org/entity/Q3396842', 'http://www.wikidata.org/entity/Q3396857', 'http://www.wikidata.org/entity/Q3396868', 'http://www.wikidata.org/entity/Q3396873', 'http://www.wikidata.org/entity/Q3396920', 'http://www.wikidata.org/entity/Q3396929', 'http://www.wikidata.org/entity/Q3396944', 'http://www.wikidata.org/entity/Q3396970', 'http://www.wikidata.org/entity/Q3397013', 'http://www.wikidata.org/entity/Q3397027', 'http://www.wikidata.org/entity/Q3397043', 'http://www.wikidata.org/entity/Q3397089', 'http://www.wikidata.org/entity/Q3397099', 'http://www.wikidata.org/entity/Q3397103', 'http://www.wikidata.org/entity/Q3397124', 'http://www.wikidata.org/entity/Q3397125', 'http://www.wikidata.org/entity/Q3397165', 'http://www.wikidata.org/entity/Q3397185', 'http://www.wikidata.org/entity/Q3397245', 'http://www.wikidata.org/entity/Q3397248', 'http://www.wikidata.org/entity/Q3397462', 'http://www.wikidata.org/entity/Q3397482', 'http://www.wikidata.org/entity/Q3397487', 'http://www.wikidata.org/entity/Q3397607', 'http://www.wikidata.org/entity/Q3397642', 'http://www.wikidata.org/entity/Q3397797', 'http://www.wikidata.org/entity/Q3401780', 'http://www.wikidata.org/entity/Q3556527', 'http://www.wikidata.org/entity/Q3556533', 'http://www.wikidata.org/entity/Q3556553', 'http://www.wikidata.org/entity/Q3556564', 'http://www.wikidata.org/entity/Q3556573', 'http://www.wikidata.org/entity/Q3556615', 'http://www.wikidata.org/entity/Q504710', 'http://www.wikidata.org/entity/Q95374345', 'http://www.wikidata.org/entity/Q95377822', 'http://www.wikidata.org/entity/Q95628130', 'http://www.wikidata.org/entity/Q95685874']</t>
         </is>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>What is the birth name of Adele?</t>
+          <t>Which musician wrote the most books?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://www.wikidata.org/entity/Q113669']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/statement/Q23215-ea8dacde-4d99-d318-439d-df7dcb38a6d4']</t>
+          <t>['6', 'http://www.wikidata.org/entity/Q113669']</t>
         </is>
       </c>
       <c r="D49" t="b">
@@ -1418,17 +1418,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>What was the first Queen album?</t>
+          <t>Who discovered Ceres?</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q193490']</t>
+          <t>['http://www.wikidata.org/entity/Q14280']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q193490']</t>
+          <t>['http://www.wikidata.org/entity/Q14280']</t>
         </is>
       </c>
       <c r="D50" t="b">
@@ -1438,17 +1438,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Which musician wrote the most books?</t>
+          <t>Which soccer players were born on Malta?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q113669']</t>
+          <t>['http://www.wikidata.org/entity/Q100151816', 'http://www.wikidata.org/entity/Q101490959', 'http://www.wikidata.org/entity/Q101492327', 'http://www.wikidata.org/entity/Q1042258', 'http://www.wikidata.org/entity/Q10474461', 'http://www.wikidata.org/entity/Q10509157', 'http://www.wikidata.org/entity/Q105118495', 'http://www.wikidata.org/entity/Q10558160', 'http://www.wikidata.org/entity/Q106228741', 'http://www.wikidata.org/entity/Q1065590', 'http://www.wikidata.org/entity/Q107128661', 'http://www.wikidata.org/entity/Q1096922', 'http://www.wikidata.org/entity/Q1173914', 'http://www.wikidata.org/entity/Q124285622', 'http://www.wikidata.org/entity/Q125118333', 'http://www.wikidata.org/entity/Q125397277', 'http://www.wikidata.org/entity/Q129674231', 'http://www.wikidata.org/entity/Q1356211', 'http://www.wikidata.org/entity/Q1371542', 'http://www.wikidata.org/entity/Q1453597', 'http://www.wikidata.org/entity/Q1507832', 'http://www.wikidata.org/entity/Q15966855', 'http://www.wikidata.org/entity/Q16146513', 'http://www.wikidata.org/entity/Q16163013', 'http://www.wikidata.org/entity/Q16214810', 'http://www.wikidata.org/entity/Q1648234', 'http://www.wikidata.org/entity/Q1655475', 'http://www.wikidata.org/entity/Q16598377', 'http://www.wikidata.org/entity/Q1685756', 'http://www.wikidata.org/entity/Q1686437', 'http://www.wikidata.org/entity/Q16944482', 'http://www.wikidata.org/entity/Q16977455', 'http://www.wikidata.org/entity/Q16977456', 'http://www.wikidata.org/entity/Q16977477', 'http://www.wikidata.org/entity/Q16977559', 'http://www.wikidata.org/entity/Q1699362', 'http://www.wikidata.org/entity/Q1703195', 'http://www.wikidata.org/entity/Q17057003', 'http://www.wikidata.org/entity/Q17144475', 'http://www.wikidata.org/entity/Q17279925', 'http://www.wikidata.org/entity/Q17280065', 'http://www.wikidata.org/entity/Q17280963', 'http://www.wikidata.org/entity/Q17284905', 'http://www.wikidata.org/entity/Q17284928', 'http://www.wikidata.org/entity/Q17298627', 'http://www.wikidata.org/entity/Q17303639', 'http://www.wikidata.org/entity/Q17306893', 'http://www.wikidata.org/entity/Q17327586', 'http://www.wikidata.org/entity/Q17327760', 'http://www.wikidata.org/entity/Q17352178', 'http://www.wikidata.org/entity/Q17352188', 'http://www.wikidata.org/entity/Q1740253', 'http://www.wikidata.org/entity/Q179952', 'http://www.wikidata.org/entity/Q18412697', 'http://www.wikidata.org/entity/Q18515962', 'http://www.wikidata.org/entity/Q18589449', 'http://www.wikidata.org/entity/Q18620693', 'http://www.wikidata.org/entity/Q18811153', 'http://www.wikidata.org/entity/Q1907692', 'http://www.wikidata.org/entity/Q1927207', 'http://www.wikidata.org/entity/Q1927514', 'http://www.wikidata.org/entity/Q19560231', 'http://www.wikidata.org/entity/Q19643722', 'http://www.wikidata.org/entity/Q19643731', 'http://www.wikidata.org/entity/Q19643733', 'http://www.wikidata.org/entity/Q19872307', 'http://www.wikidata.org/entity/Q19956337', 'http://www.wikidata.org/entity/Q19956650', 'http://www.wikidata.org/entity/Q19956753', 'http://www.wikidata.org/entity/Q2018463', 'http://www.wikidata.org/entity/Q20641558', 'http://www.wikidata.org/entity/Q20641651', 'http://www.wikidata.org/entity/Q20986521', 'http://www.wikidata.org/entity/Q2134271', 'http://www.wikidata.org/entity/Q2146518', 'http://www.wikidata.org/entity/Q2161068', 'http://www.wikidata.org/entity/Q2178030', 'http://www.wikidata.org/entity/Q2178054', 'http://www.wikidata.org/entity/Q2277399', 'http://www.wikidata.org/entity/Q2336395', 'http://www.wikidata.org/entity/Q2350107', 'http://www.wikidata.org/entity/Q24266711', 'http://www.wikidata.org/entity/Q24450398', 'http://www.wikidata.org/entity/Q2600084', 'http://www.wikidata.org/entity/Q2601973', 'http://www.wikidata.org/entity/Q2641446', 'http://www.wikidata.org/entity/Q28145338', 'http://www.wikidata.org/entity/Q28145349', 'http://www.wikidata.org/entity/Q28145357', 'http://www.wikidata.org/entity/Q29077561', 'http://www.wikidata.org/entity/Q29161403', 'http://www.wikidata.org/entity/Q302914', 'http://www.wikidata.org/entity/Q304222', 'http://www.wikidata.org/entity/Q30532844', 'http://www.wikidata.org/entity/Q3438358', 'http://www.wikidata.org/entity/Q3640619', 'http://www.wikidata.org/entity/Q372749', 'http://www.wikidata.org/entity/Q373986', 'http://www.wikidata.org/entity/Q3788418', 'http://www.wikidata.org/entity/Q3805894', 'http://www.wikidata.org/entity/Q3808641', 'http://www.wikidata.org/entity/Q3903429', 'http://www.wikidata.org/entity/Q393288', 'http://www.wikidata.org/entity/Q3984246', 'http://www.wikidata.org/entity/Q4168933', 'http://www.wikidata.org/entity/Q4281245', 'http://www.wikidata.org/entity/Q4320324', 'http://www.wikidata.org/entity/Q43252374', 'http://www.wikidata.org/entity/Q444083', 'http://www.wikidata.org/entity/Q446027', 'http://www.wikidata.org/entity/Q446040', 'http://www.wikidata.org/entity/Q446060', 'http://www.wikidata.org/entity/Q4576036', 'http://www.wikidata.org/entity/Q47501255', 'http://www.wikidata.org/entity/Q4775558', 'http://www.wikidata.org/entity/Q4831692', 'http://www.wikidata.org/entity/Q4965405', 'http://www.wikidata.org/entity/Q504142', 'http://www.wikidata.org/entity/Q5075274', 'http://www.wikidata.org/entity/Q5080928', 'http://www.wikidata.org/entity/Q5082378', 'http://www.wikidata.org/entity/Q51090087', 'http://www.wikidata.org/entity/Q51090088', 'http://www.wikidata.org/entity/Q5171387', 'http://www.wikidata.org/entity/Q5218912', 'http://www.wikidata.org/entity/Q522722', 'http://www.wikidata.org/entity/Q5257150', 'http://www.wikidata.org/entity/Q5258750', 'http://www.wikidata.org/entity/Q5318734', 'http://www.wikidata.org/entity/Q5341660', 'http://www.wikidata.org/entity/Q5342530', 'http://www.wikidata.org/entity/Q5369048', 'http://www.wikidata.org/entity/Q5387450', 'http://www.wikidata.org/entity/Q54667230', 'http://www.wikidata.org/entity/Q55183403', 'http://www.wikidata.org/entity/Q5522971', 'http://www.wikidata.org/entity/Q55956335', 'http://www.wikidata.org/entity/Q56600130', 'http://www.wikidata.org/entity/Q5718354', 'http://www.wikidata.org/entity/Q57262270', 'http://www.wikidata.org/entity/Q587134', 'http://www.wikidata.org/entity/Q5981460', 'http://www.wikidata.org/entity/Q5982979', 'http://www.wikidata.org/entity/Q617595', 'http://www.wikidata.org/entity/Q61787980', 'http://www.wikidata.org/entity/Q6185765', 'http://www.wikidata.org/entity/Q6185783', 'http://www.wikidata.org/entity/Q6199667', 'http://www.wikidata.org/entity/Q6209096', 'http://www.wikidata.org/entity/Q6228011', 'http://www.wikidata.org/entity/Q62512800', 'http://www.wikidata.org/entity/Q6273795', 'http://www.wikidata.org/entity/Q6280016', 'http://www.wikidata.org/entity/Q6284402', 'http://www.wikidata.org/entity/Q633332', 'http://www.wikidata.org/entity/Q6437934', 'http://www.wikidata.org/entity/Q6554673', 'http://www.wikidata.org/entity/Q6668992', 'http://www.wikidata.org/entity/Q66827884', 'http://www.wikidata.org/entity/Q66841118', 'http://www.wikidata.org/entity/Q66938881', 'http://www.wikidata.org/entity/Q66939442', 'http://www.wikidata.org/entity/Q6764669', 'http://www.wikidata.org/entity/Q6775566', 'http://www.wikidata.org/entity/Q6776550', 'http://www.wikidata.org/entity/Q680512', 'http://www.wikidata.org/entity/Q6932071', 'http://www.wikidata.org/entity/Q7087842', 'http://www.wikidata.org/entity/Q71035154', 'http://www.wikidata.org/entity/Q718040', 'http://www.wikidata.org/entity/Q7197493', 'http://www.wikidata.org/entity/Q7279212', 'http://www.wikidata.org/entity/Q7297466', 'http://www.wikidata.org/entity/Q7308644', 'http://www.wikidata.org/entity/Q736771', 'http://www.wikidata.org/entity/Q7406948', 'http://www.wikidata.org/entity/Q7428345', 'http://www.wikidata.org/entity/Q7441461', 'http://www.wikidata.org/entity/Q745555', 'http://www.wikidata.org/entity/Q7463162', 'http://www.wikidata.org/entity/Q7463312', 'http://www.wikidata.org/entity/Q7463323', 'http://www.wikidata.org/entity/Q75135779', 'http://www.wikidata.org/entity/Q7519908', 'http://www.wikidata.org/entity/Q75635489', 'http://www.wikidata.org/entity/Q7608617', 'http://www.wikidata.org/entity/Q7611949', 'http://www.wikidata.org/entity/Q762057', 'http://www.wikidata.org/entity/Q768060', 'http://www.wikidata.org/entity/Q785842', 'http://www.wikidata.org/entity/Q7931678', 'http://www.wikidata.org/entity/Q79981875', 'http://www.wikidata.org/entity/Q8739830', 'http://www.wikidata.org/entity/Q8742822', 'http://www.wikidata.org/entity/Q8854881', 'http://www.wikidata.org/entity/Q887449', 'http://www.wikidata.org/entity/Q913048', 'http://www.wikidata.org/entity/Q92303735', 'http://www.wikidata.org/entity/Q93318463', 'http://www.wikidata.org/entity/Q93318464', 'http://www.wikidata.org/entity/Q93318466', 'http://www.wikidata.org/entity/Q94606737', 'http://www.wikidata.org/entity/Q949755', 'http://www.wikidata.org/entity/Q951577', 'http://www.wikidata.org/entity/Q952394', 'http://www.wikidata.org/entity/Q968613', 'http://www.wikidata.org/entity/Q983145', 'http://www.wikidata.org/entity/Q983148', 'http://www.wikidata.org/entity/Q98785910', 'http://www.wikidata.org/entity/Q98852975', 'http://www.wikidata.org/entity/Q98930910', 'http://www.wikidata.org/entity/Q98930945']</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q6069405']</t>
+          <t>['http://www.wikidata.org/entity/Q100151816', 'http://www.wikidata.org/entity/Q101490959', 'http://www.wikidata.org/entity/Q101492327', 'http://www.wikidata.org/entity/Q106228741', 'http://www.wikidata.org/entity/Q1065590', 'http://www.wikidata.org/entity/Q16146513', 'http://www.wikidata.org/entity/Q16163013', 'http://www.wikidata.org/entity/Q16214810', 'http://www.wikidata.org/entity/Q1685756', 'http://www.wikidata.org/entity/Q1686437', 'http://www.wikidata.org/entity/Q16977455', 'http://www.wikidata.org/entity/Q16977456', 'http://www.wikidata.org/entity/Q17284905', 'http://www.wikidata.org/entity/Q1907692', 'http://www.wikidata.org/entity/Q1927207', 'http://www.wikidata.org/entity/Q1927514', 'http://www.wikidata.org/entity/Q19560231', 'http://www.wikidata.org/entity/Q19956337', 'http://www.wikidata.org/entity/Q19956650', 'http://www.wikidata.org/entity/Q20641558', 'http://www.wikidata.org/entity/Q20641651', 'http://www.wikidata.org/entity/Q3640619', 'http://www.wikidata.org/entity/Q372749', 'http://www.wikidata.org/entity/Q3808641', 'http://www.wikidata.org/entity/Q3903429', 'http://www.wikidata.org/entity/Q4320324', 'http://www.wikidata.org/entity/Q4576036', 'http://www.wikidata.org/entity/Q47501255', 'http://www.wikidata.org/entity/Q4831692', 'http://www.wikidata.org/entity/Q4965405', 'http://www.wikidata.org/entity/Q5080928', 'http://www.wikidata.org/entity/Q5082378', 'http://www.wikidata.org/entity/Q5171387', 'http://www.wikidata.org/entity/Q5218912', 'http://www.wikidata.org/entity/Q5258750', 'http://www.wikidata.org/entity/Q5342530', 'http://www.wikidata.org/entity/Q5369048', 'http://www.wikidata.org/entity/Q5387450', 'http://www.wikidata.org/entity/Q54667230', 'http://www.wikidata.org/entity/Q56600130', 'http://www.wikidata.org/entity/Q57262270', 'http://www.wikidata.org/entity/Q5981460', 'http://www.wikidata.org/entity/Q6185765', 'http://www.wikidata.org/entity/Q6185783', 'http://www.wikidata.org/entity/Q6199667', 'http://www.wikidata.org/entity/Q6209096', 'http://www.wikidata.org/entity/Q6228011', 'http://www.wikidata.org/entity/Q62512800', 'http://www.wikidata.org/entity/Q6273795', 'http://www.wikidata.org/entity/Q6284402', 'http://www.wikidata.org/entity/Q6437934', 'http://www.wikidata.org/entity/Q6554673', 'http://www.wikidata.org/entity/Q6668992', 'http://www.wikidata.org/entity/Q66827884', 'http://www.wikidata.org/entity/Q66841118', 'http://www.wikidata.org/entity/Q66939442', 'http://www.wikidata.org/entity/Q6764669', 'http://www.wikidata.org/entity/Q6775566', 'http://www.wikidata.org/entity/Q6776550', 'http://www.wikidata.org/entity/Q71035154', 'http://www.wikidata.org/entity/Q7197493', 'http://www.wikidata.org/entity/Q7279212', 'http://www.wikidata.org/entity/Q7308644', 'http://www.wikidata.org/entity/Q7406948', 'http://www.wikidata.org/entity/Q75135779', 'http://www.wikidata.org/entity/Q8742822', 'http://www.wikidata.org/entity/Q93318464', 'http://www.wikidata.org/entity/Q93318466', 'http://www.wikidata.org/entity/Q98785910', 'http://www.wikidata.org/entity/Q98852975', 'http://www.wikidata.org/entity/Q98930910', 'http://www.wikidata.org/entity/Q98930945']</t>
         </is>
       </c>
       <c r="D51" t="b">
@@ -1458,17 +1458,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Who discovered Ceres?</t>
+          <t>What is the capital of Cameroon?</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q14280']</t>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q14280']</t>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
         </is>
       </c>
       <c r="D52" t="b">
@@ -1478,17 +1478,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Give me a list of all bandleaders that play trumpet.</t>
+          <t>How many programming languages are there?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q23874600', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820']</t>
+          <t>['1811']</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q106435366', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q23874600', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820']</t>
+          <t>['1487']</t>
         </is>
       </c>
       <c r="D53" t="b">
@@ -1498,17 +1498,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+          <t>Who created Family Guy?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+          <t>['http://www.wikidata.org/entity/Q188492']</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+          <t>['http://www.wikidata.org/entity/Q188492']</t>
         </is>
       </c>
       <c r="D54" t="b">
@@ -1518,17 +1518,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>What is the capital of Canada?</t>
+          <t>How much is the population of mexico city ?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1930']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1930']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="D55" t="b">
@@ -1538,17 +1538,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>What is the capital of Cameroon?</t>
+          <t>How many people live in the capital of Australia?</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3808']</t>
+          <t>['381488']</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3808']</t>
+          <t>['381488']</t>
         </is>
       </c>
       <c r="D56" t="b">
@@ -1558,37 +1558,37 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>How many programming languages are there?</t>
+          <t>how big is the total area of North Rhine- Westphalia?</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['1811']</t>
+          <t>['34112.5']</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['1487']</t>
+          <t>['34112.5']</t>
         </is>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Who created Family Guy?</t>
+          <t>How many employees does IBM have?</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q188492']</t>
+          <t>['352600']</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q188492']</t>
+          <t>['352600']</t>
         </is>
       </c>
       <c r="D58" t="b">
@@ -1598,17 +1598,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Who created Batman?</t>
+          <t>What movies does Jesse Eisenberg play in?</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
+          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q110060321', 'http://www.wikidata.org/entity/Q110060323', 'http://www.wikidata.org/entity/Q111950685', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q37909451', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q474246', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q313048', 'Bob Kane', 'http://www.wikidata.org/entity/Q313048', 'Bob Kane', 'http://www.wikidata.org/entity/Q313048', 'Bob Kane', 'http://www.wikidata.org/entity/Q464282', 'Bill Finger']</t>
+          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
         </is>
       </c>
       <c r="D59" t="b">
@@ -1618,140 +1618,60 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>How many people live in the capital of Australia?</t>
+          <t>What is the largest country in the world?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['381488']</t>
+          <t>['http://www.wikidata.org/entity/Q124003554']</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['381488']</t>
+          <t>['http://www.wikidata.org/entity/Q159']</t>
         </is>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>How many employees does IBM have?</t>
+          <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['352600']</t>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q154804']</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['352600']</t>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
         </is>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>What movies does Jesse Eisenberg play in?</t>
+          <t>Who created Goofy?</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q110060321', 'http://www.wikidata.org/entity/Q110060323', 'http://www.wikidata.org/entity/Q111950685', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q37909451', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q474246', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
+          <t>['http://www.wikidata.org/entity/Q2420722']</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
+          <t>['http://www.wikidata.org/entity/Q2420722']</t>
         </is>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>To which countries does the Himalayan mountain system extend?</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q252', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
-        </is>
-      </c>
-      <c r="D63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>What is the largest country in the world?</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q124003554']</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>['17075400', 'http://www.wikidata.org/entity/Q159']</t>
-        </is>
-      </c>
-      <c r="D64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q154804']</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
-        </is>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Who created Goofy?</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q2420722']</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q2420722']</t>
-        </is>
-      </c>
-      <c r="D66" t="b">
         <v>1</v>
       </c>
     </row>
